--- a/data/nzd0139/nzd0139.xlsx
+++ b/data/nzd0139/nzd0139.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH247"/>
+  <dimension ref="A1:AH252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24894,6 +24894,488 @@
         </is>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>375.49</v>
+      </c>
+      <c r="C248" t="n">
+        <v>368.5</v>
+      </c>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>394.5233333333333</v>
+      </c>
+      <c r="L248" t="n">
+        <v>394.73</v>
+      </c>
+      <c r="M248" t="n">
+        <v>383.9014285714285</v>
+      </c>
+      <c r="N248" t="n">
+        <v>378.7214285714285</v>
+      </c>
+      <c r="O248" t="n">
+        <v>375.6</v>
+      </c>
+      <c r="P248" t="n">
+        <v>369.29</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>363.6</v>
+      </c>
+      <c r="R248" t="n">
+        <v>367.0466666666667</v>
+      </c>
+      <c r="S248" t="n">
+        <v>368.6914285714286</v>
+      </c>
+      <c r="T248" t="n">
+        <v>369.5914285714285</v>
+      </c>
+      <c r="U248" t="n">
+        <v>369.6866666666667</v>
+      </c>
+      <c r="V248" t="n">
+        <v>370.2814285714285</v>
+      </c>
+      <c r="W248" t="n">
+        <v>372.19</v>
+      </c>
+      <c r="X248" t="n">
+        <v>374.3814285714286</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>375.01</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>375.42</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>380.5114285714286</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>378.4514285714286</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>390.22</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>393.62</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>384.2114285714285</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>403.9844444444445</v>
+      </c>
+      <c r="AG248" t="inlineStr"/>
+      <c r="AH248" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>387.92</v>
+      </c>
+      <c r="C249" t="n">
+        <v>378.12</v>
+      </c>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="inlineStr"/>
+      <c r="O249" t="inlineStr"/>
+      <c r="P249" t="inlineStr"/>
+      <c r="Q249" t="inlineStr"/>
+      <c r="R249" t="inlineStr"/>
+      <c r="S249" t="inlineStr"/>
+      <c r="T249" t="inlineStr"/>
+      <c r="U249" t="inlineStr"/>
+      <c r="V249" t="inlineStr"/>
+      <c r="W249" t="inlineStr"/>
+      <c r="X249" t="n">
+        <v>391.48</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>388.35</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>391.62</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>385.2</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>388.24</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>390.14</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>394.31</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>387.22</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>400.8122222222222</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>386.8</v>
+      </c>
+      <c r="AH249" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>373.2</v>
+      </c>
+      <c r="C250" t="n">
+        <v>366.23</v>
+      </c>
+      <c r="D250" t="n">
+        <v>371.1272727272727</v>
+      </c>
+      <c r="E250" t="n">
+        <v>378.3322222222222</v>
+      </c>
+      <c r="F250" t="n">
+        <v>381.3022222222222</v>
+      </c>
+      <c r="G250" t="n">
+        <v>387.0633333333333</v>
+      </c>
+      <c r="H250" t="n">
+        <v>384.85</v>
+      </c>
+      <c r="I250" t="n">
+        <v>392.78</v>
+      </c>
+      <c r="J250" t="n">
+        <v>394.93</v>
+      </c>
+      <c r="K250" t="n">
+        <v>401.9066666666667</v>
+      </c>
+      <c r="L250" t="n">
+        <v>396.4015384615385</v>
+      </c>
+      <c r="M250" t="n">
+        <v>391.6728571428571</v>
+      </c>
+      <c r="N250" t="n">
+        <v>396.6228571428572</v>
+      </c>
+      <c r="O250" t="n">
+        <v>381.7515384615385</v>
+      </c>
+      <c r="P250" t="n">
+        <v>382.4315384615385</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>373.9715384615384</v>
+      </c>
+      <c r="R250" t="n">
+        <v>370.9133333333334</v>
+      </c>
+      <c r="S250" t="n">
+        <v>373.9628571428572</v>
+      </c>
+      <c r="T250" t="n">
+        <v>376.2128571428572</v>
+      </c>
+      <c r="U250" t="n">
+        <v>378.2333333333333</v>
+      </c>
+      <c r="V250" t="n">
+        <v>385.8328571428572</v>
+      </c>
+      <c r="W250" t="n">
+        <v>382.9815384615384</v>
+      </c>
+      <c r="X250" t="n">
+        <v>387.0828571428572</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>381.4815384615384</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>380.9815384615384</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>380.0528571428572</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>382.5928571428572</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>388.7315384615384</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>385.9815384615384</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>378.2528571428572</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>398.1822222222222</v>
+      </c>
+      <c r="AG250" t="inlineStr"/>
+      <c r="AH250" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>397.72</v>
+      </c>
+      <c r="C251" t="n">
+        <v>385.42</v>
+      </c>
+      <c r="D251" t="n">
+        <v>388.1236363636364</v>
+      </c>
+      <c r="E251" t="n">
+        <v>405.3622222222222</v>
+      </c>
+      <c r="F251" t="n">
+        <v>404.6222222222222</v>
+      </c>
+      <c r="G251" t="n">
+        <v>405.9733333333333</v>
+      </c>
+      <c r="H251" t="n">
+        <v>382.03</v>
+      </c>
+      <c r="I251" t="n">
+        <v>408.22</v>
+      </c>
+      <c r="J251" t="n">
+        <v>404.45</v>
+      </c>
+      <c r="K251" t="n">
+        <v>406.0566666666667</v>
+      </c>
+      <c r="L251" t="n">
+        <v>402.0169230769231</v>
+      </c>
+      <c r="M251" t="n">
+        <v>397.8714285714286</v>
+      </c>
+      <c r="N251" t="n">
+        <v>390.9114285714285</v>
+      </c>
+      <c r="O251" t="n">
+        <v>392.5869230769231</v>
+      </c>
+      <c r="P251" t="n">
+        <v>389.0469230769231</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>386.3769230769231</v>
+      </c>
+      <c r="R251" t="n">
+        <v>389.2133333333333</v>
+      </c>
+      <c r="S251" t="n">
+        <v>389.0714285714286</v>
+      </c>
+      <c r="T251" t="n">
+        <v>392.6414285714285</v>
+      </c>
+      <c r="U251" t="n">
+        <v>393.2333333333333</v>
+      </c>
+      <c r="V251" t="n">
+        <v>392.5314285714285</v>
+      </c>
+      <c r="W251" t="n">
+        <v>397.2969230769231</v>
+      </c>
+      <c r="X251" t="n">
+        <v>394.6614285714285</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>397.9269230769231</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>394.4569230769231</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>394.2714285714285</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>395.9514285714286</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>400.8969230769231</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>399.7169230769231</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>392.5414285714286</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>401.8022222222222</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>378.58</v>
+      </c>
+      <c r="AH251" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>378.6</v>
+      </c>
+      <c r="C252" t="n">
+        <v>371.66</v>
+      </c>
+      <c r="D252" t="n">
+        <v>372.7972727272728</v>
+      </c>
+      <c r="E252" t="n">
+        <v>385.6022222222222</v>
+      </c>
+      <c r="F252" t="n">
+        <v>393.4022222222222</v>
+      </c>
+      <c r="G252" t="n">
+        <v>400.5633333333333</v>
+      </c>
+      <c r="H252" t="n">
+        <v>387.14</v>
+      </c>
+      <c r="I252" t="n">
+        <v>404.78</v>
+      </c>
+      <c r="J252" t="n">
+        <v>400.26</v>
+      </c>
+      <c r="K252" t="n">
+        <v>394.2466666666666</v>
+      </c>
+      <c r="L252" t="n">
+        <v>394.1023076923077</v>
+      </c>
+      <c r="M252" t="n">
+        <v>393.8157142857143</v>
+      </c>
+      <c r="N252" t="n">
+        <v>385.9557142857143</v>
+      </c>
+      <c r="O252" t="n">
+        <v>384.3523076923077</v>
+      </c>
+      <c r="P252" t="n">
+        <v>382.5423076923077</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>379.6223076923077</v>
+      </c>
+      <c r="R252" t="n">
+        <v>382.3633333333333</v>
+      </c>
+      <c r="S252" t="n">
+        <v>380.4057142857143</v>
+      </c>
+      <c r="T252" t="n">
+        <v>382.1857142857143</v>
+      </c>
+      <c r="U252" t="n">
+        <v>382.5533333333333</v>
+      </c>
+      <c r="V252" t="n">
+        <v>383.4257142857143</v>
+      </c>
+      <c r="W252" t="n">
+        <v>387.4823076923077</v>
+      </c>
+      <c r="X252" t="n">
+        <v>385.5657142857143</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>386.0523076923077</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>387.0923076923077</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>389.1357142857143</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>388.8257142857143</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>395.3323076923077</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>391.4523076923077</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>386.6257142857143</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>387.2322222222222</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>366.43</v>
+      </c>
+      <c r="AH252" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24905,7 +25387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B253"/>
+  <dimension ref="A1:B258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27443,6 +27925,56 @@
       </c>
       <c r="B253" t="n">
         <v>-0.41</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
@@ -27611,28 +28143,28 @@
         <v>0.0462</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2887067292996667</v>
+        <v>-0.2500667786105017</v>
       </c>
       <c r="J2" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K2" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03178841397139931</v>
+        <v>0.02482305549827035</v>
       </c>
       <c r="M2" t="n">
-        <v>8.820037759577462</v>
+        <v>8.77668148109508</v>
       </c>
       <c r="N2" t="n">
-        <v>129.3764767722645</v>
+        <v>129.3694053166802</v>
       </c>
       <c r="O2" t="n">
-        <v>11.3743780828784</v>
+        <v>11.37406722842274</v>
       </c>
       <c r="P2" t="n">
-        <v>382.7892201541688</v>
+        <v>382.4064000005266</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -27688,28 +28220,28 @@
         <v>0.0568</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3578490506920394</v>
+        <v>-0.3232377488536757</v>
       </c>
       <c r="J3" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K3" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0580617044455336</v>
+        <v>0.04934283831194952</v>
       </c>
       <c r="M3" t="n">
-        <v>8.370964967615754</v>
+        <v>8.351383454275389</v>
       </c>
       <c r="N3" t="n">
-        <v>106.0808119771111</v>
+        <v>105.7789614461443</v>
       </c>
       <c r="O3" t="n">
-        <v>10.29955396981399</v>
+        <v>10.28488995790156</v>
       </c>
       <c r="P3" t="n">
-        <v>376.0877527816519</v>
+        <v>375.7418772103868</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -27765,28 +28297,28 @@
         <v>0.0622</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4653344525046502</v>
+        <v>-0.4067473285086051</v>
       </c>
       <c r="J4" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K4" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07990103332160048</v>
+        <v>0.061874938176673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.113166897466137</v>
+        <v>9.265108904719346</v>
       </c>
       <c r="N4" t="n">
-        <v>127.1476197201483</v>
+        <v>130.6108699644218</v>
       </c>
       <c r="O4" t="n">
-        <v>11.27597533343117</v>
+        <v>11.42851127507086</v>
       </c>
       <c r="P4" t="n">
-        <v>372.1809208179157</v>
+        <v>371.5990384308608</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -27842,28 +28374,28 @@
         <v>0.0468</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.699523844743261</v>
+        <v>-0.626582057667082</v>
       </c>
       <c r="J5" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K5" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L5" t="n">
-        <v>0.105730962469795</v>
+        <v>0.08576624985006898</v>
       </c>
       <c r="M5" t="n">
-        <v>11.90995483117074</v>
+        <v>12.04724617694345</v>
       </c>
       <c r="N5" t="n">
-        <v>208.6366662318781</v>
+        <v>214.9714935450571</v>
       </c>
       <c r="O5" t="n">
-        <v>14.44426066754121</v>
+        <v>14.66190620434659</v>
       </c>
       <c r="P5" t="n">
-        <v>385.4112909945396</v>
+        <v>384.6712574978029</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -27919,28 +28451,28 @@
         <v>0.0513</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7612980080140869</v>
+        <v>-0.6720534152285651</v>
       </c>
       <c r="J6" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K6" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09003350176418856</v>
+        <v>0.07116575210522491</v>
       </c>
       <c r="M6" t="n">
-        <v>14.12304069587241</v>
+        <v>14.34010953015101</v>
       </c>
       <c r="N6" t="n">
-        <v>298.140726227212</v>
+        <v>306.0354735194014</v>
       </c>
       <c r="O6" t="n">
-        <v>17.26675204626545</v>
+        <v>17.49386959821644</v>
       </c>
       <c r="P6" t="n">
-        <v>385.3976294716495</v>
+        <v>384.5079634298525</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -27996,28 +28528,28 @@
         <v>0.0335</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.9781893625227971</v>
+        <v>-0.8529524255672705</v>
       </c>
       <c r="J7" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K7" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07011073568545867</v>
+        <v>0.05471087197335367</v>
       </c>
       <c r="M7" t="n">
-        <v>20.73739994875262</v>
+        <v>20.83358459695271</v>
       </c>
       <c r="N7" t="n">
-        <v>650.3786251368382</v>
+        <v>659.377351146998</v>
       </c>
       <c r="O7" t="n">
-        <v>25.50252193679751</v>
+        <v>25.67834401099491</v>
       </c>
       <c r="P7" t="n">
-        <v>388.7505103740105</v>
+        <v>387.5230418475589</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28073,28 +28605,28 @@
         <v>0.0222</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08867160905428551</v>
+        <v>0.1314490612361035</v>
       </c>
       <c r="J8" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K8" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006746816643424802</v>
+        <v>0.001532037315266743</v>
       </c>
       <c r="M8" t="n">
-        <v>19.2343122150364</v>
+        <v>19.101533026263</v>
       </c>
       <c r="N8" t="n">
-        <v>574.1603873874982</v>
+        <v>566.4243203855362</v>
       </c>
       <c r="O8" t="n">
-        <v>23.96164408773943</v>
+        <v>23.79967059405521</v>
       </c>
       <c r="P8" t="n">
-        <v>370.5122336085961</v>
+        <v>370.07003583026</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -28150,28 +28682,28 @@
         <v>0.0276</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6083158011574076</v>
+        <v>0.6583957001396469</v>
       </c>
       <c r="J9" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K9" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04696530543362554</v>
+        <v>0.05597845711134719</v>
       </c>
       <c r="M9" t="n">
-        <v>15.73405477246592</v>
+        <v>15.73056251357344</v>
       </c>
       <c r="N9" t="n">
-        <v>387.5032982543559</v>
+        <v>385.3307387502152</v>
       </c>
       <c r="O9" t="n">
-        <v>19.68510346059568</v>
+        <v>19.62984306483919</v>
       </c>
       <c r="P9" t="n">
-        <v>371.5250628012787</v>
+        <v>371.0361769310791</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -28227,28 +28759,28 @@
         <v>0.0422</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3938641230019879</v>
+        <v>0.4473821393682456</v>
       </c>
       <c r="J10" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K10" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04156137194660414</v>
+        <v>0.05373188436566445</v>
       </c>
       <c r="M10" t="n">
-        <v>10.5219567413799</v>
+        <v>10.59464024330628</v>
       </c>
       <c r="N10" t="n">
-        <v>182.5593843496794</v>
+        <v>183.8126977009159</v>
       </c>
       <c r="O10" t="n">
-        <v>13.51145382072852</v>
+        <v>13.55775415402256</v>
       </c>
       <c r="P10" t="n">
-        <v>373.7154124205398</v>
+        <v>373.1935496774194</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -28304,28 +28836,28 @@
         <v>0.0646</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3149499714552902</v>
+        <v>0.3875557783241096</v>
       </c>
       <c r="J11" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K11" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04550934588701205</v>
+        <v>0.06684420466559149</v>
       </c>
       <c r="M11" t="n">
-        <v>8.080822527673952</v>
+        <v>8.246539831792107</v>
       </c>
       <c r="N11" t="n">
-        <v>100.8665105934482</v>
+        <v>104.5992623832882</v>
       </c>
       <c r="O11" t="n">
-        <v>10.04323207903951</v>
+        <v>10.22737807961005</v>
       </c>
       <c r="P11" t="n">
-        <v>374.4355165282673</v>
+        <v>373.7066715009351</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -28381,28 +28913,28 @@
         <v>0.068</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3257515113564315</v>
+        <v>0.394088450356407</v>
       </c>
       <c r="J12" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K12" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05102269100872125</v>
+        <v>0.07259822594153553</v>
       </c>
       <c r="M12" t="n">
-        <v>8.164876807625349</v>
+        <v>8.292594233028908</v>
       </c>
       <c r="N12" t="n">
-        <v>95.28045130051615</v>
+        <v>98.4165263567082</v>
       </c>
       <c r="O12" t="n">
-        <v>9.761170590688197</v>
+        <v>9.92051038791393</v>
       </c>
       <c r="P12" t="n">
-        <v>372.326120529414</v>
+        <v>371.6347071998043</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -28458,28 +28990,28 @@
         <v>0.0769</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2162557019409009</v>
+        <v>0.2558181632412953</v>
       </c>
       <c r="J13" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K13" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0269694156930651</v>
+        <v>0.03796818669824142</v>
       </c>
       <c r="M13" t="n">
-        <v>7.549748084364682</v>
+        <v>7.577102999619496</v>
       </c>
       <c r="N13" t="n">
-        <v>81.5216577933689</v>
+        <v>82.15258980789595</v>
       </c>
       <c r="O13" t="n">
-        <v>9.028934477188818</v>
+        <v>9.063806584867969</v>
       </c>
       <c r="P13" t="n">
-        <v>376.5878044260708</v>
+        <v>376.1833194341813</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -28535,28 +29067,28 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1348083615160709</v>
+        <v>0.1608590125256718</v>
       </c>
       <c r="J14" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K14" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L14" t="n">
-        <v>0.010960098588361</v>
+        <v>0.01585511332935907</v>
       </c>
       <c r="M14" t="n">
-        <v>7.135530020373411</v>
+        <v>7.15191148361956</v>
       </c>
       <c r="N14" t="n">
-        <v>80.14272231419349</v>
+        <v>80.25786149514551</v>
       </c>
       <c r="O14" t="n">
-        <v>8.952246774647886</v>
+        <v>8.958675208709462</v>
       </c>
       <c r="P14" t="n">
-        <v>377.8618863340342</v>
+        <v>377.5935916745351</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -28612,28 +29144,28 @@
         <v>0.0688</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2830968533756323</v>
+        <v>0.2908268850170522</v>
       </c>
       <c r="J15" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K15" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05118912927557928</v>
+        <v>0.05529627746322385</v>
       </c>
       <c r="M15" t="n">
-        <v>6.911998117165387</v>
+        <v>6.880496947764196</v>
       </c>
       <c r="N15" t="n">
-        <v>75.70172391270084</v>
+        <v>75.08747851624216</v>
       </c>
       <c r="O15" t="n">
-        <v>8.700673761996875</v>
+        <v>8.665303140470169</v>
       </c>
       <c r="P15" t="n">
-        <v>374.2109750233724</v>
+        <v>374.1323252556768</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -28689,28 +29221,28 @@
         <v>0.0687</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1889863206045045</v>
+        <v>0.1931662428370639</v>
       </c>
       <c r="J16" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K16" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02466739259803286</v>
+        <v>0.02636777614447927</v>
       </c>
       <c r="M16" t="n">
-        <v>6.868430695298032</v>
+        <v>6.857047206272605</v>
       </c>
       <c r="N16" t="n">
-        <v>71.30654653186706</v>
+        <v>70.97854644112518</v>
       </c>
       <c r="O16" t="n">
-        <v>8.444320371223906</v>
+        <v>8.424876642487128</v>
       </c>
       <c r="P16" t="n">
-        <v>374.8661545117122</v>
+        <v>374.8233418890849</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -28766,28 +29298,28 @@
         <v>0.0702</v>
       </c>
       <c r="I17" t="n">
-        <v>0.239882539095841</v>
+        <v>0.2298224337511278</v>
       </c>
       <c r="J17" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K17" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03965476500171761</v>
+        <v>0.03719956798305046</v>
       </c>
       <c r="M17" t="n">
-        <v>6.882470150846771</v>
+        <v>6.888098977325842</v>
       </c>
       <c r="N17" t="n">
-        <v>71.35989144727745</v>
+        <v>71.46558259289569</v>
       </c>
       <c r="O17" t="n">
-        <v>8.447478407624221</v>
+        <v>8.453731873728648</v>
       </c>
       <c r="P17" t="n">
-        <v>372.6829482767416</v>
+        <v>372.7824506428723</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -28843,28 +29375,28 @@
         <v>0.0801</v>
       </c>
       <c r="I18" t="n">
-        <v>0.188222976594539</v>
+        <v>0.1829034932695549</v>
       </c>
       <c r="J18" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K18" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0266640427781164</v>
+        <v>0.02558922341063841</v>
       </c>
       <c r="M18" t="n">
-        <v>6.479028055725129</v>
+        <v>6.51018593925473</v>
       </c>
       <c r="N18" t="n">
-        <v>65.70310361686951</v>
+        <v>65.9603974838427</v>
       </c>
       <c r="O18" t="n">
-        <v>8.105745099426056</v>
+        <v>8.121600672517868</v>
       </c>
       <c r="P18" t="n">
-        <v>374.1928917016396</v>
+        <v>374.246042459982</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -28920,28 +29452,28 @@
         <v>0.0769</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1504806851935238</v>
+        <v>0.140906679652224</v>
       </c>
       <c r="J19" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K19" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01784491626369311</v>
+        <v>0.0159507044158067</v>
       </c>
       <c r="M19" t="n">
-        <v>6.573262974537035</v>
+        <v>6.581114531627747</v>
       </c>
       <c r="N19" t="n">
-        <v>63.56894415035393</v>
+        <v>63.60599052237499</v>
       </c>
       <c r="O19" t="n">
-        <v>7.973013492422669</v>
+        <v>7.975336389292616</v>
       </c>
       <c r="P19" t="n">
-        <v>377.1110821587409</v>
+        <v>377.2077923833033</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -28997,28 +29529,28 @@
         <v>0.073</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1079532971411723</v>
+        <v>0.1050017826589238</v>
       </c>
       <c r="J20" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K20" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00917443818611785</v>
+        <v>0.0088252050187001</v>
       </c>
       <c r="M20" t="n">
-        <v>6.350657517758791</v>
+        <v>6.365026933382027</v>
       </c>
       <c r="N20" t="n">
-        <v>63.79896643807276</v>
+        <v>63.94707955123047</v>
       </c>
       <c r="O20" t="n">
-        <v>7.987425520032895</v>
+        <v>7.996691787935212</v>
       </c>
       <c r="P20" t="n">
-        <v>378.3225547073766</v>
+        <v>378.3519156489402</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -29074,28 +29606,28 @@
         <v>0.07829999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1589173300805874</v>
+        <v>0.1643478837280956</v>
       </c>
       <c r="J21" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K21" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0174338512268738</v>
+        <v>0.01896036056254979</v>
       </c>
       <c r="M21" t="n">
-        <v>6.65244084090741</v>
+        <v>6.658606642873629</v>
       </c>
       <c r="N21" t="n">
-        <v>72.19633465727642</v>
+        <v>72.22954167427447</v>
       </c>
       <c r="O21" t="n">
-        <v>8.496842628722531</v>
+        <v>8.498796483871965</v>
       </c>
       <c r="P21" t="n">
-        <v>375.3128662725913</v>
+        <v>375.2572207843002</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -29151,28 +29683,28 @@
         <v>0.0745</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2154597682793209</v>
+        <v>0.2265559331979057</v>
       </c>
       <c r="J22" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K22" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03030406113071493</v>
+        <v>0.03401157194129123</v>
       </c>
       <c r="M22" t="n">
-        <v>7.064287196655708</v>
+        <v>7.075585803939415</v>
       </c>
       <c r="N22" t="n">
-        <v>75.04893974408429</v>
+        <v>75.04993326663607</v>
       </c>
       <c r="O22" t="n">
-        <v>8.663079114499896</v>
+        <v>8.663136456655643</v>
       </c>
       <c r="P22" t="n">
-        <v>374.2837391870472</v>
+        <v>374.1705585163329</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -29228,28 +29760,28 @@
         <v>0.0677</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1820232888319323</v>
+        <v>0.1931786239703974</v>
       </c>
       <c r="J23" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K23" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02225840478412389</v>
+        <v>0.02538249557043271</v>
       </c>
       <c r="M23" t="n">
-        <v>7.011104914185498</v>
+        <v>7.03007932442062</v>
       </c>
       <c r="N23" t="n">
-        <v>73.55307328626503</v>
+        <v>73.85133898661471</v>
       </c>
       <c r="O23" t="n">
-        <v>8.576308838087924</v>
+        <v>8.593680177119387</v>
       </c>
       <c r="P23" t="n">
-        <v>377.1588850752639</v>
+        <v>377.045471967626</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -29305,28 +29837,28 @@
         <v>0.0759</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1363756469276635</v>
+        <v>0.1615295742899524</v>
       </c>
       <c r="J24" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K24" t="n">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01146357612684512</v>
+        <v>0.01639737318256096</v>
       </c>
       <c r="M24" t="n">
-        <v>7.218996188382124</v>
+        <v>7.23584056781195</v>
       </c>
       <c r="N24" t="n">
-        <v>80.85746070854775</v>
+        <v>80.84063561586295</v>
       </c>
       <c r="O24" t="n">
-        <v>8.992077663618556</v>
+        <v>8.991142064046311</v>
       </c>
       <c r="P24" t="n">
-        <v>377.2928187321785</v>
+        <v>377.0378600208001</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -29382,28 +29914,28 @@
         <v>0.0682</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1408954157527856</v>
+        <v>0.162956858703694</v>
       </c>
       <c r="J25" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K25" t="n">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01180530338947772</v>
+        <v>0.01614148896032597</v>
       </c>
       <c r="M25" t="n">
-        <v>7.202564721904369</v>
+        <v>7.203837850879563</v>
       </c>
       <c r="N25" t="n">
-        <v>83.8349182760987</v>
+        <v>83.78400678167964</v>
       </c>
       <c r="O25" t="n">
-        <v>9.156141014428442</v>
+        <v>9.153360409252967</v>
       </c>
       <c r="P25" t="n">
-        <v>377.1299492446747</v>
+        <v>376.9082340433987</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -29459,28 +29991,28 @@
         <v>0.0711</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1291878364845424</v>
+        <v>0.1361700070692425</v>
       </c>
       <c r="J26" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K26" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01057223590889045</v>
+        <v>0.01211446250004333</v>
       </c>
       <c r="M26" t="n">
-        <v>6.919851120054759</v>
+        <v>6.908296752071389</v>
       </c>
       <c r="N26" t="n">
-        <v>79.01057249330192</v>
+        <v>78.40472685354722</v>
       </c>
       <c r="O26" t="n">
-        <v>8.888789146633073</v>
+        <v>8.854644366294291</v>
       </c>
       <c r="P26" t="n">
-        <v>381.0151879273724</v>
+        <v>380.9445819173293</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -29536,28 +30068,28 @@
         <v>0.0728</v>
       </c>
       <c r="I27" t="n">
-        <v>0.09594291214227556</v>
+        <v>0.1042553529895789</v>
       </c>
       <c r="J27" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K27" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L27" t="n">
-        <v>0.005647042756151466</v>
+        <v>0.006913392213817482</v>
       </c>
       <c r="M27" t="n">
-        <v>7.121682576031532</v>
+        <v>7.070887425832144</v>
       </c>
       <c r="N27" t="n">
-        <v>81.93032120311864</v>
+        <v>80.87443811270975</v>
       </c>
       <c r="O27" t="n">
-        <v>9.051536952535665</v>
+        <v>8.993021634173342</v>
       </c>
       <c r="P27" t="n">
-        <v>381.4598694536028</v>
+        <v>381.3756942095995</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -29613,28 +30145,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1496090005377174</v>
+        <v>0.149716800089237</v>
       </c>
       <c r="J28" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K28" t="n">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01332087786568503</v>
+        <v>0.01382209252843847</v>
       </c>
       <c r="M28" t="n">
-        <v>7.207549312853881</v>
+        <v>7.160784565661309</v>
       </c>
       <c r="N28" t="n">
-        <v>83.97261288104049</v>
+        <v>82.93024445447148</v>
       </c>
       <c r="O28" t="n">
-        <v>9.163657178279886</v>
+        <v>9.106604441528768</v>
       </c>
       <c r="P28" t="n">
-        <v>383.0047444947227</v>
+        <v>383.0031865538952</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -29690,28 +30222,28 @@
         <v>0.0707</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1872750259863052</v>
+        <v>0.1927256645911252</v>
       </c>
       <c r="J29" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K29" t="n">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02258560397112941</v>
+        <v>0.02482396297355294</v>
       </c>
       <c r="M29" t="n">
-        <v>6.892377318508802</v>
+        <v>6.826419060113975</v>
       </c>
       <c r="N29" t="n">
-        <v>77.66482261225222</v>
+        <v>76.46125972018055</v>
       </c>
       <c r="O29" t="n">
-        <v>8.812764754164961</v>
+        <v>8.744212927426947</v>
       </c>
       <c r="P29" t="n">
-        <v>387.032954895294</v>
+        <v>386.9778572239746</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -29767,28 +30299,28 @@
         <v>0.0677</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2038525674391345</v>
+        <v>0.2160338552225754</v>
       </c>
       <c r="J30" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K30" t="n">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02915147796103124</v>
+        <v>0.03384002286564192</v>
       </c>
       <c r="M30" t="n">
-        <v>6.825387445258004</v>
+        <v>6.773037017468512</v>
       </c>
       <c r="N30" t="n">
-        <v>71.24788902766848</v>
+        <v>70.28775696485874</v>
       </c>
       <c r="O30" t="n">
-        <v>8.440846463931711</v>
+        <v>8.38377939624241</v>
       </c>
       <c r="P30" t="n">
-        <v>384.9952455028052</v>
+        <v>384.8736085651158</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -29844,28 +30376,28 @@
         <v>0.0747</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2066143996223642</v>
+        <v>0.1961239494987854</v>
       </c>
       <c r="J31" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K31" t="n">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03389541365830318</v>
+        <v>0.03177294146652498</v>
       </c>
       <c r="M31" t="n">
-        <v>6.302586370052219</v>
+        <v>6.251207549537625</v>
       </c>
       <c r="N31" t="n">
-        <v>62.91308918121187</v>
+        <v>62.12279855737778</v>
       </c>
       <c r="O31" t="n">
-        <v>7.931777176724764</v>
+        <v>7.881801732940113</v>
       </c>
       <c r="P31" t="n">
-        <v>382.956613361997</v>
+        <v>383.0605740730528</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -29921,28 +30453,28 @@
         <v>0.0506</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2259497318672685</v>
+        <v>0.2151443379455568</v>
       </c>
       <c r="J32" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K32" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03037900411899208</v>
+        <v>0.02860132524201309</v>
       </c>
       <c r="M32" t="n">
-        <v>7.214103708239175</v>
+        <v>7.147347984804788</v>
       </c>
       <c r="N32" t="n">
-        <v>85.20649049503083</v>
+        <v>84.22949465266524</v>
       </c>
       <c r="O32" t="n">
-        <v>9.230736183806297</v>
+        <v>9.177662809924172</v>
       </c>
       <c r="P32" t="n">
-        <v>395.1708387147069</v>
+        <v>395.2778457812813</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -29998,28 +30530,28 @@
         <v>0.0216</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1510060778574739</v>
+        <v>0.1398026469334373</v>
       </c>
       <c r="J33" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K33" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L33" t="n">
-        <v>0.005444156930564215</v>
+        <v>0.004779202068608601</v>
       </c>
       <c r="M33" t="n">
-        <v>11.3461583126645</v>
+        <v>11.30433712208207</v>
       </c>
       <c r="N33" t="n">
-        <v>217.8657729395856</v>
+        <v>216.121622027129</v>
       </c>
       <c r="O33" t="n">
-        <v>14.76027685850051</v>
+        <v>14.70107553980759</v>
       </c>
       <c r="P33" t="n">
-        <v>377.6300312589565</v>
+        <v>377.7411541896821</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -30056,7 +30588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH247"/>
+  <dimension ref="A1:AH252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67984,6 +68516,750 @@
         </is>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>-36.58877248838819,175.52483531710186</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>-36.58913824975919,175.5240698097575</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>-36.59435573393959,175.5234858710569</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>-36.594989789865245,175.52384493562462</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>-36.59566292371465,175.52413611580457</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>-36.59628387268269,175.52455833426603</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>-36.59687259889333,175.52505562610725</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>-36.597450006031764,175.52558340597412</t>
+        </is>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>-36.59800881173044,175.52615060223818</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>-36.59852350454926,175.5267800133052</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>-36.59904283570238,175.52739945901575</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>-36.59954198141856,175.52804075098942</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>-36.600027604981804,175.5287021307708</t>
+        </is>
+      </c>
+      <c r="V248" t="inlineStr">
+        <is>
+          <t>-36.60051090461291,175.52936874509828</t>
+        </is>
+      </c>
+      <c r="W248" t="inlineStr">
+        <is>
+          <t>-36.60098265496291,175.53004097197658</t>
+        </is>
+      </c>
+      <c r="X248" t="inlineStr">
+        <is>
+          <t>-36.60140470463471,175.53075583333506</t>
+        </is>
+      </c>
+      <c r="Y248" t="inlineStr">
+        <is>
+          <t>-36.60181351868917,175.53149111634457</t>
+        </is>
+      </c>
+      <c r="Z248" t="inlineStr">
+        <is>
+          <t>-36.60222215592143,175.532221940589</t>
+        </is>
+      </c>
+      <c r="AA248" t="inlineStr">
+        <is>
+          <t>-36.60253823005809,175.53301840743322</t>
+        </is>
+      </c>
+      <c r="AB248" t="inlineStr">
+        <is>
+          <t>-36.602898436175465,175.53378793593913</t>
+        </is>
+      </c>
+      <c r="AC248" t="inlineStr">
+        <is>
+          <t>-36.603104587192306,175.53462708462024</t>
+        </is>
+      </c>
+      <c r="AD248" t="inlineStr">
+        <is>
+          <t>-36.60328826366146,175.5354594991751</t>
+        </is>
+      </c>
+      <c r="AE248" t="inlineStr">
+        <is>
+          <t>-36.6035480391418,175.53629240173768</t>
+        </is>
+      </c>
+      <c r="AF248" t="inlineStr">
+        <is>
+          <t>-36.603539907537744,175.53704973500362</t>
+        </is>
+      </c>
+      <c r="AG248" t="inlineStr"/>
+      <c r="AH248" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>-36.58886186636485,175.52491898656655</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>-36.589199380874504,175.52414599706054</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="inlineStr"/>
+      <c r="O249" t="inlineStr"/>
+      <c r="P249" t="inlineStr"/>
+      <c r="Q249" t="inlineStr"/>
+      <c r="R249" t="inlineStr"/>
+      <c r="S249" t="inlineStr"/>
+      <c r="T249" t="inlineStr"/>
+      <c r="U249" t="inlineStr"/>
+      <c r="V249" t="inlineStr"/>
+      <c r="W249" t="inlineStr"/>
+      <c r="X249" t="inlineStr">
+        <is>
+          <t>-36.601279418785765,175.53086699932672</t>
+        </is>
+      </c>
+      <c r="Y249" t="inlineStr">
+        <is>
+          <t>-36.601714109130306,175.53157488706697</t>
+        </is>
+      </c>
+      <c r="Z249" t="inlineStr">
+        <is>
+          <t>-36.602097851052555,175.53231680288104</t>
+        </is>
+      </c>
+      <c r="AA249" t="inlineStr">
+        <is>
+          <t>-36.60250107550028,175.5330433313235</t>
+        </is>
+      </c>
+      <c r="AB249" t="inlineStr">
+        <is>
+          <t>-36.602819306787055,175.5338362229237</t>
+        </is>
+      </c>
+      <c r="AC249" t="inlineStr">
+        <is>
+          <t>-36.60310526114496,175.5346267677724</t>
+        </is>
+      </c>
+      <c r="AD249" t="inlineStr">
+        <is>
+          <t>-36.603282264247795,175.53546151860616</t>
+        </is>
+      </c>
+      <c r="AE249" t="inlineStr">
+        <is>
+          <t>-36.6035216444581,175.5363000484763</t>
+        </is>
+      </c>
+      <c r="AF249" t="inlineStr">
+        <is>
+          <t>-36.60356833836534,175.53705334642936</t>
+        </is>
+      </c>
+      <c r="AG249" t="inlineStr">
+        <is>
+          <t>-36.6034309784746,175.5378022996439</t>
+        </is>
+      </c>
+      <c r="AH249" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>-36.588756022124485,175.52481990255572</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>-36.589123824841565,175.5240518321058</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>-36.58970724884981,175.52355564878056</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>-36.59030896487319,175.52313344386008</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>-36.590982863815256,175.52295723967876</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>-36.591662964086744,175.52284987425918</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>-36.59235684536724,175.52285904692914</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>-36.59304096669527,175.52297739665835</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>-36.59369260506301,175.52322373526158</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>-36.594330693757406,175.52356229600954</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>-36.594983039807225,175.5238616304894</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>-36.5956271999014,175.52421079352177</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>-36.596190511936776,175.52472143012855</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>-36.59683729718911,175.52510861127178</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>-36.59736929743407,175.52569083753605</t>
+        </is>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>-36.59794441324919,175.52623457037984</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>-36.59849964031473,175.5268114875745</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>-36.599009336005956,175.52744120974302</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>-36.59949813250709,175.52809091427798</t>
+        </is>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>-36.599969998200905,175.5287654971283</t>
+        </is>
+      </c>
+      <c r="V250" t="inlineStr">
+        <is>
+          <t>-36.60040608346968,175.529484045874</t>
+        </is>
+      </c>
+      <c r="W250" t="inlineStr">
+        <is>
+          <t>-36.60090738164811,175.53011729042848</t>
+        </is>
+      </c>
+      <c r="X250" t="inlineStr">
+        <is>
+          <t>-36.601311637847395,175.53083841143152</t>
+        </is>
+      </c>
+      <c r="Y250" t="inlineStr">
+        <is>
+          <t>-36.60176529284983,175.5315317554603</t>
+        </is>
+      </c>
+      <c r="Z250" t="inlineStr">
+        <is>
+          <t>-36.60217948146537,175.53225450730685</t>
+        </is>
+      </c>
+      <c r="AA250" t="inlineStr">
+        <is>
+          <t>-36.60254186400454,175.53301596972057</t>
+        </is>
+      </c>
+      <c r="AB250" t="inlineStr">
+        <is>
+          <t>-36.60286495747099,175.5338083656017</t>
+        </is>
+      </c>
+      <c r="AC250" t="inlineStr">
+        <is>
+          <t>-36.60311712659985,175.5346211894219</t>
+        </is>
+      </c>
+      <c r="AD250" t="inlineStr">
+        <is>
+          <t>-36.603354678573666,175.5354371435813</t>
+        </is>
+      </c>
+      <c r="AE250" t="inlineStr">
+        <is>
+          <t>-36.60360031465142,175.53627725711462</t>
+        </is>
+      </c>
+      <c r="AF250" t="inlineStr">
+        <is>
+          <t>-36.60359190956262,175.53705634056305</t>
+        </is>
+      </c>
+      <c r="AG250" t="inlineStr"/>
+      <c r="AH250" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>-36.588932333265895,175.52498495297604</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>-36.589245769314786,175.52420381079074</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>-36.58979505179137,175.52371121820653</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>-36.59040468116282,175.52341112612243</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>-36.591025286094805,175.52321241298915</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>-36.59167337557509,175.52306075071718</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>-36.59235827349747,175.52282759010657</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>-36.593017498358925,175.5231474298329</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>-36.59366671357893,175.52332513777353</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>-36.594316619232465,175.52360525267574</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>-36.59496036357205,175.5239177153789</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>-36.59559870618838,175.52427035718705</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>-36.59622029858968,175.52466939463943</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>-36.59677511634232,175.5252019397798</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>-36.59732866909659,175.52574491796096</t>
+        </is>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>-36.597867386232075,175.52633500438864</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>-36.5983866965491,175.52696044742973</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>-36.59891332162556,175.52756087233172</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>-36.599389337929516,175.52821537526714</t>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>-36.59986889418231,175.52887670930747</t>
+        </is>
+      </c>
+      <c r="V251" t="inlineStr">
+        <is>
+          <t>-36.60036093312242,175.52953371005697</t>
+        </is>
+      </c>
+      <c r="W251" t="inlineStr">
+        <is>
+          <t>-36.60080752867624,175.53021852951946</t>
+        </is>
+      </c>
+      <c r="X251" t="inlineStr">
+        <is>
+          <t>-36.601256107589556,175.53088768327657</t>
+        </is>
+      </c>
+      <c r="Y251" t="inlineStr">
+        <is>
+          <t>-36.60164274195434,175.53163502679914</t>
+        </is>
+      </c>
+      <c r="Z251" t="inlineStr">
+        <is>
+          <t>-36.602076082937664,175.53233341501252</t>
+        </is>
+      </c>
+      <c r="AA251" t="inlineStr">
+        <is>
+          <t>-36.602429189003026,175.5330915538974</t>
+        </is>
+      </c>
+      <c r="AB251" t="inlineStr">
+        <is>
+          <t>-36.60275696870776,175.5338742633037</t>
+        </is>
+      </c>
+      <c r="AC251" t="inlineStr">
+        <is>
+          <t>-36.60301464042725,175.5346693715713</t>
+        </is>
+      </c>
+      <c r="AD251" t="inlineStr">
+        <is>
+          <t>-36.60323525211886,175.5354773431011</t>
+        </is>
+      </c>
+      <c r="AE251" t="inlineStr">
+        <is>
+          <t>-36.60347495870367,175.5363135736791</t>
+        </is>
+      </c>
+      <c r="AF251" t="inlineStr">
+        <is>
+          <t>-36.60355946555718,175.5370522193606</t>
+        </is>
+      </c>
+      <c r="AG251" t="inlineStr">
+        <is>
+          <t>-36.60349840422149,175.53784028830088</t>
+        </is>
+      </c>
+      <c r="AH251" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>-36.58879485086494,175.5248562512778</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>-36.589158330256225,175.52409483592692</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>-36.58971587605264,175.5235709344432</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>-36.59033470883252,175.523208129332</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>-36.59100487544505,175.5230896408937</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>-36.59167039696979,175.5230004206429</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>-36.59235568563838,175.52288459165263</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>-36.59302272707631,175.52310954680414</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>-36.59367810910589,175.52328050789535</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>-36.594356672238945,175.5234830072766</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>-36.59499232463104,175.52383866640633</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>-36.59561734957744,175.52423138479162</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>-36.596246143969815,175.52462424425335</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>-36.596822372202894,175.5251310125127</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>-36.597368617145825,175.52569174306922</t>
+        </is>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>-36.597909326728946,175.5262803190392</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>-36.598428973333924,175.5269046892836</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>-36.59896839191435,175.52749223836057</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>-36.59945857859655,175.5281361640049</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>-36.59994088025321,175.52879752626552</t>
+        </is>
+      </c>
+      <c r="V252" t="inlineStr">
+        <is>
+          <t>-36.60042230831797,175.52946619895266</t>
+        </is>
+      </c>
+      <c r="W252" t="inlineStr">
+        <is>
+          <t>-36.60087598779626,175.5301491201136</t>
+        </is>
+      </c>
+      <c r="X252" t="inlineStr">
+        <is>
+          <t>-36.60132275436431,175.53082854776636</t>
+        </is>
+      </c>
+      <c r="Y252" t="inlineStr">
+        <is>
+          <t>-36.60173123151623,175.53156045834555</t>
+        </is>
+      </c>
+      <c r="Z252" t="inlineStr">
+        <is>
+          <t>-36.60213259267643,175.53229029011655</t>
+        </is>
+      </c>
+      <c r="AA252" t="inlineStr">
+        <is>
+          <t>-36.60246988695119,175.53306425309657</t>
+        </is>
+      </c>
+      <c r="AB252" t="inlineStr">
+        <is>
+          <t>-36.6028145719574,175.53383911224697</t>
+        </is>
+      </c>
+      <c r="AC252" t="inlineStr">
+        <is>
+          <t>-36.60306151902378,175.53464733240395</t>
+        </is>
+      </c>
+      <c r="AD252" t="inlineStr">
+        <is>
+          <t>-36.60330711131766,175.53545315496282</t>
+        </is>
+      </c>
+      <c r="AE252" t="inlineStr">
+        <is>
+          <t>-36.60352685822281,175.5362985380098</t>
+        </is>
+      </c>
+      <c r="AF252" t="inlineStr">
+        <is>
+          <t>-36.60369004819515,175.53706880665726</t>
+        </is>
+      </c>
+      <c r="AG252" t="inlineStr">
+        <is>
+          <t>-36.603598066337454,175.5378964395443</t>
+        </is>
+      </c>
+      <c r="AH252" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0139/nzd0139.xlsx
+++ b/data/nzd0139/nzd0139.xlsx
@@ -27988,7 +27988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28079,35 +28079,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -28166,27 +28171,28 @@
       <c r="P2" t="n">
         <v>382.4064000005266</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.5223078915196 -36.586072493881225, 175.52850517542598 -36.59269246989331)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.5223078915196</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.58607249388123</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.528505175426</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.59269246989331</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.5254065334728</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.58938248188727</v>
       </c>
     </row>
@@ -28243,27 +28249,28 @@
       <c r="P3" t="n">
         <v>375.7418772103868</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.52115149894252 -36.5867965442735, 175.5284444494979 -36.59264812640912)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.5211514989425</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.5867965442735</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.5284444494979</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.59264812640912</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.5247979742202</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.58972233534131</v>
       </c>
     </row>
@@ -28320,27 +28327,28 @@
       <c r="P4" t="n">
         <v>371.5990384308608</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.52015876997112 -36.58778995695521, 175.52858963811127 -36.592548208184986)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.5201587699711</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.58778995695521</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.5285896381113</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.59254820818499</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.5243742040412</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.5901690825701</v>
       </c>
     </row>
@@ -28397,27 +28405,28 @@
       <c r="P5" t="n">
         <v>384.6712574978029</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.51924686271755 -36.588969176749885, 175.52871181945022 -36.59223164230215)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.5192468627176</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.58896917674988</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.5287118194502</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.59223164230215</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.5239793410839</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.59060040952602</v>
       </c>
     </row>
@@ -28474,27 +28483,28 @@
       <c r="P6" t="n">
         <v>384.5079634298525</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.51878497005364 -36.590289143604316, 175.52886813841948 -36.59196539030792)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.5187849700536</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.59028914360432</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.5288681384195</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.59196539030792</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.5238265542366</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.59112726695612</v>
       </c>
     </row>
@@ -28551,27 +28561,28 @@
       <c r="P7" t="n">
         <v>387.5230418475589</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.51853351251728 -36.591449771775785, 175.52881013454788 -36.59195709132829)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.5185335125173</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.59144977177579</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.5288101345479</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.59195709132829</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.5236718235326</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.59170343155203</v>
       </c>
     </row>
@@ -28628,27 +28639,28 @@
       <c r="P8" t="n">
         <v>370.07003583026</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.51856606778114 -36.59255166819868, 175.528845733093 -36.59208489973959)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.5185660677811</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.59255166819868</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.528845733093</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.59208489973959</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.5237059004371</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.59231828396913</v>
       </c>
     </row>
@@ -28705,27 +28717,28 @@
       <c r="P9" t="n">
         <v>371.0361769310791</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.51865186310403 -36.59363790013009, 175.5287999052314 -36.59223718659528)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.518651863104</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.59363790013009</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.5287999052314</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.59223718659528</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.5237258841677</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.59293754336268</v>
       </c>
     </row>
@@ -28782,27 +28795,28 @@
       <c r="P10" t="n">
         <v>373.1935496774194</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.51901706491265 -36.59476661979008, 175.52883150862084 -36.59226059753505)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.5190170649126</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.59476661979008</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.5288315086208</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.59226059753505</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.5239242867667</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.59351360866256</v>
       </c>
     </row>
@@ -28859,27 +28873,28 @@
       <c r="P11" t="n">
         <v>373.7066715009351</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.51940208088809 -36.59569367010411, 175.52893887184953 -36.59256892932735)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.5194020808881</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.59569367010411</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.5289388718495</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.59256892932735</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.5241704763688</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.59413129971573</v>
       </c>
     </row>
@@ -28936,27 +28951,28 @@
       <c r="P12" t="n">
         <v>371.6347071998043</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (175.51990239689403 -36.59658373806872, 175.52910362876585 -36.59286342723514)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>175.519902396894</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.59658373806872</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175.5291036287659</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.59286342723514</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>175.5245030128299</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.59472358265193</v>
       </c>
     </row>
@@ -29013,27 +29029,28 @@
       <c r="P13" t="n">
         <v>376.1833194341813</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (175.52044701715897 -36.59742759199658, 175.5292987642627 -36.593193067190576)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>175.520447017159</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.59742759199658</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>175.5292987642627</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.59319306719058</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>175.5248728907108</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.59531032959357</v>
       </c>
     </row>
@@ -29090,27 +29107,28 @@
       <c r="P14" t="n">
         <v>377.5935916745351</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (175.52110779532114 -36.598258957262075, 175.5294993752053 -36.59345528460061)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>175.5211077953211</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.59825895726208</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>175.5294993752053</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.59345528460061</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>175.5253035852632</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.59585712093134</v>
       </c>
     </row>
@@ -29167,27 +29185,28 @@
       <c r="P15" t="n">
         <v>374.1323252556768</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (175.52182037098692 -36.599028005187535, 175.52975288406142 -36.59374280938151)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>175.5218203709869</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-36.59902800518753</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>175.5297528840614</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-36.59374280938151</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>175.5257866275242</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-36.59638540728452</v>
       </c>
     </row>
@@ -29244,27 +29263,28 @@
       <c r="P16" t="n">
         <v>374.8233418890849</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (175.5225643827643 -36.59971795952752, 175.53009248960657 -36.594062308206176)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>175.5225643827643</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-36.59971795952752</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>175.5300924896066</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-36.59406230820618</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>175.5263284361855</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-36.59689013386685</v>
       </c>
     </row>
@@ -29321,27 +29341,28 @@
       <c r="P17" t="n">
         <v>372.7824506428723</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (175.52320680227032 -36.60026642575207, 175.53066206861612 -36.59454856080188)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>175.5232068022703</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-36.60026642575207</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>175.5306620686161</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-36.59454856080188</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>175.5269344354432</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-36.59740749327698</v>
       </c>
     </row>
@@ -29398,27 +29419,28 @@
       <c r="P18" t="n">
         <v>374.246042459982</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (175.52379220251865 -36.600788802705075, 175.53128792493695 -36.59510531405684)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>175.5237922025186</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-36.60078880270508</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>175.5312879249369</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-36.59510531405684</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>175.5275400637278</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-36.59794705838095</v>
       </c>
     </row>
@@ -29475,27 +29497,28 @@
       <c r="P19" t="n">
         <v>377.2077923833033</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (175.52447926235484 -36.60138582019586, 175.53177233859708 -36.59553392048422)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>175.5244792623548</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-36.60138582019586</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>175.5317723385971</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-36.59553392048422</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>175.5281258004759</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-36.59845987034004</v>
       </c>
     </row>
@@ -29552,27 +29575,28 @@
       <c r="P20" t="n">
         <v>378.3519156489402</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (175.52524067305075 -36.601989486459956, 175.53221625121753 -36.59589184309863)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>175.5252406730507</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-36.60198948645996</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>175.5322162512175</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-36.59589184309863</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>175.5287284621342</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-36.59894066477929</v>
       </c>
     </row>
@@ -29629,27 +29653,28 @@
       <c r="P21" t="n">
         <v>375.2572207843002</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (175.52596112474697 -36.60251936104567, 175.532787563329 -36.59631327373498)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>175.525961124747</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-36.60251936104567</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>175.532787563329</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-36.59631327373498</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>175.529374344038</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-36.59941631739032</v>
       </c>
     </row>
@@ -29706,27 +29731,28 @@
       <c r="P22" t="n">
         <v>374.1705585163329</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (175.526623327701 -36.60300667901237, 175.53344975609247 -36.596800581244864)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>175.526623327701</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-36.60300667901237</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>175.5334497560925</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-36.59680058124486</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>175.5300365418967</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-36.59990363012862</v>
       </c>
     </row>
@@ -29783,27 +29809,28 @@
       <c r="P23" t="n">
         <v>377.045471967626</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (175.52740873044505 -36.60357873374322, 175.5339197731971 -36.5971567322828)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>175.527408730445</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-36.60357873374322</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>175.5339197731971</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-36.5971567322828</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>175.5306642518211</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-36.60036773301301</v>
       </c>
     </row>
@@ -29860,27 +29887,28 @@
       <c r="P24" t="n">
         <v>377.0378600208001</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (175.5283217118306 -36.604147875294295, 175.53430686060858 -36.59740239730908)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>175.5283217118306</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-36.6041478752943</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>175.5343068606086</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-36.59740239730908</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>175.5313142862196</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-36.60077513630169</v>
       </c>
     </row>
@@ -29937,27 +29965,28 @@
       <c r="P25" t="n">
         <v>376.9082340433987</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (175.52913609301046 -36.604608068465055, 175.53491683145933 -36.597748022963636)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>175.5291360930105</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-36.60460806846505</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>175.5349168314593</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-36.59774802296364</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>175.5320264622349</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-36.60117804571435</v>
       </c>
     </row>
@@ -30014,27 +30043,28 @@
       <c r="P26" t="n">
         <v>380.9445819173293</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (175.53002351149487 -36.605102787622805, 175.53541361991137 -36.59803961909629)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>175.5300235114949</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-36.6051027876228</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>175.5354136199114</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-36.59803961909629</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>175.5327185657031</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-36.60157120335955</v>
       </c>
     </row>
@@ -30091,27 +30121,28 @@
       <c r="P27" t="n">
         <v>381.3756942095995</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (175.5309955764533 -36.60555357570849, 175.5358884202434 -36.598259585962325)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>175.5309955764533</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-36.60555357570849</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>175.5358884202434</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-36.59825958596232</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>175.5334419983483</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-36.6019065808354</v>
       </c>
     </row>
@@ -30168,27 +30199,28 @@
       <c r="P28" t="n">
         <v>383.0031865538952</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (175.53192096359035 -36.60595776968376, 175.53646116685752 -36.59851746954885)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>175.5319209635904</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-36.60595776968376</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>175.5364611668575</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-36.59851746954885</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>175.5341910652239</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-36.6022376196163</v>
       </c>
     </row>
@@ -30245,27 +30277,28 @@
       <c r="P29" t="n">
         <v>386.9778572239746</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (175.5330815180541 -36.60639195146341, 175.536726362975 -36.59863904814165)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>175.5330815180541</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-36.60639195146341</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>175.536726362975</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-36.59863904814165</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>175.5349039405145</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-36.60251549980253</v>
       </c>
     </row>
@@ -30322,27 +30355,28 @@
       <c r="P30" t="n">
         <v>384.8736085651158</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>LINESTRING (175.53430744005553 -36.60671070729776, 175.53700058642988 -36.598709678142804)</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>175.5343074400555</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>-36.60671070729776</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>175.5370005864299</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>-36.5987096781428</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>175.5356540132427</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>-36.60271019272028</v>
       </c>
     </row>
@@ -30399,27 +30433,28 @@
       <c r="P31" t="n">
         <v>383.0605740730528</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
         <is>
           <t>LINESTRING (175.53531583165463 -36.60691878489366, 175.53765458029605 -36.59884586699483)</t>
         </is>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>175.5353158316546</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>-36.60691878489366</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>175.537654580296</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>-36.59884586699483</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>175.5364852059753</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>-36.60288232594424</v>
       </c>
     </row>
@@ -30476,27 +30511,28 @@
       <c r="P32" t="n">
         <v>395.2778457812813</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
         <is>
           <t>LINESTRING (175.53750967858923 -36.60716058816522, 175.53646218549432 -36.59891409658008)</t>
         </is>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>175.5375096785892</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>-36.60716058816522</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>175.5364621854943</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>-36.59891409658008</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>175.5369859320418</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>-36.60303734237265</v>
       </c>
     </row>
@@ -30553,27 +30589,28 @@
       <c r="P33" t="n">
         <v>377.7411541896821</v>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
         <is>
           <t>LINESTRING (175.53958996716625 -36.60660374513129, 175.53533671971138 -36.59905454669816)</t>
         </is>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>175.5395899671663</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>-36.60660374513129</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>175.5353367197114</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>-36.59905454669816</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>175.5374633434388</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>-36.60282914591473</v>
       </c>
     </row>

--- a/data/nzd0139/nzd0139.xlsx
+++ b/data/nzd0139/nzd0139.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH252"/>
+  <dimension ref="A1:AH255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25376,6 +25376,324 @@
         </is>
       </c>
     </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>383.1</v>
+      </c>
+      <c r="C253" t="n">
+        <v>371.05</v>
+      </c>
+      <c r="D253" t="n">
+        <v>366.4536363636364</v>
+      </c>
+      <c r="E253" t="n">
+        <v>369.1366666666667</v>
+      </c>
+      <c r="F253" t="n">
+        <v>377.5266666666667</v>
+      </c>
+      <c r="G253" t="n">
+        <v>402.22</v>
+      </c>
+      <c r="H253" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>399.92</v>
+      </c>
+      <c r="J253" t="n">
+        <v>392.3</v>
+      </c>
+      <c r="K253" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="L253" t="n">
+        <v>393.8684615384615</v>
+      </c>
+      <c r="M253" t="n">
+        <v>394.87</v>
+      </c>
+      <c r="N253" t="n">
+        <v>393.21</v>
+      </c>
+      <c r="O253" t="n">
+        <v>385.2684615384616</v>
+      </c>
+      <c r="P253" t="n">
+        <v>383.9184615384616</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>381.2984615384616</v>
+      </c>
+      <c r="R253" t="n">
+        <v>378.81</v>
+      </c>
+      <c r="S253" t="n">
+        <v>381.01</v>
+      </c>
+      <c r="T253" t="n">
+        <v>380.65</v>
+      </c>
+      <c r="U253" t="n">
+        <v>379.83</v>
+      </c>
+      <c r="V253" t="n">
+        <v>378.48</v>
+      </c>
+      <c r="W253" t="n">
+        <v>385.5184615384616</v>
+      </c>
+      <c r="X253" t="n">
+        <v>388.82</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>388.2384615384616</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>387.3684615384615</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>387.24</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>389.34</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>390.7484615384615</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>388.8784615384615</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>387.63</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>400.1266666666667</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>376.27</v>
+      </c>
+      <c r="AH253" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>387.47</v>
+      </c>
+      <c r="C254" t="n">
+        <v>378.22</v>
+      </c>
+      <c r="D254" t="n">
+        <v>364.5527272727272</v>
+      </c>
+      <c r="E254" t="n">
+        <v>381.4077777777778</v>
+      </c>
+      <c r="F254" t="n">
+        <v>379.6877777777778</v>
+      </c>
+      <c r="G254" t="n">
+        <v>382.3066666666667</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="n">
+        <v>415.92</v>
+      </c>
+      <c r="J254" t="n">
+        <v>408.46</v>
+      </c>
+      <c r="K254" t="n">
+        <v>402.6833333333333</v>
+      </c>
+      <c r="L254" t="n">
+        <v>403.9784615384616</v>
+      </c>
+      <c r="M254" t="n">
+        <v>396.5871428571429</v>
+      </c>
+      <c r="N254" t="n">
+        <v>392.4271428571428</v>
+      </c>
+      <c r="O254" t="n">
+        <v>392.0984615384616</v>
+      </c>
+      <c r="P254" t="n">
+        <v>386.4284615384615</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>385.7084615384616</v>
+      </c>
+      <c r="R254" t="n">
+        <v>384.7066666666666</v>
+      </c>
+      <c r="S254" t="n">
+        <v>389.4071428571429</v>
+      </c>
+      <c r="T254" t="n">
+        <v>384.5571428571428</v>
+      </c>
+      <c r="U254" t="n">
+        <v>383.4766666666666</v>
+      </c>
+      <c r="V254" t="n">
+        <v>385.2971428571428</v>
+      </c>
+      <c r="W254" t="n">
+        <v>391.6884615384615</v>
+      </c>
+      <c r="X254" t="n">
+        <v>391.7571428571428</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>391.4784615384616</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>394.0084615384616</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>394.4371428571428</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>393.2371428571428</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>401.1084615384616</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>398.9284615384615</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>391.8471428571429</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>407.5377777777778</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>398.88</v>
+      </c>
+      <c r="AH254" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>372.72</v>
+      </c>
+      <c r="C255" t="n">
+        <v>367.12</v>
+      </c>
+      <c r="D255" t="n">
+        <v>364.6309090909091</v>
+      </c>
+      <c r="E255" t="n">
+        <v>372.2788888888889</v>
+      </c>
+      <c r="F255" t="n">
+        <v>358.7088888888889</v>
+      </c>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="n">
+        <v>385.19</v>
+      </c>
+      <c r="J255" t="n">
+        <v>393.42</v>
+      </c>
+      <c r="K255" t="n">
+        <v>394.6366666666667</v>
+      </c>
+      <c r="L255" t="n">
+        <v>388.3507692307692</v>
+      </c>
+      <c r="M255" t="n">
+        <v>385.4257142857143</v>
+      </c>
+      <c r="N255" t="n">
+        <v>383.3157142857143</v>
+      </c>
+      <c r="O255" t="n">
+        <v>382.7607692307692</v>
+      </c>
+      <c r="P255" t="n">
+        <v>377.3307692307693</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>376.7307692307692</v>
+      </c>
+      <c r="R255" t="n">
+        <v>377.2033333333333</v>
+      </c>
+      <c r="S255" t="n">
+        <v>378.1957142857143</v>
+      </c>
+      <c r="T255" t="n">
+        <v>376.0557142857143</v>
+      </c>
+      <c r="U255" t="n">
+        <v>375.3333333333333</v>
+      </c>
+      <c r="V255" t="n">
+        <v>378.7257142857143</v>
+      </c>
+      <c r="W255" t="n">
+        <v>381.9307692307692</v>
+      </c>
+      <c r="X255" t="n">
+        <v>381.6357142857143</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>382.6807692307692</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>383.9207692307692</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>382.3857142857143</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>381.3457142857143</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>390.7507692307692</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>391.0807692307693</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>388.5457142857143</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>397.8888888888889</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>373.37</v>
+      </c>
+      <c r="AH255" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25387,7 +25705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B258"/>
+  <dimension ref="A1:B261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27975,6 +28293,36 @@
       </c>
       <c r="B258" t="n">
         <v>0.37</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>
@@ -28148,28 +28496,28 @@
         <v>0.0462</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2500667786105017</v>
+        <v>-0.2340245062295979</v>
       </c>
       <c r="J2" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K2" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02482305549827035</v>
+        <v>0.02238413872395173</v>
       </c>
       <c r="M2" t="n">
-        <v>8.77668148109508</v>
+        <v>8.742954503219938</v>
       </c>
       <c r="N2" t="n">
-        <v>129.3694053166802</v>
+        <v>128.3099817190472</v>
       </c>
       <c r="O2" t="n">
-        <v>11.37406722842274</v>
+        <v>11.3273996009255</v>
       </c>
       <c r="P2" t="n">
-        <v>382.4064000005266</v>
+        <v>382.2461562478415</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28226,28 +28574,28 @@
         <v>0.0568</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3232377488536757</v>
+        <v>-0.3096928021431917</v>
       </c>
       <c r="J3" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K3" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04934283831194952</v>
+        <v>0.04658945190824415</v>
       </c>
       <c r="M3" t="n">
-        <v>8.351383454275389</v>
+        <v>8.301833291538104</v>
       </c>
       <c r="N3" t="n">
-        <v>105.7789614461443</v>
+        <v>104.8368692966955</v>
       </c>
       <c r="O3" t="n">
-        <v>10.28488995790156</v>
+        <v>10.23898770859187</v>
       </c>
       <c r="P3" t="n">
-        <v>375.7418772103868</v>
+        <v>375.6051895827665</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28304,28 +28652,28 @@
         <v>0.0622</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4067473285086051</v>
+        <v>-0.3932692872607231</v>
       </c>
       <c r="J4" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K4" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L4" t="n">
-        <v>0.061874938176673</v>
+        <v>0.06000070807233215</v>
       </c>
       <c r="M4" t="n">
-        <v>9.265108904719346</v>
+        <v>9.180433989211702</v>
       </c>
       <c r="N4" t="n">
-        <v>130.6108699644218</v>
+        <v>128.7166223531897</v>
       </c>
       <c r="O4" t="n">
-        <v>11.42851127507086</v>
+        <v>11.345334827725</v>
       </c>
       <c r="P4" t="n">
-        <v>371.5990384308608</v>
+        <v>371.4639848601384</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28382,28 +28730,28 @@
         <v>0.0468</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.626582057667082</v>
+        <v>-0.608416722947466</v>
       </c>
       <c r="J5" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K5" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08576624985006898</v>
+        <v>0.08352559488540223</v>
       </c>
       <c r="M5" t="n">
-        <v>12.04724617694345</v>
+        <v>11.93427622163311</v>
       </c>
       <c r="N5" t="n">
-        <v>214.9714935450571</v>
+        <v>212.4520982188163</v>
       </c>
       <c r="O5" t="n">
-        <v>14.66190620434659</v>
+        <v>14.57573662697074</v>
       </c>
       <c r="P5" t="n">
-        <v>384.6712574978029</v>
+        <v>384.4851339721013</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28460,28 +28808,28 @@
         <v>0.0513</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6720534152285651</v>
+        <v>-0.6571270371653395</v>
       </c>
       <c r="J6" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K6" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07116575210522491</v>
+        <v>0.07014169879749843</v>
       </c>
       <c r="M6" t="n">
-        <v>14.34010953015101</v>
+        <v>14.28048929956107</v>
       </c>
       <c r="N6" t="n">
-        <v>306.0354735194014</v>
+        <v>302.9139275031763</v>
       </c>
       <c r="O6" t="n">
-        <v>17.49386959821644</v>
+        <v>17.40442264205211</v>
       </c>
       <c r="P6" t="n">
-        <v>384.5079634298525</v>
+        <v>384.3584102315335</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28538,28 +28886,28 @@
         <v>0.0335</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.8529524255672705</v>
+        <v>-0.7891966592290004</v>
       </c>
       <c r="J7" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K7" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05471087197335367</v>
+        <v>0.04778495894025414</v>
       </c>
       <c r="M7" t="n">
-        <v>20.83358459695271</v>
+        <v>20.82423615936843</v>
       </c>
       <c r="N7" t="n">
-        <v>659.377351146998</v>
+        <v>660.794319495091</v>
       </c>
       <c r="O7" t="n">
-        <v>25.67834401099491</v>
+        <v>25.7059199309243</v>
       </c>
       <c r="P7" t="n">
-        <v>387.5230418475589</v>
+        <v>386.8936919040744</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28616,28 +28964,28 @@
         <v>0.0222</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1314490612361035</v>
+        <v>0.1560993318291243</v>
       </c>
       <c r="J8" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K8" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001532037315266743</v>
+        <v>0.002176514604035229</v>
       </c>
       <c r="M8" t="n">
-        <v>19.101533026263</v>
+        <v>19.10924375659408</v>
       </c>
       <c r="N8" t="n">
-        <v>566.4243203855362</v>
+        <v>565.5587152690687</v>
       </c>
       <c r="O8" t="n">
-        <v>23.79967059405521</v>
+        <v>23.78147840797684</v>
       </c>
       <c r="P8" t="n">
-        <v>370.07003583026</v>
+        <v>369.8135140755035</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28694,28 +29042,28 @@
         <v>0.0276</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6583957001396469</v>
+        <v>0.6985344953643248</v>
       </c>
       <c r="J9" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K9" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05597845711134719</v>
+        <v>0.063977973055658</v>
       </c>
       <c r="M9" t="n">
-        <v>15.73056251357344</v>
+        <v>15.71411250637909</v>
       </c>
       <c r="N9" t="n">
-        <v>385.3307387502152</v>
+        <v>384.0250673790627</v>
       </c>
       <c r="O9" t="n">
-        <v>19.62984306483919</v>
+        <v>19.59655753899298</v>
       </c>
       <c r="P9" t="n">
-        <v>371.0361769310791</v>
+        <v>370.6413428951531</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28772,28 +29120,28 @@
         <v>0.0422</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4473821393682456</v>
+        <v>0.4903039122611365</v>
       </c>
       <c r="J10" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K10" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05373188436566445</v>
+        <v>0.0648920930163851</v>
       </c>
       <c r="M10" t="n">
-        <v>10.59464024330628</v>
+        <v>10.62760156645427</v>
       </c>
       <c r="N10" t="n">
-        <v>183.8126977009159</v>
+        <v>184.4413292796544</v>
       </c>
       <c r="O10" t="n">
-        <v>13.55775415402256</v>
+        <v>13.58091783642234</v>
       </c>
       <c r="P10" t="n">
-        <v>373.1935496774194</v>
+        <v>372.7712277512342</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28850,28 +29198,28 @@
         <v>0.0646</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3875557783241096</v>
+        <v>0.4310148475473433</v>
       </c>
       <c r="J11" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K11" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06684420466559149</v>
+        <v>0.08197535009508594</v>
       </c>
       <c r="M11" t="n">
-        <v>8.246539831792107</v>
+        <v>8.322567239480179</v>
       </c>
       <c r="N11" t="n">
-        <v>104.5992623832882</v>
+        <v>105.923371287176</v>
       </c>
       <c r="O11" t="n">
-        <v>10.22737807961005</v>
+        <v>10.29190804890794</v>
       </c>
       <c r="P11" t="n">
-        <v>373.7066715009351</v>
+        <v>373.2661712649429</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28928,28 +29276,28 @@
         <v>0.068</v>
       </c>
       <c r="I12" t="n">
-        <v>0.394088450356407</v>
+        <v>0.436071622370303</v>
       </c>
       <c r="J12" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K12" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07259822594153553</v>
+        <v>0.08761618167860219</v>
       </c>
       <c r="M12" t="n">
-        <v>8.292594233028908</v>
+        <v>8.352534024541075</v>
       </c>
       <c r="N12" t="n">
-        <v>98.4165263567082</v>
+        <v>100.1698240468766</v>
       </c>
       <c r="O12" t="n">
-        <v>9.92051038791393</v>
+        <v>10.00848760037582</v>
       </c>
       <c r="P12" t="n">
-        <v>371.6347071998043</v>
+        <v>371.2059370851325</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29006,28 +29354,28 @@
         <v>0.0769</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2558181632412953</v>
+        <v>0.28410494574656</v>
       </c>
       <c r="J13" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K13" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03796818669824142</v>
+        <v>0.04700489217749693</v>
       </c>
       <c r="M13" t="n">
-        <v>7.577102999619496</v>
+        <v>7.590203933438528</v>
       </c>
       <c r="N13" t="n">
-        <v>82.15258980789595</v>
+        <v>82.56270460015965</v>
       </c>
       <c r="O13" t="n">
-        <v>9.063806584867969</v>
+        <v>9.086402181290438</v>
       </c>
       <c r="P13" t="n">
-        <v>376.1833194341813</v>
+        <v>375.8917683156856</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29084,28 +29432,28 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1608590125256718</v>
+        <v>0.183187616561724</v>
       </c>
       <c r="J14" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K14" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01585511332935907</v>
+        <v>0.02079343857878391</v>
       </c>
       <c r="M14" t="n">
-        <v>7.15191148361956</v>
+        <v>7.162560435599178</v>
       </c>
       <c r="N14" t="n">
-        <v>80.25786149514551</v>
+        <v>80.25974011469769</v>
       </c>
       <c r="O14" t="n">
-        <v>8.958675208709462</v>
+        <v>8.958780057278876</v>
       </c>
       <c r="P14" t="n">
-        <v>377.5935916745351</v>
+        <v>377.3616514492633</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29162,28 +29510,28 @@
         <v>0.0688</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2908268850170522</v>
+        <v>0.3041238328235462</v>
       </c>
       <c r="J15" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K15" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05529627746322385</v>
+        <v>0.06132160029711964</v>
       </c>
       <c r="M15" t="n">
-        <v>6.880496947764196</v>
+        <v>6.857392449887651</v>
       </c>
       <c r="N15" t="n">
-        <v>75.08747851624216</v>
+        <v>74.63073149762155</v>
       </c>
       <c r="O15" t="n">
-        <v>8.665303140470169</v>
+        <v>8.638908003771169</v>
       </c>
       <c r="P15" t="n">
-        <v>374.1323252556768</v>
+        <v>373.9963489544544</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29240,28 +29588,28 @@
         <v>0.0687</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1931662428370639</v>
+        <v>0.2003516473368371</v>
       </c>
       <c r="J16" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K16" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02636777614447927</v>
+        <v>0.02896921332789937</v>
       </c>
       <c r="M16" t="n">
-        <v>6.857047206272605</v>
+        <v>6.82153595808017</v>
       </c>
       <c r="N16" t="n">
-        <v>70.97854644112518</v>
+        <v>70.34204480967088</v>
       </c>
       <c r="O16" t="n">
-        <v>8.424876642487128</v>
+        <v>8.387016442673216</v>
       </c>
       <c r="P16" t="n">
-        <v>374.8233418890849</v>
+        <v>374.7500031660953</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29318,28 +29666,28 @@
         <v>0.0702</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2298224337511278</v>
+        <v>0.2364459398048385</v>
       </c>
       <c r="J17" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K17" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03719956798305046</v>
+        <v>0.04022829076503831</v>
       </c>
       <c r="M17" t="n">
-        <v>6.888098977325842</v>
+        <v>6.847230515523184</v>
       </c>
       <c r="N17" t="n">
-        <v>71.46558259289569</v>
+        <v>70.79446487161849</v>
       </c>
       <c r="O17" t="n">
-        <v>8.453731873728648</v>
+        <v>8.413944667729785</v>
       </c>
       <c r="P17" t="n">
-        <v>372.7824506428723</v>
+        <v>372.715912636723</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29396,28 +29744,28 @@
         <v>0.0801</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1829034932695549</v>
+        <v>0.1861696193975945</v>
       </c>
       <c r="J18" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K18" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02558922341063841</v>
+        <v>0.02712565868153993</v>
       </c>
       <c r="M18" t="n">
-        <v>6.51018593925473</v>
+        <v>6.460850038434993</v>
       </c>
       <c r="N18" t="n">
-        <v>65.9603974838427</v>
+        <v>65.27205511609183</v>
       </c>
       <c r="O18" t="n">
-        <v>8.121600672517868</v>
+        <v>8.079112272774271</v>
       </c>
       <c r="P18" t="n">
-        <v>374.246042459982</v>
+        <v>374.2126542477604</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29474,28 +29822,28 @@
         <v>0.0769</v>
       </c>
       <c r="I19" t="n">
-        <v>0.140906679652224</v>
+        <v>0.1459263665941794</v>
       </c>
       <c r="J19" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K19" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0159507044158067</v>
+        <v>0.0174367814663775</v>
       </c>
       <c r="M19" t="n">
-        <v>6.581114531627747</v>
+        <v>6.545240742829669</v>
       </c>
       <c r="N19" t="n">
-        <v>63.60599052237499</v>
+        <v>63.14112694878996</v>
       </c>
       <c r="O19" t="n">
-        <v>7.975336389292616</v>
+        <v>7.946139122164295</v>
       </c>
       <c r="P19" t="n">
-        <v>377.2077923833033</v>
+        <v>377.1562885461863</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29552,28 +29900,28 @@
         <v>0.073</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1050017826589238</v>
+        <v>0.103418211398783</v>
       </c>
       <c r="J20" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K20" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0088252050187001</v>
+        <v>0.008768841420224605</v>
       </c>
       <c r="M20" t="n">
-        <v>6.365026933382027</v>
+        <v>6.321639611542463</v>
       </c>
       <c r="N20" t="n">
-        <v>63.94707955123047</v>
+        <v>63.29820988451105</v>
       </c>
       <c r="O20" t="n">
-        <v>7.996691787935212</v>
+        <v>7.956017212431798</v>
       </c>
       <c r="P20" t="n">
-        <v>378.3519156489402</v>
+        <v>378.3682968478495</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -29630,28 +29978,28 @@
         <v>0.07829999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1643478837280956</v>
+        <v>0.1645001433794639</v>
       </c>
       <c r="J21" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K21" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01896036056254979</v>
+        <v>0.019457814714677</v>
       </c>
       <c r="M21" t="n">
-        <v>6.658606642873629</v>
+        <v>6.610483789709358</v>
       </c>
       <c r="N21" t="n">
-        <v>72.22954167427447</v>
+        <v>71.45937599114056</v>
       </c>
       <c r="O21" t="n">
-        <v>8.498796483871965</v>
+        <v>8.4533647733397</v>
       </c>
       <c r="P21" t="n">
-        <v>375.2572207843002</v>
+        <v>375.2557805374722</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -29708,28 +30056,28 @@
         <v>0.0745</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2265559331979057</v>
+        <v>0.2286711992863773</v>
       </c>
       <c r="J22" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K22" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03401157194129123</v>
+        <v>0.03546354057520085</v>
       </c>
       <c r="M22" t="n">
-        <v>7.075585803939415</v>
+        <v>7.019891301501855</v>
       </c>
       <c r="N22" t="n">
-        <v>75.04993326663607</v>
+        <v>74.24166400819108</v>
       </c>
       <c r="O22" t="n">
-        <v>8.663136456655643</v>
+        <v>8.616360252925308</v>
       </c>
       <c r="P22" t="n">
-        <v>374.1705585163329</v>
+        <v>374.1488349370537</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -29786,28 +30134,28 @@
         <v>0.0677</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1931786239703974</v>
+        <v>0.2042688914518679</v>
       </c>
       <c r="J23" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K23" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02538249557043271</v>
+        <v>0.02888477598504269</v>
       </c>
       <c r="M23" t="n">
-        <v>7.03007932442062</v>
+        <v>6.998601822813831</v>
       </c>
       <c r="N23" t="n">
-        <v>73.85133898661471</v>
+        <v>73.3531407892354</v>
       </c>
       <c r="O23" t="n">
-        <v>8.593680177119387</v>
+        <v>8.564644813956701</v>
       </c>
       <c r="P23" t="n">
-        <v>377.045471967626</v>
+        <v>376.9322412453129</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -29864,28 +30212,28 @@
         <v>0.0759</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1615295742899524</v>
+        <v>0.177172163291627</v>
       </c>
       <c r="J24" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K24" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01639737318256096</v>
+        <v>0.02001378533356402</v>
       </c>
       <c r="M24" t="n">
-        <v>7.23584056781195</v>
+        <v>7.215531707690202</v>
       </c>
       <c r="N24" t="n">
-        <v>80.84063561586295</v>
+        <v>80.51615114270322</v>
       </c>
       <c r="O24" t="n">
-        <v>8.991142064046311</v>
+        <v>8.973079245315024</v>
       </c>
       <c r="P24" t="n">
-        <v>377.0378600208001</v>
+        <v>376.8778921839241</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -29942,28 +30290,28 @@
         <v>0.0682</v>
       </c>
       <c r="I25" t="n">
-        <v>0.162956858703694</v>
+        <v>0.1792647933412236</v>
       </c>
       <c r="J25" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K25" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01614148896032597</v>
+        <v>0.0198481284900397</v>
       </c>
       <c r="M25" t="n">
-        <v>7.203837850879563</v>
+        <v>7.194541875530769</v>
       </c>
       <c r="N25" t="n">
-        <v>83.78400678167964</v>
+        <v>83.38156736264804</v>
       </c>
       <c r="O25" t="n">
-        <v>9.153360409252967</v>
+        <v>9.131350796166361</v>
       </c>
       <c r="P25" t="n">
-        <v>376.9082340433987</v>
+        <v>376.7430100466051</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -30020,28 +30368,28 @@
         <v>0.0711</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1361700070692425</v>
+        <v>0.1462224740142007</v>
       </c>
       <c r="J26" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K26" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01211446250004333</v>
+        <v>0.01424601920397839</v>
       </c>
       <c r="M26" t="n">
-        <v>6.908296752071389</v>
+        <v>6.872523839829327</v>
       </c>
       <c r="N26" t="n">
-        <v>78.40472685354722</v>
+        <v>77.82827773244168</v>
       </c>
       <c r="O26" t="n">
-        <v>8.854644366294291</v>
+        <v>8.822033650606967</v>
       </c>
       <c r="P26" t="n">
-        <v>380.9445819173293</v>
+        <v>380.8424503750898</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30098,28 +30446,28 @@
         <v>0.0728</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1042553529895789</v>
+        <v>0.1141868966070859</v>
       </c>
       <c r="J27" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K27" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L27" t="n">
-        <v>0.006913392213817482</v>
+        <v>0.008453499712266721</v>
       </c>
       <c r="M27" t="n">
-        <v>7.070887425832144</v>
+        <v>7.042910422527777</v>
       </c>
       <c r="N27" t="n">
-        <v>80.87443811270975</v>
+        <v>80.35513837734067</v>
       </c>
       <c r="O27" t="n">
-        <v>8.993021634173342</v>
+        <v>8.964102764769081</v>
       </c>
       <c r="P27" t="n">
-        <v>381.3756942095995</v>
+        <v>381.2746353940603</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30176,28 +30524,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.149716800089237</v>
+        <v>0.152492961546954</v>
       </c>
       <c r="J28" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K28" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01382209252843847</v>
+        <v>0.01465360810999516</v>
       </c>
       <c r="M28" t="n">
-        <v>7.160784565661309</v>
+        <v>7.131332092176168</v>
       </c>
       <c r="N28" t="n">
-        <v>82.93024445447148</v>
+        <v>82.20371731092342</v>
       </c>
       <c r="O28" t="n">
-        <v>9.106604441528768</v>
+        <v>9.066626567302936</v>
       </c>
       <c r="P28" t="n">
-        <v>383.0031865538952</v>
+        <v>382.974951576423</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -30254,28 +30602,28 @@
         <v>0.0707</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1927256645911252</v>
+        <v>0.198419662320002</v>
       </c>
       <c r="J29" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K29" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02482396297355294</v>
+        <v>0.02683803751775327</v>
       </c>
       <c r="M29" t="n">
-        <v>6.826419060113975</v>
+        <v>6.790101092017237</v>
       </c>
       <c r="N29" t="n">
-        <v>76.46125972018055</v>
+        <v>75.85321758837281</v>
       </c>
       <c r="O29" t="n">
-        <v>8.744212927426947</v>
+        <v>8.709375269694883</v>
       </c>
       <c r="P29" t="n">
-        <v>386.9778572239746</v>
+        <v>386.9200191962766</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -30332,28 +30680,28 @@
         <v>0.0677</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2160338552225754</v>
+        <v>0.2224757076084674</v>
       </c>
       <c r="J30" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K30" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03384002286564192</v>
+        <v>0.03660176008363158</v>
       </c>
       <c r="M30" t="n">
-        <v>6.773037017468512</v>
+        <v>6.730826798438962</v>
       </c>
       <c r="N30" t="n">
-        <v>70.28775696485874</v>
+        <v>69.69951308049018</v>
       </c>
       <c r="O30" t="n">
-        <v>8.38377939624241</v>
+        <v>8.348623424283202</v>
       </c>
       <c r="P30" t="n">
-        <v>384.8736085651158</v>
+        <v>384.8085192926869</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -30410,28 +30758,28 @@
         <v>0.0747</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1961239494987854</v>
+        <v>0.1993020626427644</v>
       </c>
       <c r="J31" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K31" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03177294146652498</v>
+        <v>0.03362624937476499</v>
       </c>
       <c r="M31" t="n">
-        <v>6.251207549537625</v>
+        <v>6.190684787366828</v>
       </c>
       <c r="N31" t="n">
-        <v>62.12279855737778</v>
+        <v>61.37462440122631</v>
       </c>
       <c r="O31" t="n">
-        <v>7.881801732940113</v>
+        <v>7.834195836282516</v>
       </c>
       <c r="P31" t="n">
-        <v>383.0605740730528</v>
+        <v>383.0286098135231</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -30488,28 +30836,28 @@
         <v>0.0506</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2151443379455568</v>
+        <v>0.217775703151029</v>
       </c>
       <c r="J32" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K32" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02860132524201309</v>
+        <v>0.02998586584321883</v>
       </c>
       <c r="M32" t="n">
-        <v>7.147347984804788</v>
+        <v>7.098801647433253</v>
       </c>
       <c r="N32" t="n">
-        <v>84.22949465266524</v>
+        <v>83.37047716045898</v>
       </c>
       <c r="O32" t="n">
-        <v>9.177662809924172</v>
+        <v>9.130743516300246</v>
       </c>
       <c r="P32" t="n">
-        <v>395.2778457812813</v>
+        <v>395.251645362443</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -30566,28 +30914,28 @@
         <v>0.0216</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1398026469334373</v>
+        <v>0.1436972433575625</v>
       </c>
       <c r="J33" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K33" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L33" t="n">
-        <v>0.004779202068608601</v>
+        <v>0.005149798940694006</v>
       </c>
       <c r="M33" t="n">
-        <v>11.30433712208207</v>
+        <v>11.28789330018586</v>
       </c>
       <c r="N33" t="n">
-        <v>216.121622027129</v>
+        <v>215.0180288570965</v>
       </c>
       <c r="O33" t="n">
-        <v>14.70107553980759</v>
+        <v>14.66349306465197</v>
       </c>
       <c r="P33" t="n">
-        <v>377.7411541896821</v>
+        <v>377.70236164507</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -30625,7 +30973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH252"/>
+  <dimension ref="A1:AH255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69297,6 +69645,510 @@
         </is>
       </c>
     </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>-36.58882720813896,175.52488654190776</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>-36.58915445395821,175.52409000492486</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>-36.58968310488118,175.52351287057763</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>-36.59027640221608,175.52303897702205</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>-36.59097599550922,175.52291592662283</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>-36.59167130909064,175.52301889510156</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>-36.592352160839454,175.5229622297575</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>-36.59303011413938,175.52305602600362</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>-36.59369975784267,175.52319572173977</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>-36.59435445649577,175.52348976993835</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>-36.59499326895547,175.5238363308151</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>-36.595612503216806,175.52424151569446</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>-36.59620831091727,175.52469033639073</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>-36.59681711468687,175.52513890363102</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>-36.59736016550857,175.52570299305978</t>
+        </is>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>-36.5978989192214,175.5262938891821</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>-36.598450903763684,175.52687576556917</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>-36.5989645517025,175.52749702441216</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>-36.59946874852241,175.5281245296021</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>-36.599959236244295,175.52877733506068</t>
+        </is>
+      </c>
+      <c r="V253" t="inlineStr">
+        <is>
+          <t>-36.60045564387402,175.52942953065525</t>
+        </is>
+      </c>
+      <c r="W253" t="inlineStr">
+        <is>
+          <t>-36.60088968605455,175.5301352316898</t>
+        </is>
+      </c>
+      <c r="X253" t="inlineStr">
+        <is>
+          <t>-36.60129890932995,175.5308497054176</t>
+        </is>
+      </c>
+      <c r="Y253" t="inlineStr">
+        <is>
+          <t>-36.601714940314125,175.53157418664375</t>
+        </is>
+      </c>
+      <c r="Z253" t="inlineStr">
+        <is>
+          <t>-36.60213047370903,175.53229190718866</t>
+        </is>
+      </c>
+      <c r="AA253" t="inlineStr">
+        <is>
+          <t>-36.6024849095304,175.53305417571465</t>
+        </is>
+      </c>
+      <c r="AB253" t="inlineStr">
+        <is>
+          <t>-36.60281041454592,175.53384164921343</t>
+        </is>
+      </c>
+      <c r="AC253" t="inlineStr">
+        <is>
+          <t>-36.60310013521655,175.5346291776437</t>
+        </is>
+      </c>
+      <c r="AD253" t="inlineStr">
+        <is>
+          <t>-36.60332949040092,175.53544562205133</t>
+        </is>
+      </c>
+      <c r="AE253" t="inlineStr">
+        <is>
+          <t>-36.60351804746175,175.53630109055285</t>
+        </is>
+      </c>
+      <c r="AF253" t="inlineStr">
+        <is>
+          <t>-36.6035744826107,175.53705412690252</t>
+        </is>
+      </c>
+      <c r="AG253" t="inlineStr">
+        <is>
+          <t>-36.60351735233007,175.53785096395777</t>
+        </is>
+      </c>
+      <c r="AH253" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>-36.5888586306388,175.52491595749964</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>-36.5892000163328,175.52414678902898</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>-36.58967328479509,175.52349547139775</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>-36.59031985579762,175.52316503935884</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>-36.59097992689868,175.52293957403043</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>-36.59166034509689,175.5227968298956</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>-36.59300579450085,175.5232322261262</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>-36.59365580758206,175.52336785036454</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>-36.59432805973099,175.5235703352905</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>-36.59495244241546,175.5239373066679</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>-36.59560460982011,175.52425801615937</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>-36.59621239372964,175.52468320396156</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>-36.59677791947012,175.52519773251322</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>-36.59734475036218,175.52572351218097</t>
+        </is>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>-36.59787153681865,175.52632959252833</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>-36.59841451076741,175.5269237637317</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>-36.59891118817317,175.52756353124553</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>-36.59944287433688,175.52815412968135</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>-36.59993465674023,175.52880437199622</t>
+        </is>
+      </c>
+      <c r="V254" t="inlineStr">
+        <is>
+          <t>-36.60040969434118,175.52948007400786</t>
+        </is>
+      </c>
+      <c r="W254" t="inlineStr">
+        <is>
+          <t>-36.60084664894437,175.53017886623957</t>
+        </is>
+      </c>
+      <c r="X254" t="inlineStr">
+        <is>
+          <t>-36.601277388084476,175.5308688011621</t>
+        </is>
+      </c>
+      <c r="Y254" t="inlineStr">
+        <is>
+          <t>-36.601690795855774,175.5315945327248</t>
+        </is>
+      </c>
+      <c r="Z254" t="inlineStr">
+        <is>
+          <t>-36.602079524047056,175.53233078896307</t>
+        </is>
+      </c>
+      <c r="AA254" t="inlineStr">
+        <is>
+          <t>-36.602427875800736,175.53309243481291</t>
+        </is>
+      </c>
+      <c r="AB254" t="inlineStr">
+        <is>
+          <t>-36.602778910604215,175.5338608737732</t>
+        </is>
+      </c>
+      <c r="AC254" t="inlineStr">
+        <is>
+          <t>-36.603012858340634,175.5346702093882</t>
+        </is>
+      </c>
+      <c r="AD254" t="inlineStr">
+        <is>
+          <t>-36.60324210763642,175.53547503550405</t>
+        </is>
+      </c>
+      <c r="AE254" t="inlineStr">
+        <is>
+          <t>-36.603481049784726,175.53631180904947</t>
+        </is>
+      </c>
+      <c r="AF254" t="inlineStr">
+        <is>
+          <t>-36.60350806102713,175.5370456897047</t>
+        </is>
+      </c>
+      <c r="AG254" t="inlineStr">
+        <is>
+          <t>-36.603331890487745,175.53774647215633</t>
+        </is>
+      </c>
+      <c r="AH254" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>-36.58875257068027,175.52481667156</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>-36.58912948042636,175.52405888061162</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>-36.589673688681984,175.52349618700237</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>-36.59028752924206,175.52307125736854</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>-36.59094176290989,175.5227100179751</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>-36.593052503179734,175.52289381165463</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>-36.59369671179281,175.52320765145316</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>-36.594355349575984,175.52348704417167</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>-36.595015550650515,175.52378122160076</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>-36.595655916859926,175.52415076307565</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>-36.59625991227185,175.5246001918011</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>-36.59683150553566,175.5251173040939</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>-36.597400623756506,175.52564913897416</t>
+        </is>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>-36.597927280750774,175.5262569091328</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>-36.598460819772015,175.5268626874865</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>-36.59898243637551,175.5274747347588</t>
+        </is>
+      </c>
+      <c r="T255" t="inlineStr">
+        <is>
+          <t>-36.599499173150306,175.52808972377986</t>
+        </is>
+      </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>-36.59998954496697,175.5287439960737</t>
+        </is>
+      </c>
+      <c r="V255" t="inlineStr">
+        <is>
+          <t>-36.60045398768834,175.52943135242006</t>
+        </is>
+      </c>
+      <c r="W255" t="inlineStr">
+        <is>
+          <t>-36.60091471099269,175.53010985932758</t>
+        </is>
+      </c>
+      <c r="X255" t="inlineStr">
+        <is>
+          <t>-36.60135155053613,175.5308029969597</t>
+        </is>
+      </c>
+      <c r="Y255" t="inlineStr">
+        <is>
+          <t>-36.601756356192894,175.5315392862264</t>
+        </is>
+      </c>
+      <c r="Z255" t="inlineStr">
+        <is>
+          <t>-36.602156928336825,175.5322717185553</t>
+        </is>
+      </c>
+      <c r="AA255" t="inlineStr">
+        <is>
+          <t>-36.602523377292066,175.53302837091684</t>
+        </is>
+      </c>
+      <c r="AB255" t="inlineStr">
+        <is>
+          <t>-36.60287503919225,175.53380221344915</t>
+        </is>
+      </c>
+      <c r="AC255" t="inlineStr">
+        <is>
+          <t>-36.6031001157756,175.53462918678352</t>
+        </is>
+      </c>
+      <c r="AD255" t="inlineStr">
+        <is>
+          <t>-36.60331034177113,175.53545206757624</t>
+        </is>
+      </c>
+      <c r="AE255" t="inlineStr">
+        <is>
+          <t>-36.603510013752135,175.53630341797788</t>
+        </is>
+      </c>
+      <c r="AF255" t="inlineStr">
+        <is>
+          <t>-36.60359453854278,175.53705667450967</t>
+        </is>
+      </c>
+      <c r="AG255" t="inlineStr">
+        <is>
+          <t>-36.60354113999713,175.5378643663053</t>
+        </is>
+      </c>
+      <c r="AH255" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0139/nzd0139.xlsx
+++ b/data/nzd0139/nzd0139.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH255"/>
+  <dimension ref="A1:AH256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25611,8 +25611,12 @@
       <c r="F255" t="n">
         <v>358.7088888888889</v>
       </c>
-      <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr"/>
+      <c r="G255" t="n">
+        <v>334.5233333333333</v>
+      </c>
+      <c r="H255" t="n">
+        <v>329.04</v>
+      </c>
       <c r="I255" t="n">
         <v>385.19</v>
       </c>
@@ -25689,6 +25693,114 @@
         <v>373.37</v>
       </c>
       <c r="AH255" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>376.24</v>
+      </c>
+      <c r="C256" t="n">
+        <v>368.36</v>
+      </c>
+      <c r="D256" t="n">
+        <v>355.7254545454546</v>
+      </c>
+      <c r="E256" t="n">
+        <v>357.67</v>
+      </c>
+      <c r="F256" t="n">
+        <v>358.92</v>
+      </c>
+      <c r="G256" t="n">
+        <v>351.88</v>
+      </c>
+      <c r="H256" t="n">
+        <v>341.65</v>
+      </c>
+      <c r="I256" t="n">
+        <v>378.88</v>
+      </c>
+      <c r="J256" t="n">
+        <v>377.03</v>
+      </c>
+      <c r="K256" t="n">
+        <v>383.13</v>
+      </c>
+      <c r="L256" t="n">
+        <v>378.9684615384616</v>
+      </c>
+      <c r="M256" t="n">
+        <v>380.9728571428572</v>
+      </c>
+      <c r="N256" t="n">
+        <v>373.9828571428571</v>
+      </c>
+      <c r="O256" t="n">
+        <v>373.5984615384616</v>
+      </c>
+      <c r="P256" t="n">
+        <v>374.0484615384616</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>372.4184615384616</v>
+      </c>
+      <c r="R256" t="n">
+        <v>375.74</v>
+      </c>
+      <c r="S256" t="n">
+        <v>376.4328571428572</v>
+      </c>
+      <c r="T256" t="n">
+        <v>380.6128571428572</v>
+      </c>
+      <c r="U256" t="n">
+        <v>376.36</v>
+      </c>
+      <c r="V256" t="n">
+        <v>378.2728571428572</v>
+      </c>
+      <c r="W256" t="n">
+        <v>378.4784615384616</v>
+      </c>
+      <c r="X256" t="n">
+        <v>377.8128571428572</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>382.4384615384615</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>385.4184615384616</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>388.3728571428572</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>387.2928571428571</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>399.2084615384616</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>396.7384615384616</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>390.9428571428572</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>408</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>386.92</v>
+      </c>
+      <c r="AH256" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -25705,7 +25817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B261"/>
+  <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28323,6 +28435,16 @@
       </c>
       <c r="B261" t="n">
         <v>-0.05</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -28496,28 +28618,28 @@
         <v>0.0462</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2340245062295979</v>
+        <v>-0.2339855475240811</v>
       </c>
       <c r="J2" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K2" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02238413872395173</v>
+        <v>0.02262623860512958</v>
       </c>
       <c r="M2" t="n">
-        <v>8.742954503219938</v>
+        <v>8.696865365368595</v>
       </c>
       <c r="N2" t="n">
-        <v>128.3099817190472</v>
+        <v>127.631100110216</v>
       </c>
       <c r="O2" t="n">
-        <v>11.3273996009255</v>
+        <v>11.29739350957627</v>
       </c>
       <c r="P2" t="n">
-        <v>382.2461562478415</v>
+        <v>382.2457634551033</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28574,28 +28696,28 @@
         <v>0.0568</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3096928021431917</v>
+        <v>-0.3089672899091466</v>
       </c>
       <c r="J3" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K3" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04658945190824415</v>
+        <v>0.04683791779487612</v>
       </c>
       <c r="M3" t="n">
-        <v>8.301833291538104</v>
+        <v>8.264853322399288</v>
       </c>
       <c r="N3" t="n">
-        <v>104.8368692966955</v>
+        <v>104.3256942816149</v>
       </c>
       <c r="O3" t="n">
-        <v>10.23898770859187</v>
+        <v>10.21399502063785</v>
       </c>
       <c r="P3" t="n">
-        <v>375.6051895827665</v>
+        <v>375.5978082447153</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28652,28 +28774,28 @@
         <v>0.0622</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3932692872607231</v>
+        <v>-0.3994408138898359</v>
       </c>
       <c r="J4" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K4" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06000070807233215</v>
+        <v>0.0624054418730855</v>
       </c>
       <c r="M4" t="n">
-        <v>9.180433989211702</v>
+        <v>9.15936420788881</v>
       </c>
       <c r="N4" t="n">
-        <v>128.7166223531897</v>
+        <v>128.177672296148</v>
       </c>
       <c r="O4" t="n">
-        <v>11.345334827725</v>
+        <v>11.32155785641481</v>
       </c>
       <c r="P4" t="n">
-        <v>371.4639848601384</v>
+        <v>371.5262885588825</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28730,28 +28852,28 @@
         <v>0.0468</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.608416722947466</v>
+        <v>-0.6202006730306147</v>
       </c>
       <c r="J5" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K5" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08352559488540223</v>
+        <v>0.08716131794300597</v>
       </c>
       <c r="M5" t="n">
-        <v>11.93427622163311</v>
+        <v>11.93589306078615</v>
       </c>
       <c r="N5" t="n">
-        <v>212.4520982188163</v>
+        <v>211.9670529831233</v>
       </c>
       <c r="O5" t="n">
-        <v>14.57573662697074</v>
+        <v>14.55908832939492</v>
       </c>
       <c r="P5" t="n">
-        <v>384.4851339721013</v>
+        <v>384.6066635145901</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28808,28 +28930,28 @@
         <v>0.0513</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6571270371653395</v>
+        <v>-0.6661094948741973</v>
       </c>
       <c r="J6" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K6" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07014169879749843</v>
+        <v>0.07262247955558065</v>
       </c>
       <c r="M6" t="n">
-        <v>14.28048929956107</v>
+        <v>14.24693398245514</v>
       </c>
       <c r="N6" t="n">
-        <v>302.9139275031763</v>
+        <v>301.6908686010461</v>
       </c>
       <c r="O6" t="n">
-        <v>17.40442264205211</v>
+        <v>17.36925066319921</v>
       </c>
       <c r="P6" t="n">
-        <v>384.3584102315335</v>
+        <v>384.4494128488388</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28886,28 +29008,28 @@
         <v>0.0335</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.7891966592290004</v>
+        <v>-0.8437514098191403</v>
       </c>
       <c r="J7" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K7" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04778495894025414</v>
+        <v>0.05504641682889655</v>
       </c>
       <c r="M7" t="n">
-        <v>20.82423615936843</v>
+        <v>20.90786066058561</v>
       </c>
       <c r="N7" t="n">
-        <v>660.794319495091</v>
+        <v>660.0970262136332</v>
       </c>
       <c r="O7" t="n">
-        <v>25.7059199309243</v>
+        <v>25.69235345805505</v>
       </c>
       <c r="P7" t="n">
-        <v>386.8936919040744</v>
+        <v>387.4355736032358</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28964,28 +29086,28 @@
         <v>0.0222</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1560993318291243</v>
+        <v>0.06610077874189432</v>
       </c>
       <c r="J8" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K8" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002176514604035229</v>
+        <v>0.0003888884698792783</v>
       </c>
       <c r="M8" t="n">
-        <v>19.10924375659408</v>
+        <v>19.32999385060276</v>
       </c>
       <c r="N8" t="n">
-        <v>565.5587152690687</v>
+        <v>576.0568319817684</v>
       </c>
       <c r="O8" t="n">
-        <v>23.78147840797684</v>
+        <v>24.0011839704163</v>
       </c>
       <c r="P8" t="n">
-        <v>369.8135140755035</v>
+        <v>370.7572154688428</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29042,28 +29164,28 @@
         <v>0.0276</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6985344953643248</v>
+        <v>0.687974892530494</v>
       </c>
       <c r="J9" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K9" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L9" t="n">
-        <v>0.063977973055658</v>
+        <v>0.06280104714094314</v>
       </c>
       <c r="M9" t="n">
-        <v>15.71411250637909</v>
+        <v>15.67990492868348</v>
       </c>
       <c r="N9" t="n">
-        <v>384.0250673790627</v>
+        <v>382.4844645748798</v>
       </c>
       <c r="O9" t="n">
-        <v>19.59655753899298</v>
+        <v>19.55721004066991</v>
       </c>
       <c r="P9" t="n">
-        <v>370.6413428951531</v>
+        <v>370.7460668645896</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29120,28 +29242,28 @@
         <v>0.0422</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4903039122611365</v>
+        <v>0.4813509907966774</v>
       </c>
       <c r="J10" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K10" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0648920930163851</v>
+        <v>0.06328070801556607</v>
       </c>
       <c r="M10" t="n">
-        <v>10.62760156645427</v>
+        <v>10.6169166958976</v>
       </c>
       <c r="N10" t="n">
-        <v>184.4413292796544</v>
+        <v>183.8483600703425</v>
       </c>
       <c r="O10" t="n">
-        <v>13.58091783642234</v>
+        <v>13.55906929218752</v>
       </c>
       <c r="P10" t="n">
-        <v>372.7712277512342</v>
+        <v>372.8599091018501</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29198,28 +29320,28 @@
         <v>0.0646</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4310148475473433</v>
+        <v>0.4296839887663776</v>
       </c>
       <c r="J11" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K11" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08197535009508594</v>
+        <v>0.0823792773926959</v>
       </c>
       <c r="M11" t="n">
-        <v>8.322567239480179</v>
+        <v>8.287767014174126</v>
       </c>
       <c r="N11" t="n">
-        <v>105.923371287176</v>
+        <v>105.4093524644148</v>
       </c>
       <c r="O11" t="n">
-        <v>10.29190804890794</v>
+        <v>10.26690569083084</v>
       </c>
       <c r="P11" t="n">
-        <v>373.2661712649429</v>
+        <v>373.2797483729788</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29276,28 +29398,28 @@
         <v>0.068</v>
       </c>
       <c r="I12" t="n">
-        <v>0.436071622370303</v>
+        <v>0.4324883174431086</v>
       </c>
       <c r="J12" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K12" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08761618167860219</v>
+        <v>0.0871491501691084</v>
       </c>
       <c r="M12" t="n">
-        <v>8.352534024541075</v>
+        <v>8.330007873987737</v>
       </c>
       <c r="N12" t="n">
-        <v>100.1698240468766</v>
+        <v>99.74613986334984</v>
       </c>
       <c r="O12" t="n">
-        <v>10.00848760037582</v>
+        <v>9.987298927305112</v>
       </c>
       <c r="P12" t="n">
-        <v>371.2059370851325</v>
+        <v>371.2427843691345</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29354,28 +29476,28 @@
         <v>0.0769</v>
       </c>
       <c r="I13" t="n">
-        <v>0.28410494574656</v>
+        <v>0.2818743596190288</v>
       </c>
       <c r="J13" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K13" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04700489217749693</v>
+        <v>0.04676490209818929</v>
       </c>
       <c r="M13" t="n">
-        <v>7.590203933438528</v>
+        <v>7.566079028053964</v>
       </c>
       <c r="N13" t="n">
-        <v>82.56270460015965</v>
+        <v>82.19860490575608</v>
       </c>
       <c r="O13" t="n">
-        <v>9.086402181290438</v>
+        <v>9.066344627563861</v>
       </c>
       <c r="P13" t="n">
-        <v>375.8917683156856</v>
+        <v>375.9149324839075</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29432,28 +29554,28 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.183187616561724</v>
+        <v>0.1755535853221214</v>
       </c>
       <c r="J14" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K14" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02079343857878391</v>
+        <v>0.01924647968987125</v>
       </c>
       <c r="M14" t="n">
-        <v>7.162560435599178</v>
+        <v>7.164813615929219</v>
       </c>
       <c r="N14" t="n">
-        <v>80.25974011469769</v>
+        <v>80.18887320083867</v>
       </c>
       <c r="O14" t="n">
-        <v>8.958780057278876</v>
+        <v>8.954824018418154</v>
       </c>
       <c r="P14" t="n">
-        <v>377.3616514492633</v>
+        <v>377.4415938658928</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29510,28 +29632,28 @@
         <v>0.0688</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3041238328235462</v>
+        <v>0.2969528953493495</v>
       </c>
       <c r="J15" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K15" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06132160029711964</v>
+        <v>0.0589184359179965</v>
       </c>
       <c r="M15" t="n">
-        <v>6.857392449887651</v>
+        <v>6.862803281515711</v>
       </c>
       <c r="N15" t="n">
-        <v>74.63073149762155</v>
+        <v>74.59785362664951</v>
       </c>
       <c r="O15" t="n">
-        <v>8.638908003771169</v>
+        <v>8.63700489907523</v>
       </c>
       <c r="P15" t="n">
-        <v>373.9963489544544</v>
+        <v>374.0702524915779</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29588,28 +29710,28 @@
         <v>0.0687</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2003516473368371</v>
+        <v>0.1952539713179643</v>
       </c>
       <c r="J16" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K16" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02896921332789937</v>
+        <v>0.02774519717239243</v>
       </c>
       <c r="M16" t="n">
-        <v>6.82153595808017</v>
+        <v>6.819739319327833</v>
       </c>
       <c r="N16" t="n">
-        <v>70.34204480967088</v>
+        <v>70.1849554512266</v>
       </c>
       <c r="O16" t="n">
-        <v>8.387016442673216</v>
+        <v>8.377646176058439</v>
       </c>
       <c r="P16" t="n">
-        <v>374.7500031660953</v>
+        <v>374.8025325743919</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29666,28 +29788,28 @@
         <v>0.0702</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2364459398048385</v>
+        <v>0.2309074763132584</v>
       </c>
       <c r="J17" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K17" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04022829076503831</v>
+        <v>0.0386921470394922</v>
       </c>
       <c r="M17" t="n">
-        <v>6.847230515523184</v>
+        <v>6.846410206888798</v>
       </c>
       <c r="N17" t="n">
-        <v>70.79446487161849</v>
+        <v>70.66365160450933</v>
       </c>
       <c r="O17" t="n">
-        <v>8.413944667729785</v>
+        <v>8.40616747421257</v>
       </c>
       <c r="P17" t="n">
-        <v>372.715912636723</v>
+        <v>372.7720493958168</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29744,28 +29866,28 @@
         <v>0.0801</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1861696193975945</v>
+        <v>0.1834085126941193</v>
       </c>
       <c r="J18" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K18" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02712565868153993</v>
+        <v>0.0265594024455531</v>
       </c>
       <c r="M18" t="n">
-        <v>6.460850038434993</v>
+        <v>6.44608786928177</v>
       </c>
       <c r="N18" t="n">
-        <v>65.27205511609183</v>
+        <v>65.0404749245571</v>
       </c>
       <c r="O18" t="n">
-        <v>8.079112272774271</v>
+        <v>8.064767505920868</v>
       </c>
       <c r="P18" t="n">
-        <v>374.2126542477604</v>
+        <v>374.2411206861522</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29822,28 +29944,28 @@
         <v>0.0769</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1459263665941794</v>
+        <v>0.1422348046640661</v>
       </c>
       <c r="J19" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K19" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0174367814663775</v>
+        <v>0.01669929531694991</v>
       </c>
       <c r="M19" t="n">
-        <v>6.545240742829669</v>
+        <v>6.537046559121857</v>
       </c>
       <c r="N19" t="n">
-        <v>63.14112694878996</v>
+        <v>62.96028222381557</v>
       </c>
       <c r="O19" t="n">
-        <v>7.946139122164295</v>
+        <v>7.934751554006941</v>
       </c>
       <c r="P19" t="n">
-        <v>377.1562885461863</v>
+        <v>377.1944994463888</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29900,28 +30022,28 @@
         <v>0.073</v>
       </c>
       <c r="I20" t="n">
-        <v>0.103418211398783</v>
+        <v>0.1030640522282789</v>
       </c>
       <c r="J20" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K20" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L20" t="n">
-        <v>0.008768841420224605</v>
+        <v>0.008785267691800547</v>
       </c>
       <c r="M20" t="n">
-        <v>6.321639611542463</v>
+        <v>6.296827389545459</v>
       </c>
       <c r="N20" t="n">
-        <v>63.29820988451105</v>
+        <v>63.03411353688581</v>
       </c>
       <c r="O20" t="n">
-        <v>7.956017212431798</v>
+        <v>7.939402593198421</v>
       </c>
       <c r="P20" t="n">
-        <v>378.3682968478495</v>
+        <v>378.3719591201207</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -29978,28 +30100,28 @@
         <v>0.07829999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1645001433794639</v>
+        <v>0.1618831730645977</v>
       </c>
       <c r="J21" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K21" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L21" t="n">
-        <v>0.019457814714677</v>
+        <v>0.01900790603566793</v>
       </c>
       <c r="M21" t="n">
-        <v>6.610483789709358</v>
+        <v>6.595524191763928</v>
       </c>
       <c r="N21" t="n">
-        <v>71.45937599114056</v>
+        <v>71.20120098409974</v>
       </c>
       <c r="O21" t="n">
-        <v>8.4533647733397</v>
+        <v>8.438080408724471</v>
       </c>
       <c r="P21" t="n">
-        <v>375.2557805374722</v>
+        <v>375.2827963573694</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30056,28 +30178,28 @@
         <v>0.0745</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2286711992863773</v>
+        <v>0.2271886023919434</v>
       </c>
       <c r="J22" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K22" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03546354057520085</v>
+        <v>0.03531371818576978</v>
       </c>
       <c r="M22" t="n">
-        <v>7.019891301501855</v>
+        <v>6.998436981095257</v>
       </c>
       <c r="N22" t="n">
-        <v>74.24166400819108</v>
+        <v>73.94537060395406</v>
       </c>
       <c r="O22" t="n">
-        <v>8.616360252925308</v>
+        <v>8.599149411654274</v>
       </c>
       <c r="P22" t="n">
-        <v>374.1488349370537</v>
+        <v>374.1641658311821</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30134,28 +30256,28 @@
         <v>0.0677</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2042688914518679</v>
+        <v>0.2011085012534707</v>
       </c>
       <c r="J23" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K23" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02888477598504269</v>
+        <v>0.02824783788268004</v>
       </c>
       <c r="M23" t="n">
-        <v>6.998601822813831</v>
+        <v>6.984165982357861</v>
       </c>
       <c r="N23" t="n">
-        <v>73.3531407892354</v>
+        <v>73.10152483014193</v>
       </c>
       <c r="O23" t="n">
-        <v>8.564644813956701</v>
+        <v>8.549942972332735</v>
       </c>
       <c r="P23" t="n">
-        <v>376.9322412453129</v>
+        <v>376.964764865261</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30212,28 +30334,28 @@
         <v>0.0759</v>
       </c>
       <c r="I24" t="n">
-        <v>0.177172163291627</v>
+        <v>0.1741084629022562</v>
       </c>
       <c r="J24" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K24" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02001378533356402</v>
+        <v>0.01949748220684566</v>
       </c>
       <c r="M24" t="n">
-        <v>7.215531707690202</v>
+        <v>7.20151276041538</v>
       </c>
       <c r="N24" t="n">
-        <v>80.51615114270322</v>
+        <v>80.23160300124817</v>
       </c>
       <c r="O24" t="n">
-        <v>8.973079245315024</v>
+        <v>8.957209554389591</v>
       </c>
       <c r="P24" t="n">
-        <v>376.8778921839241</v>
+        <v>376.9094853845703</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -30290,28 +30412,28 @@
         <v>0.0682</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1792647933412236</v>
+        <v>0.1801765868405644</v>
       </c>
       <c r="J25" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K25" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0198481284900397</v>
+        <v>0.0202267677130884</v>
       </c>
       <c r="M25" t="n">
-        <v>7.194541875530769</v>
+        <v>7.168653699828567</v>
       </c>
       <c r="N25" t="n">
-        <v>83.38156736264804</v>
+        <v>83.03300841374073</v>
       </c>
       <c r="O25" t="n">
-        <v>9.131350796166361</v>
+        <v>9.11224497112214</v>
       </c>
       <c r="P25" t="n">
-        <v>376.7430100466051</v>
+        <v>376.7336988683731</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -30368,28 +30490,28 @@
         <v>0.0711</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1462224740142007</v>
+        <v>0.1468960451205269</v>
       </c>
       <c r="J26" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K26" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01424601920397839</v>
+        <v>0.01450319831644653</v>
       </c>
       <c r="M26" t="n">
-        <v>6.872523839829327</v>
+        <v>6.846802069226007</v>
       </c>
       <c r="N26" t="n">
-        <v>77.82827773244168</v>
+        <v>77.50392228195554</v>
       </c>
       <c r="O26" t="n">
-        <v>8.822033650606967</v>
+        <v>8.803631198656355</v>
       </c>
       <c r="P26" t="n">
-        <v>380.8424503750898</v>
+        <v>380.8355521280366</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30446,28 +30568,28 @@
         <v>0.0728</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1141868966070859</v>
+        <v>0.1176618797463262</v>
       </c>
       <c r="J27" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K27" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L27" t="n">
-        <v>0.008453499712266721</v>
+        <v>0.009042901581661988</v>
       </c>
       <c r="M27" t="n">
-        <v>7.042910422527777</v>
+        <v>7.029569551806476</v>
       </c>
       <c r="N27" t="n">
-        <v>80.35513837734067</v>
+        <v>80.09002972994753</v>
       </c>
       <c r="O27" t="n">
-        <v>8.964102764769081</v>
+        <v>8.949303309752526</v>
       </c>
       <c r="P27" t="n">
-        <v>381.2746353940603</v>
+        <v>381.2389782997519</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30524,28 +30646,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.152492961546954</v>
+        <v>0.1528100673992235</v>
       </c>
       <c r="J28" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K28" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01465360810999516</v>
+        <v>0.01484159571983323</v>
       </c>
       <c r="M28" t="n">
-        <v>7.131332092176168</v>
+        <v>7.102888984710396</v>
       </c>
       <c r="N28" t="n">
-        <v>82.20371731092342</v>
+        <v>81.85746764030053</v>
       </c>
       <c r="O28" t="n">
-        <v>9.066626567302936</v>
+        <v>9.047511682241726</v>
       </c>
       <c r="P28" t="n">
-        <v>382.974951576423</v>
+        <v>382.9716782095008</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -30602,28 +30724,28 @@
         <v>0.0707</v>
       </c>
       <c r="I29" t="n">
-        <v>0.198419662320002</v>
+        <v>0.2043998497901147</v>
       </c>
       <c r="J29" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K29" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02683803751775327</v>
+        <v>0.02860010956739478</v>
       </c>
       <c r="M29" t="n">
-        <v>6.790101092017237</v>
+        <v>6.793180135035104</v>
       </c>
       <c r="N29" t="n">
-        <v>75.85321758837281</v>
+        <v>75.74647956878187</v>
       </c>
       <c r="O29" t="n">
-        <v>8.709375269694883</v>
+        <v>8.703245346925586</v>
       </c>
       <c r="P29" t="n">
-        <v>386.9200191962766</v>
+        <v>386.8588301498838</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -30680,28 +30802,28 @@
         <v>0.0677</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2224757076084674</v>
+        <v>0.2276946360352023</v>
       </c>
       <c r="J30" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K30" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03660176008363158</v>
+        <v>0.03851872623854735</v>
       </c>
       <c r="M30" t="n">
-        <v>6.730826798438962</v>
+        <v>6.727678823639847</v>
       </c>
       <c r="N30" t="n">
-        <v>69.69951308049018</v>
+        <v>69.56237870915653</v>
       </c>
       <c r="O30" t="n">
-        <v>8.348623424283202</v>
+        <v>8.340406387530319</v>
       </c>
       <c r="P30" t="n">
-        <v>384.8085192926869</v>
+        <v>384.7554487061518</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -30758,28 +30880,28 @@
         <v>0.0747</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1993020626427644</v>
+        <v>0.2016543799683618</v>
       </c>
       <c r="J31" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K31" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03362624937476499</v>
+        <v>0.03468269026567705</v>
       </c>
       <c r="M31" t="n">
-        <v>6.190684787366828</v>
+        <v>6.176581740270738</v>
       </c>
       <c r="N31" t="n">
-        <v>61.37462440122631</v>
+        <v>61.14164913718465</v>
       </c>
       <c r="O31" t="n">
-        <v>7.834195836282516</v>
+        <v>7.819312574464884</v>
       </c>
       <c r="P31" t="n">
-        <v>383.0286098135231</v>
+        <v>383.0047956475684</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -30836,28 +30958,28 @@
         <v>0.0506</v>
       </c>
       <c r="I32" t="n">
-        <v>0.217775703151029</v>
+        <v>0.2237580817776722</v>
       </c>
       <c r="J32" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K32" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02998586584321883</v>
+        <v>0.03179999228432817</v>
       </c>
       <c r="M32" t="n">
-        <v>7.098801647433253</v>
+        <v>7.098075402581735</v>
       </c>
       <c r="N32" t="n">
-        <v>83.37047716045898</v>
+        <v>83.22702007016386</v>
       </c>
       <c r="O32" t="n">
-        <v>9.130743516300246</v>
+        <v>9.122884416135275</v>
       </c>
       <c r="P32" t="n">
-        <v>395.251645362443</v>
+        <v>395.1914966255243</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -30914,28 +31036,28 @@
         <v>0.0216</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1436972433575625</v>
+        <v>0.1484533836098176</v>
       </c>
       <c r="J33" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K33" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L33" t="n">
-        <v>0.005149798940694006</v>
+        <v>0.00554233110139446</v>
       </c>
       <c r="M33" t="n">
-        <v>11.28789330018586</v>
+        <v>11.26015949425797</v>
       </c>
       <c r="N33" t="n">
-        <v>215.0180288570965</v>
+        <v>214.2097088575026</v>
       </c>
       <c r="O33" t="n">
-        <v>14.66349306465197</v>
+        <v>14.63590478438223</v>
       </c>
       <c r="P33" t="n">
-        <v>377.70236164507</v>
+        <v>377.6545464263306</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -30973,7 +31095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH255"/>
+  <dimension ref="A1:AH256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70016,8 +70138,16 @@
           <t>-36.59094176290989,175.5227100179751</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr"/>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>-36.591634034584075,175.52226397020527</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>-36.59238510764132,175.52223649156286</t>
+        </is>
+      </c>
       <c r="I255" t="inlineStr">
         <is>
           <t>-36.593052503179734,175.52289381165463</t>
@@ -70144,6 +70274,178 @@
         </is>
       </c>
       <c r="AH255" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>-36.58877788126883,175.52484036553545</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>-36.58913736011676,175.52406870100347</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>-36.5896276831161,175.52341467468904</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>-36.59023579714987,175.52292117894459</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>-36.59094214695737,175.5227123280027</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>-36.59164359180889,175.52245752444597</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>-36.59237872220015,175.5223771549982</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>-36.59306209407343,175.52282432265105</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>-36.59374128735325,175.52303307277936</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>-36.594394373730694,175.5233679384548</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>-36.5950534384845,175.52368751358065</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>-36.59567638580187,175.52410797436707</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>-36.5963085855671,175.52451516214765</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>-36.59688408507523,175.525038386207</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>-36.59742078200876,175.52562230623667</t>
+        </is>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>-36.5979540565467,175.52622199665308</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>-36.59846985115604,175.5268507761178</t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>-36.59899363926012,175.5274607726052</t>
+        </is>
+      </c>
+      <c r="T256" t="inlineStr">
+        <is>
+          <t>-36.5994689944927,175.52812424821187</t>
+        </is>
+      </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>-36.599982624962834,175.52875160794255</t>
+        </is>
+      </c>
+      <c r="V256" t="inlineStr">
+        <is>
+          <t>-36.60045704007704,175.5294279948651</t>
+        </is>
+      </c>
+      <c r="W256" t="inlineStr">
+        <is>
+          <t>-36.60093879158896,175.53008544439763</t>
+        </is>
+      </c>
+      <c r="X256" t="inlineStr">
+        <is>
+          <t>-36.6013795616386,175.53077814272197</t>
+        </is>
+      </c>
+      <c r="Y256" t="inlineStr">
+        <is>
+          <t>-36.60175816186767,175.5315377646157</t>
+        </is>
+      </c>
+      <c r="Z256" t="inlineStr">
+        <is>
+          <t>-36.60214543633355,175.53228048858577</t>
+        </is>
+      </c>
+      <c r="AA256" t="inlineStr">
+        <is>
+          <t>-36.60247593220924,175.53306019784307</t>
+        </is>
+      </c>
+      <c r="AB256" t="inlineStr">
+        <is>
+          <t>-36.60282696335295,175.53383155067584</t>
+        </is>
+      </c>
+      <c r="AC256" t="inlineStr">
+        <is>
+          <t>-36.60302886471836,175.5346626842679</t>
+        </is>
+      </c>
+      <c r="AD256" t="inlineStr">
+        <is>
+          <t>-36.603261149254244,175.53546862601058</t>
+        </is>
+      </c>
+      <c r="AE256" t="inlineStr">
+        <is>
+          <t>-36.603488983229745,175.53630951067342</t>
+        </is>
+      </c>
+      <c r="AF256" t="inlineStr">
+        <is>
+          <t>-36.603503918391574,175.53704516348728</t>
+        </is>
+      </c>
+      <c r="AG256" t="inlineStr">
+        <is>
+          <t>-36.603429994157004,175.53780174506545</t>
+        </is>
+      </c>
+      <c r="AH256" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0139/nzd0139.xlsx
+++ b/data/nzd0139/nzd0139.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH256"/>
+  <dimension ref="A1:AH257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25611,12 +25611,8 @@
       <c r="F255" t="n">
         <v>358.7088888888889</v>
       </c>
-      <c r="G255" t="n">
-        <v>334.5233333333333</v>
-      </c>
-      <c r="H255" t="n">
-        <v>329.04</v>
-      </c>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="n">
         <v>385.19</v>
       </c>
@@ -25722,9 +25718,7 @@
       <c r="G256" t="n">
         <v>351.88</v>
       </c>
-      <c r="H256" t="n">
-        <v>341.65</v>
-      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="n">
         <v>378.88</v>
       </c>
@@ -25803,6 +25797,112 @@
       <c r="AH256" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>373.2</v>
+      </c>
+      <c r="C257" t="n">
+        <v>364.75</v>
+      </c>
+      <c r="D257" t="n">
+        <v>367.3209090909091</v>
+      </c>
+      <c r="E257" t="n">
+        <v>370.6122222222222</v>
+      </c>
+      <c r="F257" t="n">
+        <v>383.8122222222222</v>
+      </c>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="n">
+        <v>385.39</v>
+      </c>
+      <c r="I257" t="n">
+        <v>381.75</v>
+      </c>
+      <c r="J257" t="n">
+        <v>373.59</v>
+      </c>
+      <c r="K257" t="n">
+        <v>386.1266666666667</v>
+      </c>
+      <c r="L257" t="n">
+        <v>383.6869230769231</v>
+      </c>
+      <c r="M257" t="n">
+        <v>376.4571428571429</v>
+      </c>
+      <c r="N257" t="n">
+        <v>373.5571428571428</v>
+      </c>
+      <c r="O257" t="n">
+        <v>370.7769230769231</v>
+      </c>
+      <c r="P257" t="n">
+        <v>370.5369230769231</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>369.0269230769231</v>
+      </c>
+      <c r="R257" t="n">
+        <v>366.4233333333333</v>
+      </c>
+      <c r="S257" t="n">
+        <v>373.1271428571428</v>
+      </c>
+      <c r="T257" t="n">
+        <v>381.1971428571428</v>
+      </c>
+      <c r="U257" t="n">
+        <v>370.5633333333333</v>
+      </c>
+      <c r="V257" t="n">
+        <v>375.1771428571428</v>
+      </c>
+      <c r="W257" t="n">
+        <v>372.7369230769231</v>
+      </c>
+      <c r="X257" t="n">
+        <v>372.7771428571429</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>371.3569230769231</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>372.4369230769231</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>373.9971428571428</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>380.5871428571429</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>377.8869230769231</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>380.6269230769231</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>380.0671428571428</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>391.5622222222222</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>366.04</v>
+      </c>
+      <c r="AH257" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -25817,7 +25917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B262"/>
+  <dimension ref="A1:B263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28445,6 +28545,16 @@
       </c>
       <c r="B262" t="n">
         <v>0.36</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -28618,28 +28728,28 @@
         <v>0.0462</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2339855475240811</v>
+        <v>-0.2370863961829411</v>
       </c>
       <c r="J2" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K2" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02262623860512958</v>
+        <v>0.02346358079855571</v>
       </c>
       <c r="M2" t="n">
-        <v>8.696865365368595</v>
+        <v>8.66867029341925</v>
       </c>
       <c r="N2" t="n">
-        <v>127.631100110216</v>
+        <v>127.0055810207057</v>
       </c>
       <c r="O2" t="n">
-        <v>11.29739350957627</v>
+        <v>11.26967528461693</v>
       </c>
       <c r="P2" t="n">
-        <v>382.2457634551033</v>
+        <v>382.2771226343891</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28696,28 +28806,28 @@
         <v>0.0568</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3089672899091466</v>
+        <v>-0.3116909949318009</v>
       </c>
       <c r="J3" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K3" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04683791779487612</v>
+        <v>0.04807629359797638</v>
       </c>
       <c r="M3" t="n">
-        <v>8.264853322399288</v>
+        <v>8.238123969254699</v>
       </c>
       <c r="N3" t="n">
-        <v>104.3256942816149</v>
+        <v>103.8557866680148</v>
       </c>
       <c r="O3" t="n">
-        <v>10.21399502063785</v>
+        <v>10.19096593400325</v>
       </c>
       <c r="P3" t="n">
-        <v>375.5978082447153</v>
+        <v>375.6256046645222</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28774,28 +28884,28 @@
         <v>0.0622</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3994408138898359</v>
+        <v>-0.392734344146984</v>
       </c>
       <c r="J4" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K4" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0624054418730855</v>
+        <v>0.06104169919421842</v>
       </c>
       <c r="M4" t="n">
-        <v>9.15936420788881</v>
+        <v>9.143689690761217</v>
       </c>
       <c r="N4" t="n">
-        <v>128.177672296148</v>
+        <v>127.6794296131761</v>
       </c>
       <c r="O4" t="n">
-        <v>11.32155785641481</v>
+        <v>11.29953227408888</v>
       </c>
       <c r="P4" t="n">
-        <v>371.5262885588825</v>
+        <v>371.4583820480929</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28852,28 +28962,28 @@
         <v>0.0468</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6202006730306147</v>
+        <v>-0.618034609525597</v>
       </c>
       <c r="J5" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K5" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08716131794300597</v>
+        <v>0.08748463309966814</v>
       </c>
       <c r="M5" t="n">
-        <v>11.93589306078615</v>
+        <v>11.88237303262542</v>
       </c>
       <c r="N5" t="n">
-        <v>211.9670529831233</v>
+        <v>210.8676635018695</v>
       </c>
       <c r="O5" t="n">
-        <v>14.55908832939492</v>
+        <v>14.52128312174477</v>
       </c>
       <c r="P5" t="n">
-        <v>384.6066635145901</v>
+        <v>384.5842570666305</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28930,28 +29040,28 @@
         <v>0.0513</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6661094948741973</v>
+        <v>-0.6486797729484949</v>
       </c>
       <c r="J6" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K6" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07262247955558065</v>
+        <v>0.06956163196285825</v>
       </c>
       <c r="M6" t="n">
-        <v>14.24693398245514</v>
+        <v>14.26359330160207</v>
       </c>
       <c r="N6" t="n">
-        <v>301.6908686010461</v>
+        <v>301.5315770656083</v>
       </c>
       <c r="O6" t="n">
-        <v>17.36925066319921</v>
+        <v>17.36466461137699</v>
       </c>
       <c r="P6" t="n">
-        <v>384.4494128488388</v>
+        <v>384.2723032897499</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29008,28 +29118,28 @@
         <v>0.0335</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.8437514098191403</v>
+        <v>-0.8067110486485067</v>
       </c>
       <c r="J7" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K7" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05504641682889655</v>
+        <v>0.05036675637215238</v>
       </c>
       <c r="M7" t="n">
-        <v>20.90786066058561</v>
+        <v>20.80591827414267</v>
       </c>
       <c r="N7" t="n">
-        <v>660.0970262136332</v>
+        <v>658.1586002317966</v>
       </c>
       <c r="O7" t="n">
-        <v>25.69235345805505</v>
+        <v>25.65460193087776</v>
       </c>
       <c r="P7" t="n">
-        <v>387.4355736032358</v>
+        <v>387.0681263688854</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29086,28 +29196,28 @@
         <v>0.0222</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06610077874189432</v>
+        <v>0.169980009569756</v>
       </c>
       <c r="J8" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K8" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003888884698792783</v>
+        <v>0.002609316472339085</v>
       </c>
       <c r="M8" t="n">
-        <v>19.32999385060276</v>
+        <v>19.06299607290811</v>
       </c>
       <c r="N8" t="n">
-        <v>576.0568319817684</v>
+        <v>563.0151168873053</v>
       </c>
       <c r="O8" t="n">
-        <v>24.0011839704163</v>
+        <v>23.72793958369132</v>
       </c>
       <c r="P8" t="n">
-        <v>370.7572154688428</v>
+        <v>369.667218430631</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29164,28 +29274,28 @@
         <v>0.0276</v>
       </c>
       <c r="I9" t="n">
-        <v>0.687974892530494</v>
+        <v>0.6807214637943961</v>
       </c>
       <c r="J9" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K9" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06280104714094314</v>
+        <v>0.06221486327828485</v>
       </c>
       <c r="M9" t="n">
-        <v>15.67990492868348</v>
+        <v>15.63046668609869</v>
       </c>
       <c r="N9" t="n">
-        <v>382.4844645748798</v>
+        <v>380.7017417914521</v>
       </c>
       <c r="O9" t="n">
-        <v>19.55721004066991</v>
+        <v>19.51157968467577</v>
       </c>
       <c r="P9" t="n">
-        <v>370.7460668645896</v>
+        <v>370.8182153368972</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29242,28 +29352,28 @@
         <v>0.0422</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4813509907966774</v>
+        <v>0.468988184735202</v>
       </c>
       <c r="J10" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K10" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06328070801556607</v>
+        <v>0.06072156887959546</v>
       </c>
       <c r="M10" t="n">
-        <v>10.6169166958976</v>
+        <v>10.62292366533649</v>
       </c>
       <c r="N10" t="n">
-        <v>183.8483600703425</v>
+        <v>183.5994852934439</v>
       </c>
       <c r="O10" t="n">
-        <v>13.55906929218752</v>
+        <v>13.54988875575899</v>
       </c>
       <c r="P10" t="n">
-        <v>372.8599091018501</v>
+        <v>372.9827189566631</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29320,28 +29430,28 @@
         <v>0.0646</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4296839887663776</v>
+        <v>0.4314756134091122</v>
       </c>
       <c r="J11" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K11" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0823792773926959</v>
+        <v>0.08388004523759218</v>
       </c>
       <c r="M11" t="n">
-        <v>8.287767014174126</v>
+        <v>8.255501863623895</v>
       </c>
       <c r="N11" t="n">
-        <v>105.4093524644148</v>
+        <v>104.9069518861248</v>
       </c>
       <c r="O11" t="n">
-        <v>10.26690569083084</v>
+        <v>10.24240947658923</v>
       </c>
       <c r="P11" t="n">
-        <v>373.2797483729788</v>
+        <v>373.2614204698324</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29398,28 +29508,28 @@
         <v>0.068</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4324883174431086</v>
+        <v>0.4337534457803925</v>
       </c>
       <c r="J12" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K12" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0871491501691084</v>
+        <v>0.08850281258079951</v>
       </c>
       <c r="M12" t="n">
-        <v>8.330007873987737</v>
+        <v>8.295740743851018</v>
       </c>
       <c r="N12" t="n">
-        <v>99.74613986334984</v>
+        <v>99.27621296559744</v>
       </c>
       <c r="O12" t="n">
-        <v>9.987298927305112</v>
+        <v>9.963744926763102</v>
       </c>
       <c r="P12" t="n">
-        <v>371.2427843691345</v>
+        <v>371.2297392420965</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29476,28 +29586,28 @@
         <v>0.0769</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2818743596190288</v>
+        <v>0.2752544960730852</v>
       </c>
       <c r="J13" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K13" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04676490209818929</v>
+        <v>0.04503540166326447</v>
       </c>
       <c r="M13" t="n">
-        <v>7.566079028053964</v>
+        <v>7.564521554407943</v>
       </c>
       <c r="N13" t="n">
-        <v>82.19860490575608</v>
+        <v>82.02450677106488</v>
       </c>
       <c r="O13" t="n">
-        <v>9.066344627563861</v>
+        <v>9.056738197114063</v>
       </c>
       <c r="P13" t="n">
-        <v>375.9149324839075</v>
+        <v>375.9838703365417</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29554,28 +29664,28 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1755535853221214</v>
+        <v>0.1676832158069788</v>
       </c>
       <c r="J14" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K14" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01924647968987125</v>
+        <v>0.01769129870233055</v>
       </c>
       <c r="M14" t="n">
-        <v>7.164813615929219</v>
+        <v>7.170055880622749</v>
       </c>
       <c r="N14" t="n">
-        <v>80.18887320083867</v>
+        <v>80.14250216347867</v>
       </c>
       <c r="O14" t="n">
-        <v>8.954824018418154</v>
+        <v>8.952234478803527</v>
       </c>
       <c r="P14" t="n">
-        <v>377.4415938658928</v>
+        <v>377.5242501621833</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29632,28 +29742,28 @@
         <v>0.0688</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2969528953493495</v>
+        <v>0.2874784638644742</v>
       </c>
       <c r="J15" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K15" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0589184359179965</v>
+        <v>0.05553448213689283</v>
       </c>
       <c r="M15" t="n">
-        <v>6.862803281515711</v>
+        <v>6.879449202357899</v>
       </c>
       <c r="N15" t="n">
-        <v>74.59785362664951</v>
+        <v>74.79246077330777</v>
       </c>
       <c r="O15" t="n">
-        <v>8.63700489907523</v>
+        <v>8.648263454203263</v>
       </c>
       <c r="P15" t="n">
-        <v>374.0702524915779</v>
+        <v>374.168195934557</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29710,28 +29820,28 @@
         <v>0.0687</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1952539713179643</v>
+        <v>0.1872255884675841</v>
       </c>
       <c r="J16" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K16" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02774519717239243</v>
+        <v>0.02566484081875198</v>
       </c>
       <c r="M16" t="n">
-        <v>6.819739319327833</v>
+        <v>6.833914005854146</v>
       </c>
       <c r="N16" t="n">
-        <v>70.1849554512266</v>
+        <v>70.25186953593867</v>
       </c>
       <c r="O16" t="n">
-        <v>8.377646176058439</v>
+        <v>8.381638833541963</v>
       </c>
       <c r="P16" t="n">
-        <v>374.8025325743919</v>
+        <v>374.8855101051095</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29788,28 +29898,28 @@
         <v>0.0702</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2309074763132584</v>
+        <v>0.2225601527836938</v>
       </c>
       <c r="J17" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K17" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0386921470394922</v>
+        <v>0.03617013099954192</v>
       </c>
       <c r="M17" t="n">
-        <v>6.846410206888798</v>
+        <v>6.859984220317202</v>
       </c>
       <c r="N17" t="n">
-        <v>70.66365160450933</v>
+        <v>70.76064409160024</v>
       </c>
       <c r="O17" t="n">
-        <v>8.40616747421257</v>
+        <v>8.411934622404067</v>
       </c>
       <c r="P17" t="n">
-        <v>372.7720493958168</v>
+        <v>372.8569099932793</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29866,28 +29976,28 @@
         <v>0.0801</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1834085126941193</v>
+        <v>0.1729030220868681</v>
       </c>
       <c r="J18" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K18" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0265594024455531</v>
+        <v>0.02364509821427307</v>
       </c>
       <c r="M18" t="n">
-        <v>6.44608786928177</v>
+        <v>6.467443372416654</v>
       </c>
       <c r="N18" t="n">
-        <v>65.0404749245571</v>
+        <v>65.42365280214659</v>
       </c>
       <c r="O18" t="n">
-        <v>8.064767505920868</v>
+        <v>8.088488907215401</v>
       </c>
       <c r="P18" t="n">
-        <v>374.2411206861522</v>
+        <v>374.3497596349628</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29944,28 +30054,28 @@
         <v>0.0769</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1422348046640661</v>
+        <v>0.1359065332017884</v>
       </c>
       <c r="J19" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K19" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01669929531694991</v>
+        <v>0.01533841601352026</v>
       </c>
       <c r="M19" t="n">
-        <v>6.537046559121857</v>
+        <v>6.542365307155726</v>
       </c>
       <c r="N19" t="n">
-        <v>62.96028222381557</v>
+        <v>62.94501954077097</v>
       </c>
       <c r="O19" t="n">
-        <v>7.934751554006941</v>
+        <v>7.933789733839117</v>
       </c>
       <c r="P19" t="n">
-        <v>377.1944994463888</v>
+        <v>377.2602052350119</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30022,28 +30132,28 @@
         <v>0.073</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1030640522282789</v>
+        <v>0.1031936539005975</v>
       </c>
       <c r="J20" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K20" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L20" t="n">
-        <v>0.008785267691800547</v>
+        <v>0.008883623883084724</v>
       </c>
       <c r="M20" t="n">
-        <v>6.296827389545459</v>
+        <v>6.271288706817521</v>
       </c>
       <c r="N20" t="n">
-        <v>63.03411353688581</v>
+        <v>62.77157271614295</v>
       </c>
       <c r="O20" t="n">
-        <v>7.939402593198421</v>
+        <v>7.922851299635943</v>
       </c>
       <c r="P20" t="n">
-        <v>378.3719591201207</v>
+        <v>378.3706148648009</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30100,28 +30210,28 @@
         <v>0.07829999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1618831730645977</v>
+        <v>0.1545150822197759</v>
       </c>
       <c r="J21" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K21" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01900790603566793</v>
+        <v>0.01741734896955172</v>
       </c>
       <c r="M21" t="n">
-        <v>6.595524191763928</v>
+        <v>6.603417988177326</v>
       </c>
       <c r="N21" t="n">
-        <v>71.20120098409974</v>
+        <v>71.23109883652371</v>
       </c>
       <c r="O21" t="n">
-        <v>8.438080408724471</v>
+        <v>8.439851825507585</v>
       </c>
       <c r="P21" t="n">
-        <v>375.2827963573694</v>
+        <v>375.3590904013552</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30178,28 +30288,28 @@
         <v>0.0745</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2271886023919434</v>
+        <v>0.2231626352400593</v>
       </c>
       <c r="J22" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K22" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03531371818576978</v>
+        <v>0.03436151935404519</v>
       </c>
       <c r="M22" t="n">
-        <v>6.998436981095257</v>
+        <v>6.990349600360687</v>
       </c>
       <c r="N22" t="n">
-        <v>73.94537060395406</v>
+        <v>73.73564052670204</v>
       </c>
       <c r="O22" t="n">
-        <v>8.599149411654274</v>
+        <v>8.586945937101389</v>
       </c>
       <c r="P22" t="n">
-        <v>374.1641658311821</v>
+        <v>374.2059222109894</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30256,28 +30366,28 @@
         <v>0.0677</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2011085012534707</v>
+        <v>0.1931677176178328</v>
       </c>
       <c r="J23" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K23" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02824783788268004</v>
+        <v>0.02621818855088665</v>
       </c>
       <c r="M23" t="n">
-        <v>6.984165982357861</v>
+        <v>6.99235047027603</v>
       </c>
       <c r="N23" t="n">
-        <v>73.10152483014193</v>
+        <v>73.16345526146119</v>
       </c>
       <c r="O23" t="n">
-        <v>8.549942972332735</v>
+        <v>8.553563892405387</v>
       </c>
       <c r="P23" t="n">
-        <v>376.964764865261</v>
+        <v>377.0467281664464</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30334,28 +30444,28 @@
         <v>0.0759</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1741084629022562</v>
+        <v>0.1668865188248504</v>
       </c>
       <c r="J24" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K24" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01949748220684566</v>
+        <v>0.01803030124258453</v>
       </c>
       <c r="M24" t="n">
-        <v>7.20151276041538</v>
+        <v>7.209989261107212</v>
       </c>
       <c r="N24" t="n">
-        <v>80.23160300124817</v>
+        <v>80.20406316131226</v>
       </c>
       <c r="O24" t="n">
-        <v>8.957209554389591</v>
+        <v>8.955672122253709</v>
       </c>
       <c r="P24" t="n">
-        <v>376.9094853845703</v>
+        <v>376.9841840461822</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -30412,28 +30522,28 @@
         <v>0.0682</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1801765868405644</v>
+        <v>0.1716514031009945</v>
       </c>
       <c r="J25" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K25" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0202267677130884</v>
+        <v>0.01846615171817945</v>
       </c>
       <c r="M25" t="n">
-        <v>7.168653699828567</v>
+        <v>7.180038204800057</v>
       </c>
       <c r="N25" t="n">
-        <v>83.03300841374073</v>
+        <v>83.10244737896208</v>
       </c>
       <c r="O25" t="n">
-        <v>9.11224497112214</v>
+        <v>9.11605437560363</v>
       </c>
       <c r="P25" t="n">
-        <v>376.7336988683731</v>
+        <v>376.821016380686</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -30490,28 +30600,28 @@
         <v>0.0711</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1468960451205269</v>
+        <v>0.1366945612598997</v>
       </c>
       <c r="J26" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K26" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01450319831644653</v>
+        <v>0.01259583589907609</v>
       </c>
       <c r="M26" t="n">
-        <v>6.846802069226007</v>
+        <v>6.872533170407495</v>
       </c>
       <c r="N26" t="n">
-        <v>77.50392228195554</v>
+        <v>77.79443323677798</v>
       </c>
       <c r="O26" t="n">
-        <v>8.803631198656355</v>
+        <v>8.820115262102757</v>
       </c>
       <c r="P26" t="n">
-        <v>380.8355521280366</v>
+        <v>380.9403425393165</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30568,28 +30678,28 @@
         <v>0.0728</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1176618797463262</v>
+        <v>0.1091051718721589</v>
       </c>
       <c r="J27" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K27" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L27" t="n">
-        <v>0.009042901581661988</v>
+        <v>0.007811952529009569</v>
       </c>
       <c r="M27" t="n">
-        <v>7.029569551806476</v>
+        <v>7.045638555821592</v>
       </c>
       <c r="N27" t="n">
-        <v>80.09002972994753</v>
+        <v>80.191612338871</v>
       </c>
       <c r="O27" t="n">
-        <v>8.949303309752526</v>
+        <v>8.954976959147968</v>
       </c>
       <c r="P27" t="n">
-        <v>381.2389782997519</v>
+        <v>381.3270436225122</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30646,28 +30756,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1528100673992235</v>
+        <v>0.1475543767436134</v>
       </c>
       <c r="J28" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K28" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01484159571983323</v>
+        <v>0.01394404609173816</v>
       </c>
       <c r="M28" t="n">
-        <v>7.102888984710396</v>
+        <v>7.098909364939573</v>
       </c>
       <c r="N28" t="n">
-        <v>81.85746764030053</v>
+        <v>81.68027739547887</v>
       </c>
       <c r="O28" t="n">
-        <v>9.047511682241726</v>
+        <v>9.037714168719813</v>
       </c>
       <c r="P28" t="n">
-        <v>382.9716782095008</v>
+        <v>383.0260969183951</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -30724,28 +30834,28 @@
         <v>0.0707</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2043998497901147</v>
+        <v>0.1925749399991399</v>
       </c>
       <c r="J29" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K29" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02860010956739478</v>
+        <v>0.02541000380483882</v>
       </c>
       <c r="M29" t="n">
-        <v>6.793180135035104</v>
+        <v>6.821097628054702</v>
       </c>
       <c r="N29" t="n">
-        <v>75.74647956878187</v>
+        <v>76.27419852829244</v>
       </c>
       <c r="O29" t="n">
-        <v>8.703245346925586</v>
+        <v>8.733510092070224</v>
       </c>
       <c r="P29" t="n">
-        <v>386.8588301498838</v>
+        <v>386.9801949626855</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -30802,28 +30912,28 @@
         <v>0.0677</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2276946360352023</v>
+        <v>0.2192960021995006</v>
       </c>
       <c r="J30" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K30" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03851872623854735</v>
+        <v>0.03592814885661777</v>
       </c>
       <c r="M30" t="n">
-        <v>6.727678823639847</v>
+        <v>6.742490431482032</v>
       </c>
       <c r="N30" t="n">
-        <v>69.56237870915653</v>
+        <v>69.68880699219631</v>
       </c>
       <c r="O30" t="n">
-        <v>8.340406387530319</v>
+        <v>8.347982210821744</v>
       </c>
       <c r="P30" t="n">
-        <v>384.7554487061518</v>
+        <v>384.8411172435369</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -30880,28 +30990,28 @@
         <v>0.0747</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2016543799683618</v>
+        <v>0.1947698915400965</v>
       </c>
       <c r="J31" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K31" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03468269026567705</v>
+        <v>0.03256905353147665</v>
       </c>
       <c r="M31" t="n">
-        <v>6.176581740270738</v>
+        <v>6.183172977779432</v>
       </c>
       <c r="N31" t="n">
-        <v>61.14164913718465</v>
+        <v>61.16118621838365</v>
       </c>
       <c r="O31" t="n">
-        <v>7.819312574464884</v>
+        <v>7.820561758491755</v>
       </c>
       <c r="P31" t="n">
-        <v>383.0047956475684</v>
+        <v>383.0747080657811</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -30958,28 +31068,28 @@
         <v>0.0506</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2237580817776722</v>
+        <v>0.2159025326567286</v>
       </c>
       <c r="J32" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K32" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03179999228432817</v>
+        <v>0.02979940983704255</v>
       </c>
       <c r="M32" t="n">
-        <v>7.098075402581735</v>
+        <v>7.108776494862823</v>
       </c>
       <c r="N32" t="n">
-        <v>83.22702007016386</v>
+        <v>83.24582107325388</v>
       </c>
       <c r="O32" t="n">
-        <v>9.122884416135275</v>
+        <v>9.123914788798386</v>
       </c>
       <c r="P32" t="n">
-        <v>395.1914966255243</v>
+        <v>395.2707264175031</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -31036,28 +31146,28 @@
         <v>0.0216</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1484533836098176</v>
+        <v>0.1352029614086071</v>
       </c>
       <c r="J33" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K33" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L33" t="n">
-        <v>0.00554233110139446</v>
+        <v>0.004622066730499585</v>
       </c>
       <c r="M33" t="n">
-        <v>11.26015949425797</v>
+        <v>11.28439931756438</v>
       </c>
       <c r="N33" t="n">
-        <v>214.2097088575026</v>
+        <v>214.3031824393395</v>
       </c>
       <c r="O33" t="n">
-        <v>14.63590478438223</v>
+        <v>14.63909773310294</v>
       </c>
       <c r="P33" t="n">
-        <v>377.6545464263306</v>
+        <v>377.7881661482407</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -31095,7 +31205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH256"/>
+  <dimension ref="A1:AH257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41075,7 +41185,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>-36.598415395391044,175.52692259701604</t>
+          <t>-36.59841539539105,175.52692259701604</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -44198,7 +44308,7 @@
       </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>-36.603143793091036,175.53460865259876</t>
+          <t>-36.60314379309104,175.53460865259876</t>
         </is>
       </c>
       <c r="AD84" t="inlineStr">
@@ -44444,7 +44554,7 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>-36.5990654684165,175.52737125179664</t>
+          <t>-36.59906546841649,175.52737125179664</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
@@ -44914,7 +45024,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>-36.59575121519134,175.523951548974</t>
+          <t>-36.595751215191335,175.523951548974</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -49794,7 +49904,7 @@
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>-36.601770188234525,175.53152763020344</t>
+          <t>-36.60177018823453,175.53152763020344</t>
         </is>
       </c>
       <c r="Z120" t="inlineStr">
@@ -50889,7 +50999,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>-36.5923548398938,175.52290322033673</t>
+          <t>-36.592354839893794,175.52290322033673</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -57228,7 +57338,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>-36.59165938155224,175.52277731462576</t>
+          <t>-36.59165938155223,175.52277731462576</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -62285,7 +62395,7 @@
       </c>
       <c r="T201" t="inlineStr">
         <is>
-          <t>-36.59951754523143,175.5280687060718</t>
+          <t>-36.599517545231436,175.5280687060718</t>
         </is>
       </c>
       <c r="U201" t="inlineStr">
@@ -67345,7 +67455,7 @@
       </c>
       <c r="AF237" t="inlineStr">
         <is>
-          <t>-36.60355007491956,175.5370510265149</t>
+          <t>-36.60355007491955,175.5370510265149</t>
         </is>
       </c>
       <c r="AG237" t="inlineStr">
@@ -67993,7 +68103,7 @@
       </c>
       <c r="X241" t="inlineStr">
         <is>
-          <t>-36.60132054571553,175.53083050749666</t>
+          <t>-36.60132054571554,175.53083050749666</t>
         </is>
       </c>
       <c r="Y241" t="inlineStr">
@@ -70138,16 +70248,8 @@
           <t>-36.59094176290989,175.5227100179751</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>-36.591634034584075,175.52226397020527</t>
-        </is>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>-36.59238510764132,175.52223649156286</t>
-        </is>
-      </c>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
           <t>-36.593052503179734,175.52289381165463</t>
@@ -70307,7 +70409,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>-36.59094214695737,175.5227123280027</t>
+          <t>-36.590942146957374,175.5227123280027</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -70315,11 +70417,7 @@
           <t>-36.59164359180889,175.52245752444597</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>-36.59237872220015,175.5223771549982</t>
-        </is>
-      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
           <t>-36.59306209407343,175.52282432265105</t>
@@ -70448,6 +70546,174 @@
       <c r="AH256" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>-36.588756022124485,175.52481990255572</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>-36.589114420047835,175.5240401109973</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>-36.5896875852065,175.52352080879888</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>-36.5902816273553,175.5230541355429</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>-36.59098742987645,175.52298470471865</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>-36.592356571894555,175.52286507057582</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>-36.5930577318177,175.52285592858695</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>-36.59375064302198,175.52299643146853</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>-36.59438421073043,175.52339895701834</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>-36.59503438430181,175.52373464034463</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>-36.59569714367134,175.5240645816235</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>-36.596310805777286,175.5245112835538</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>-36.59690027696798,175.52501408337193</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>-36.59744234807278,175.52559359953105</t>
+        </is>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>-36.5979751151352,175.52619453871188</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>-36.59852735162773,175.5267749394341</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>-36.59901464693433,175.5274345907277</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>-36.59946512519081,175.52812867469666</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>-36.600021696019326,175.5287086305224</t>
+        </is>
+      </c>
+      <c r="V257" t="inlineStr">
+        <is>
+          <t>-36.6004779060883,175.52940504273957</t>
+        </is>
+      </c>
+      <c r="W257" t="inlineStr">
+        <is>
+          <t>-36.60097884005722,175.53004483985518</t>
+        </is>
+      </c>
+      <c r="X257" t="inlineStr">
+        <is>
+          <t>-36.60141645966452,175.5307454030881</t>
+        </is>
+      </c>
+      <c r="Y257" t="inlineStr">
+        <is>
+          <t>-36.601840741376144,175.5314681762108</t>
+        </is>
+      </c>
+      <c r="Z257" t="inlineStr">
+        <is>
+          <t>-36.60224504548124,175.53220447256186</t>
+        </is>
+      </c>
+      <c r="AA257" t="inlineStr">
+        <is>
+          <t>-36.60258985247095,175.53298377822355</t>
+        </is>
+      </c>
+      <c r="AB257" t="inlineStr">
+        <is>
+          <t>-36.60288117137308,175.53379847141747</t>
+        </is>
+      </c>
+      <c r="AC257" t="inlineStr">
+        <is>
+          <t>-36.60320848605897,175.5345782382014</t>
+        </is>
+      </c>
+      <c r="AD257" t="inlineStr">
+        <is>
+          <t>-36.60340123589327,175.53542147213147</t>
+        </is>
+      </c>
+      <c r="AE257" t="inlineStr">
+        <is>
+          <t>-36.60358439762996,175.53628186840197</t>
+        </is>
+      </c>
+      <c r="AF257" t="inlineStr">
+        <is>
+          <t>-36.60365124086422,175.53706387713774</t>
+        </is>
+      </c>
+      <c r="AG257" t="inlineStr">
+        <is>
+          <t>-36.603601265367786,175.5378982419324</t>
+        </is>
+      </c>
+      <c r="AH257" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0139/nzd0139.xlsx
+++ b/data/nzd0139/nzd0139.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH257"/>
+  <dimension ref="A1:AH260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25906,6 +25906,326 @@
         </is>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>374.7</v>
+      </c>
+      <c r="C258" t="n">
+        <v>367.85</v>
+      </c>
+      <c r="D258" t="n">
+        <v>362.8318181818182</v>
+      </c>
+      <c r="E258" t="n">
+        <v>366.7733333333333</v>
+      </c>
+      <c r="F258" t="n">
+        <v>355.3533333333333</v>
+      </c>
+      <c r="G258" t="n">
+        <v>352.44</v>
+      </c>
+      <c r="H258" t="n">
+        <v>374.77</v>
+      </c>
+      <c r="I258" t="n">
+        <v>373.61</v>
+      </c>
+      <c r="J258" t="n">
+        <v>382.43</v>
+      </c>
+      <c r="K258" t="n">
+        <v>386.94</v>
+      </c>
+      <c r="L258" t="n">
+        <v>382.6792307692308</v>
+      </c>
+      <c r="M258" t="n">
+        <v>385.56</v>
+      </c>
+      <c r="N258" t="n">
+        <v>381.13</v>
+      </c>
+      <c r="O258" t="n">
+        <v>377.9092307692308</v>
+      </c>
+      <c r="P258" t="n">
+        <v>377.0092307692308</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>368.7392307692308</v>
+      </c>
+      <c r="R258" t="n">
+        <v>371.18</v>
+      </c>
+      <c r="S258" t="n">
+        <v>372.94</v>
+      </c>
+      <c r="T258" t="n">
+        <v>378.69</v>
+      </c>
+      <c r="U258" t="n">
+        <v>382.23</v>
+      </c>
+      <c r="V258" t="n">
+        <v>374.01</v>
+      </c>
+      <c r="W258" t="n">
+        <v>379.8892307692308</v>
+      </c>
+      <c r="X258" t="n">
+        <v>379.21</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>381.2492307692308</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>377.6692307692308</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>379.12</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>378.45</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>390.4892307692308</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>385.2592307692308</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>384.22</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>394.7633333333333</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>379.61</v>
+      </c>
+      <c r="AH258" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>375.92</v>
+      </c>
+      <c r="C259" t="n">
+        <v>374.39</v>
+      </c>
+      <c r="D259" t="n">
+        <v>361.0454545454546</v>
+      </c>
+      <c r="E259" t="n">
+        <v>368.9355555555555</v>
+      </c>
+      <c r="F259" t="n">
+        <v>355.0255555555556</v>
+      </c>
+      <c r="G259" t="n">
+        <v>346.5833333333333</v>
+      </c>
+      <c r="H259" t="n">
+        <v>336.22</v>
+      </c>
+      <c r="I259" t="n">
+        <v>375.47</v>
+      </c>
+      <c r="J259" t="n">
+        <v>378.88</v>
+      </c>
+      <c r="K259" t="n">
+        <v>378.8766666666667</v>
+      </c>
+      <c r="L259" t="n">
+        <v>378.3561538461539</v>
+      </c>
+      <c r="M259" t="n">
+        <v>381.2414285714286</v>
+      </c>
+      <c r="N259" t="n">
+        <v>377.2214285714285</v>
+      </c>
+      <c r="O259" t="n">
+        <v>381.0961538461539</v>
+      </c>
+      <c r="P259" t="n">
+        <v>377.3761538461538</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>371.9461538461539</v>
+      </c>
+      <c r="R259" t="n">
+        <v>372.9633333333333</v>
+      </c>
+      <c r="S259" t="n">
+        <v>377.5814285714285</v>
+      </c>
+      <c r="T259" t="n">
+        <v>379.2814285714285</v>
+      </c>
+      <c r="U259" t="n">
+        <v>378.1833333333333</v>
+      </c>
+      <c r="V259" t="n">
+        <v>381.1714285714286</v>
+      </c>
+      <c r="W259" t="n">
+        <v>382.0361538461539</v>
+      </c>
+      <c r="X259" t="n">
+        <v>381.5914285714285</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>382.1961538461539</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>384.4561538461539</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>380.4014285714285</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>386.1914285714286</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>382.9361538461538</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>387.8561538461539</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>381.6214285714286</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>395.1255555555555</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>376.31</v>
+      </c>
+      <c r="AH259" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>366.35</v>
+      </c>
+      <c r="C260" t="n">
+        <v>369.41</v>
+      </c>
+      <c r="D260" t="n">
+        <v>364.7954545454546</v>
+      </c>
+      <c r="E260" t="n">
+        <v>360.42</v>
+      </c>
+      <c r="F260" t="n">
+        <v>391.16</v>
+      </c>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="n">
+        <v>371.29</v>
+      </c>
+      <c r="J260" t="n">
+        <v>370.92</v>
+      </c>
+      <c r="K260" t="n">
+        <v>378.74</v>
+      </c>
+      <c r="L260" t="n">
+        <v>383.7176923076924</v>
+      </c>
+      <c r="M260" t="n">
+        <v>381.99</v>
+      </c>
+      <c r="N260" t="n">
+        <v>376.05</v>
+      </c>
+      <c r="O260" t="n">
+        <v>372.9476923076923</v>
+      </c>
+      <c r="P260" t="n">
+        <v>371.9876923076923</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>361.4576923076923</v>
+      </c>
+      <c r="R260" t="n">
+        <v>364.08</v>
+      </c>
+      <c r="S260" t="n">
+        <v>367.56</v>
+      </c>
+      <c r="T260" t="n">
+        <v>370.48</v>
+      </c>
+      <c r="U260" t="n">
+        <v>371.24</v>
+      </c>
+      <c r="V260" t="n">
+        <v>370.32</v>
+      </c>
+      <c r="W260" t="n">
+        <v>368.0976923076923</v>
+      </c>
+      <c r="X260" t="n">
+        <v>375.83</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>371.1976923076923</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>371.5676923076923</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>369.85</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>377.28</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>376.2276923076923</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>375.9676923076924</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>373.84</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>382.6</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>363.28</v>
+      </c>
+      <c r="AH260" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25917,7 +26237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B263"/>
+  <dimension ref="A1:B266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28555,6 +28875,36 @@
       </c>
       <c r="B263" t="n">
         <v>-0.71</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -28728,28 +29078,28 @@
         <v>0.0462</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2370863961829411</v>
+        <v>-0.248475026555983</v>
       </c>
       <c r="J2" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K2" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02346358079855571</v>
+        <v>0.02645953670037549</v>
       </c>
       <c r="M2" t="n">
-        <v>8.66867029341925</v>
+        <v>8.596455526095061</v>
       </c>
       <c r="N2" t="n">
-        <v>127.0055810207057</v>
+        <v>125.5229392510547</v>
       </c>
       <c r="O2" t="n">
-        <v>11.26967528461693</v>
+        <v>11.20370203330375</v>
       </c>
       <c r="P2" t="n">
-        <v>382.2771226343891</v>
+        <v>382.3933155794051</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28806,28 +29156,28 @@
         <v>0.0568</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3116909949318009</v>
+        <v>-0.3031907336051588</v>
       </c>
       <c r="J3" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K3" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04807629359797638</v>
+        <v>0.04684648520940937</v>
       </c>
       <c r="M3" t="n">
-        <v>8.238123969254699</v>
+        <v>8.16225430688479</v>
       </c>
       <c r="N3" t="n">
-        <v>103.8557866680148</v>
+        <v>102.5982925448348</v>
       </c>
       <c r="O3" t="n">
-        <v>10.19096593400325</v>
+        <v>10.12908152523391</v>
       </c>
       <c r="P3" t="n">
-        <v>375.6256046645222</v>
+        <v>375.5381342216351</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28884,28 +29234,28 @@
         <v>0.0622</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.392734344146984</v>
+        <v>-0.3874478395990905</v>
       </c>
       <c r="J4" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K4" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06104169919421842</v>
+        <v>0.06147250834304585</v>
       </c>
       <c r="M4" t="n">
-        <v>9.143689690761217</v>
+        <v>9.025490243107246</v>
       </c>
       <c r="N4" t="n">
-        <v>127.6794296131761</v>
+        <v>125.7007620201551</v>
       </c>
       <c r="O4" t="n">
-        <v>11.29953227408888</v>
+        <v>11.21163511804389</v>
       </c>
       <c r="P4" t="n">
-        <v>371.4583820480929</v>
+        <v>371.4044084133434</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28962,28 +29312,28 @@
         <v>0.0468</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.618034609525597</v>
+        <v>-0.6275042078265414</v>
       </c>
       <c r="J5" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K5" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08748463309966814</v>
+        <v>0.09255267935813394</v>
       </c>
       <c r="M5" t="n">
-        <v>11.88237303262542</v>
+        <v>11.7545968362252</v>
       </c>
       <c r="N5" t="n">
-        <v>210.8676635018695</v>
+        <v>207.9189640207953</v>
       </c>
       <c r="O5" t="n">
-        <v>14.52128312174477</v>
+        <v>14.4193954110703</v>
       </c>
       <c r="P5" t="n">
-        <v>384.5842570666305</v>
+        <v>384.6830645228445</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29040,28 +29390,28 @@
         <v>0.0513</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6486797729484949</v>
+        <v>-0.6491698650611791</v>
       </c>
       <c r="J6" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K6" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06956163196285825</v>
+        <v>0.07089561483431295</v>
       </c>
       <c r="M6" t="n">
-        <v>14.26359330160207</v>
+        <v>14.29117396659484</v>
       </c>
       <c r="N6" t="n">
-        <v>301.5315770656083</v>
+        <v>301.3210767842484</v>
       </c>
       <c r="O6" t="n">
-        <v>17.36466461137699</v>
+        <v>17.35860238568326</v>
       </c>
       <c r="P6" t="n">
-        <v>384.2723032897499</v>
+        <v>384.2769460275709</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29118,28 +29468,28 @@
         <v>0.0335</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.8067110486485067</v>
+        <v>-0.8456154876489882</v>
       </c>
       <c r="J7" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K7" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05036675637215238</v>
+        <v>0.05621838216607633</v>
       </c>
       <c r="M7" t="n">
-        <v>20.80591827414267</v>
+        <v>20.79231688984249</v>
       </c>
       <c r="N7" t="n">
-        <v>658.1586002317966</v>
+        <v>653.6916479248222</v>
       </c>
       <c r="O7" t="n">
-        <v>25.65460193087776</v>
+        <v>25.56739423415734</v>
       </c>
       <c r="P7" t="n">
-        <v>387.0681263688854</v>
+        <v>387.4595289684828</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29196,28 +29546,28 @@
         <v>0.0222</v>
       </c>
       <c r="I8" t="n">
-        <v>0.169980009569756</v>
+        <v>0.1261194196421477</v>
       </c>
       <c r="J8" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K8" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002609316472339085</v>
+        <v>0.001453856166541034</v>
       </c>
       <c r="M8" t="n">
-        <v>19.06299607290811</v>
+        <v>19.07207933398353</v>
       </c>
       <c r="N8" t="n">
-        <v>563.0151168873053</v>
+        <v>564.6563930083129</v>
       </c>
       <c r="O8" t="n">
-        <v>23.72793958369132</v>
+        <v>23.76249972137428</v>
       </c>
       <c r="P8" t="n">
-        <v>369.667218430631</v>
+        <v>370.1330061689889</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29274,28 +29624,28 @@
         <v>0.0276</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6807214637943961</v>
+        <v>0.6340915448294995</v>
       </c>
       <c r="J9" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K9" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06221486327828485</v>
+        <v>0.05578038477270808</v>
       </c>
       <c r="M9" t="n">
-        <v>15.63046668609869</v>
+        <v>15.59537011113822</v>
       </c>
       <c r="N9" t="n">
-        <v>380.7017417914521</v>
+        <v>378.1874001677502</v>
       </c>
       <c r="O9" t="n">
-        <v>19.51157968467577</v>
+        <v>19.44704091032233</v>
       </c>
       <c r="P9" t="n">
-        <v>370.8182153368972</v>
+        <v>371.2856966013643</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29352,28 +29702,28 @@
         <v>0.0422</v>
       </c>
       <c r="I10" t="n">
-        <v>0.468988184735202</v>
+        <v>0.4451550288091402</v>
       </c>
       <c r="J10" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K10" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06072156887959546</v>
+        <v>0.05652506331222074</v>
       </c>
       <c r="M10" t="n">
-        <v>10.62292366533649</v>
+        <v>10.57754781722557</v>
       </c>
       <c r="N10" t="n">
-        <v>183.5994852934439</v>
+        <v>182.0455801001212</v>
       </c>
       <c r="O10" t="n">
-        <v>13.54988875575899</v>
+        <v>13.49242676838089</v>
       </c>
       <c r="P10" t="n">
-        <v>372.9827189566631</v>
+        <v>373.2213923260491</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29430,28 +29780,28 @@
         <v>0.0646</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4314756134091122</v>
+        <v>0.4224363027854847</v>
       </c>
       <c r="J11" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K11" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08388004523759218</v>
+        <v>0.08300449177229263</v>
       </c>
       <c r="M11" t="n">
-        <v>8.255501863623895</v>
+        <v>8.202505677655358</v>
       </c>
       <c r="N11" t="n">
-        <v>104.9069518861248</v>
+        <v>103.723591151072</v>
       </c>
       <c r="O11" t="n">
-        <v>10.24240947658923</v>
+        <v>10.18447795181825</v>
       </c>
       <c r="P11" t="n">
-        <v>373.2614204698324</v>
+        <v>373.3546411866329</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29508,28 +29858,28 @@
         <v>0.068</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4337534457803925</v>
+        <v>0.4309515192868563</v>
       </c>
       <c r="J12" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K12" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08850281258079951</v>
+        <v>0.09006547190142911</v>
       </c>
       <c r="M12" t="n">
-        <v>8.295740743851018</v>
+        <v>8.205349710740416</v>
       </c>
       <c r="N12" t="n">
-        <v>99.27621296559744</v>
+        <v>97.95975163831677</v>
       </c>
       <c r="O12" t="n">
-        <v>9.963744926763102</v>
+        <v>9.897461878598815</v>
       </c>
       <c r="P12" t="n">
-        <v>371.2297392420965</v>
+        <v>371.2588309702379</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29586,28 +29936,28 @@
         <v>0.0769</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2752544960730852</v>
+        <v>0.2745973684329664</v>
       </c>
       <c r="J13" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K13" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04503540166326447</v>
+        <v>0.04617416092975546</v>
       </c>
       <c r="M13" t="n">
-        <v>7.564521554407943</v>
+        <v>7.485450548053137</v>
       </c>
       <c r="N13" t="n">
-        <v>82.02450677106488</v>
+        <v>80.94049719224466</v>
       </c>
       <c r="O13" t="n">
-        <v>9.056738197114063</v>
+        <v>8.996693681138902</v>
       </c>
       <c r="P13" t="n">
-        <v>375.9838703365417</v>
+        <v>375.9907976697602</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29664,28 +30014,28 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1676832158069788</v>
+        <v>0.1574152837523919</v>
       </c>
       <c r="J14" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K14" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01769129870233055</v>
+        <v>0.016035407155225</v>
       </c>
       <c r="M14" t="n">
-        <v>7.170055880622749</v>
+        <v>7.122330988122808</v>
       </c>
       <c r="N14" t="n">
-        <v>80.14250216347867</v>
+        <v>79.30647818478948</v>
       </c>
       <c r="O14" t="n">
-        <v>8.952234478803527</v>
+        <v>8.905418473311038</v>
       </c>
       <c r="P14" t="n">
-        <v>377.5242501621833</v>
+        <v>377.6329583618481</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29742,28 +30092,28 @@
         <v>0.0688</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2874784638644742</v>
+        <v>0.2764910968565508</v>
       </c>
       <c r="J15" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K15" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05553448213689283</v>
+        <v>0.05267813059412962</v>
       </c>
       <c r="M15" t="n">
-        <v>6.879449202357899</v>
+        <v>6.842851977384751</v>
       </c>
       <c r="N15" t="n">
-        <v>74.79246077330777</v>
+        <v>74.20269876773689</v>
       </c>
       <c r="O15" t="n">
-        <v>8.648263454203263</v>
+        <v>8.614098836659403</v>
       </c>
       <c r="P15" t="n">
-        <v>374.168195934557</v>
+        <v>374.2827440239314</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29820,28 +30170,28 @@
         <v>0.0687</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1872255884675841</v>
+        <v>0.1763471949551074</v>
       </c>
       <c r="J16" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K16" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02566484081875198</v>
+        <v>0.02335519375035877</v>
       </c>
       <c r="M16" t="n">
-        <v>6.833914005854146</v>
+        <v>6.805915131801653</v>
       </c>
       <c r="N16" t="n">
-        <v>70.25186953593867</v>
+        <v>69.65988451737176</v>
       </c>
       <c r="O16" t="n">
-        <v>8.381638833541963</v>
+        <v>8.346249727714344</v>
       </c>
       <c r="P16" t="n">
-        <v>374.8855101051095</v>
+        <v>374.9988776521334</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29898,28 +30248,28 @@
         <v>0.0702</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2225601527836938</v>
+        <v>0.1942033304045775</v>
       </c>
       <c r="J17" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K17" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03617013099954192</v>
+        <v>0.02784426698081743</v>
       </c>
       <c r="M17" t="n">
-        <v>6.859984220317202</v>
+        <v>6.919697184685075</v>
       </c>
       <c r="N17" t="n">
-        <v>70.76064409160024</v>
+        <v>71.65844017689992</v>
       </c>
       <c r="O17" t="n">
-        <v>8.411934622404067</v>
+        <v>8.465130842278807</v>
       </c>
       <c r="P17" t="n">
-        <v>372.8569099932793</v>
+        <v>373.1475332395044</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29976,28 +30326,28 @@
         <v>0.0801</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1729030220868681</v>
+        <v>0.1497219177912067</v>
       </c>
       <c r="J18" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K18" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02364509821427307</v>
+        <v>0.01796291156916152</v>
       </c>
       <c r="M18" t="n">
-        <v>6.467443372416654</v>
+        <v>6.493533525783941</v>
       </c>
       <c r="N18" t="n">
-        <v>65.42365280214659</v>
+        <v>65.86323265516718</v>
       </c>
       <c r="O18" t="n">
-        <v>8.088488907215401</v>
+        <v>8.115616591188077</v>
       </c>
       <c r="P18" t="n">
-        <v>374.3497596349628</v>
+        <v>374.5914608245884</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30054,28 +30404,28 @@
         <v>0.0769</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1359065332017884</v>
+        <v>0.1164540442849441</v>
       </c>
       <c r="J19" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K19" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01533841601352026</v>
+        <v>0.01141935459450982</v>
       </c>
       <c r="M19" t="n">
-        <v>6.542365307155726</v>
+        <v>6.560012210270441</v>
       </c>
       <c r="N19" t="n">
-        <v>62.94501954077097</v>
+        <v>63.15643620777991</v>
       </c>
       <c r="O19" t="n">
-        <v>7.933789733839117</v>
+        <v>7.947102378085985</v>
       </c>
       <c r="P19" t="n">
-        <v>377.2602052350119</v>
+        <v>377.4638689158132</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30132,28 +30482,28 @@
         <v>0.073</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1031936539005975</v>
+        <v>0.09128097539138937</v>
       </c>
       <c r="J20" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K20" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L20" t="n">
-        <v>0.008883623883084724</v>
+        <v>0.007092385296075365</v>
       </c>
       <c r="M20" t="n">
-        <v>6.271288706817521</v>
+        <v>6.248444229176592</v>
       </c>
       <c r="N20" t="n">
-        <v>62.77157271614295</v>
+        <v>62.48230340076756</v>
       </c>
       <c r="O20" t="n">
-        <v>7.922851299635943</v>
+        <v>7.904574839975111</v>
       </c>
       <c r="P20" t="n">
-        <v>378.3706148648009</v>
+        <v>378.4952353398477</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30210,28 +30560,28 @@
         <v>0.07829999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1545150822197759</v>
+        <v>0.1492344075448424</v>
       </c>
       <c r="J21" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K21" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01741734896955172</v>
+        <v>0.01661926715460205</v>
       </c>
       <c r="M21" t="n">
-        <v>6.603417988177326</v>
+        <v>6.570977075813889</v>
       </c>
       <c r="N21" t="n">
-        <v>71.23109883652371</v>
+        <v>70.66213238989303</v>
       </c>
       <c r="O21" t="n">
-        <v>8.439851825507585</v>
+        <v>8.406077110632108</v>
       </c>
       <c r="P21" t="n">
-        <v>375.3590904013552</v>
+        <v>375.4143009523138</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30288,28 +30638,28 @@
         <v>0.0745</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2231626352400593</v>
+        <v>0.2113745302702147</v>
       </c>
       <c r="J22" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K22" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03436151935404519</v>
+        <v>0.03151169602450188</v>
       </c>
       <c r="M22" t="n">
-        <v>6.990349600360687</v>
+        <v>6.975159890285817</v>
       </c>
       <c r="N22" t="n">
-        <v>73.73564052670204</v>
+        <v>73.3575966087419</v>
       </c>
       <c r="O22" t="n">
-        <v>8.586945937101389</v>
+        <v>8.564904938686821</v>
       </c>
       <c r="P22" t="n">
-        <v>374.2059222109894</v>
+        <v>374.3291881270775</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30366,28 +30716,28 @@
         <v>0.0677</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1931677176178328</v>
+        <v>0.1798044682206527</v>
       </c>
       <c r="J23" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K23" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02621818855088665</v>
+        <v>0.0231468551708105</v>
       </c>
       <c r="M23" t="n">
-        <v>6.99235047027603</v>
+        <v>6.969273370507247</v>
       </c>
       <c r="N23" t="n">
-        <v>73.16345526146119</v>
+        <v>73.07037755187622</v>
       </c>
       <c r="O23" t="n">
-        <v>8.553563892405387</v>
+        <v>8.548121287854789</v>
       </c>
       <c r="P23" t="n">
-        <v>377.0467281664464</v>
+        <v>377.1858494493499</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30444,28 +30794,28 @@
         <v>0.0759</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1668865188248504</v>
+        <v>0.1608574124325172</v>
       </c>
       <c r="J24" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K24" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01803030124258453</v>
+        <v>0.01718609908968494</v>
       </c>
       <c r="M24" t="n">
-        <v>7.209989261107212</v>
+        <v>7.154812417547917</v>
       </c>
       <c r="N24" t="n">
-        <v>80.20406316131226</v>
+        <v>79.34758434017803</v>
       </c>
       <c r="O24" t="n">
-        <v>8.955672122253709</v>
+        <v>8.907726103792035</v>
       </c>
       <c r="P24" t="n">
-        <v>376.9841840461822</v>
+        <v>377.0470705351228</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -30522,28 +30872,28 @@
         <v>0.0682</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1716514031009945</v>
+        <v>0.1639714450649891</v>
       </c>
       <c r="J25" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K25" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01846615171817945</v>
+        <v>0.01725054835020989</v>
       </c>
       <c r="M25" t="n">
-        <v>7.180038204800057</v>
+        <v>7.135909831601932</v>
       </c>
       <c r="N25" t="n">
-        <v>83.10244737896208</v>
+        <v>82.48752983742398</v>
       </c>
       <c r="O25" t="n">
-        <v>9.11605437560363</v>
+        <v>9.082264576493243</v>
       </c>
       <c r="P25" t="n">
-        <v>376.821016380686</v>
+        <v>376.9003787669129</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -30600,28 +30950,28 @@
         <v>0.0711</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1366945612598997</v>
+        <v>0.1204913088777668</v>
       </c>
       <c r="J26" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K26" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01259583589907609</v>
+        <v>0.009967247873751583</v>
       </c>
       <c r="M26" t="n">
-        <v>6.872533170407495</v>
+        <v>6.874613548227043</v>
       </c>
       <c r="N26" t="n">
-        <v>77.79443323677798</v>
+        <v>77.69377206073112</v>
       </c>
       <c r="O26" t="n">
-        <v>8.820115262102757</v>
+        <v>8.814407073690839</v>
       </c>
       <c r="P26" t="n">
-        <v>380.9403425393165</v>
+        <v>381.1081525378697</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30678,28 +31028,28 @@
         <v>0.0728</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1091051718721589</v>
+        <v>0.09027322642735168</v>
       </c>
       <c r="J27" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K27" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L27" t="n">
-        <v>0.007811952529009569</v>
+        <v>0.005438025560281612</v>
       </c>
       <c r="M27" t="n">
-        <v>7.045638555821592</v>
+        <v>7.055688407290307</v>
       </c>
       <c r="N27" t="n">
-        <v>80.191612338871</v>
+        <v>80.18105076819064</v>
       </c>
       <c r="O27" t="n">
-        <v>8.954976959147968</v>
+        <v>8.954387235773906</v>
       </c>
       <c r="P27" t="n">
-        <v>381.3270436225122</v>
+        <v>381.5224759043897</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30756,28 +31106,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1475543767436134</v>
+        <v>0.1323960480756738</v>
       </c>
       <c r="J28" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K28" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01394404609173816</v>
+        <v>0.01145983350074076</v>
       </c>
       <c r="M28" t="n">
-        <v>7.098909364939573</v>
+        <v>7.084034544525316</v>
       </c>
       <c r="N28" t="n">
-        <v>81.68027739547887</v>
+        <v>81.32317442818474</v>
       </c>
       <c r="O28" t="n">
-        <v>9.037714168719813</v>
+        <v>9.017936262149158</v>
       </c>
       <c r="P28" t="n">
-        <v>383.0260969183951</v>
+        <v>383.1843254100222</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -30834,28 +31184,28 @@
         <v>0.0707</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1925749399991399</v>
+        <v>0.171195355309837</v>
       </c>
       <c r="J29" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K29" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02541000380483882</v>
+        <v>0.0203596662258726</v>
       </c>
       <c r="M29" t="n">
-        <v>6.821097628054702</v>
+        <v>6.83676537691978</v>
       </c>
       <c r="N29" t="n">
-        <v>76.27419852829244</v>
+        <v>76.672607359249</v>
       </c>
       <c r="O29" t="n">
-        <v>8.733510092070224</v>
+        <v>8.756289588589963</v>
       </c>
       <c r="P29" t="n">
-        <v>386.9801949626855</v>
+        <v>387.2015272285785</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -30912,28 +31262,28 @@
         <v>0.0677</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2192960021995006</v>
+        <v>0.200786482142209</v>
       </c>
       <c r="J30" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K30" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03592814885661777</v>
+        <v>0.03065207280042048</v>
       </c>
       <c r="M30" t="n">
-        <v>6.742490431482032</v>
+        <v>6.752637964808754</v>
       </c>
       <c r="N30" t="n">
-        <v>69.68880699219631</v>
+        <v>69.82647969441355</v>
       </c>
       <c r="O30" t="n">
-        <v>8.347982210821744</v>
+        <v>8.356224009348574</v>
       </c>
       <c r="P30" t="n">
-        <v>384.8411172435369</v>
+        <v>385.0315374306257</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -30990,28 +31340,28 @@
         <v>0.0747</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1947698915400965</v>
+        <v>0.1743346905441468</v>
       </c>
       <c r="J31" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K31" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03256905353147665</v>
+        <v>0.02650125793625235</v>
       </c>
       <c r="M31" t="n">
-        <v>6.183172977779432</v>
+        <v>6.204648716502617</v>
       </c>
       <c r="N31" t="n">
-        <v>61.16118621838365</v>
+        <v>61.46542608526483</v>
       </c>
       <c r="O31" t="n">
-        <v>7.820561758491755</v>
+        <v>7.839988908491187</v>
       </c>
       <c r="P31" t="n">
-        <v>383.0747080657811</v>
+        <v>383.2840129057071</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -31068,28 +31418,28 @@
         <v>0.0506</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2159025326567286</v>
+        <v>0.1912792157315738</v>
       </c>
       <c r="J32" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K32" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02979940983704255</v>
+        <v>0.0236954708964926</v>
       </c>
       <c r="M32" t="n">
-        <v>7.108776494862823</v>
+        <v>7.146046899336408</v>
       </c>
       <c r="N32" t="n">
-        <v>83.24582107325388</v>
+        <v>83.85738533032954</v>
       </c>
       <c r="O32" t="n">
-        <v>9.123914788798386</v>
+        <v>9.157367816699814</v>
       </c>
       <c r="P32" t="n">
-        <v>395.2707264175031</v>
+        <v>395.5212295083899</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -31146,28 +31496,28 @@
         <v>0.0216</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1352029614086071</v>
+        <v>0.1144847709660658</v>
       </c>
       <c r="J33" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K33" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L33" t="n">
-        <v>0.004622066730499585</v>
+        <v>0.003387825568653469</v>
       </c>
       <c r="M33" t="n">
-        <v>11.28439931756438</v>
+        <v>11.25026015544019</v>
       </c>
       <c r="N33" t="n">
-        <v>214.3031824393395</v>
+        <v>213.0246939610071</v>
       </c>
       <c r="O33" t="n">
-        <v>14.63909773310294</v>
+        <v>14.5953654959719</v>
       </c>
       <c r="P33" t="n">
-        <v>377.7881661482407</v>
+        <v>377.9989229053855</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -31205,7 +31555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH257"/>
+  <dimension ref="A1:AH260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70717,6 +71067,514 @@
         </is>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>-36.588766807887005,175.52482999941927</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>-36.58913411927647,175.5240646619711</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>-36.589664394585675,175.52347971977665</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>-36.59026803333302,175.52301469828075</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>-36.59093565857025,175.52267330069665</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>-36.591643900160406,175.52246376933073</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>-36.59236195013514,175.52274660551325</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>-36.593070104187035,175.5227662866537</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>-36.59372660110697,175.5230905910971</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>-36.59438145236193,175.52340737584834</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>-36.59503845358587,175.52372457577852</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>-36.595655299573664,175.524152053463</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>-36.596271311349625,175.52458027823826</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>-36.59685934696191,175.52507551625476</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>-36.597402598481246,175.52564651041038</t>
+        </is>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>-36.59797690146111,175.5261922095504</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>-36.59849799450516,175.52681365821303</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>-36.5990158362191,175.52743310852074</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>-36.59948172818446,175.5281096808529</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>-36.599943059606055,175.52879512902385</t>
+        </is>
+      </c>
+      <c r="V258" t="inlineStr">
+        <is>
+          <t>-36.6004857729683,175.52939638935078</t>
+        </is>
+      </c>
+      <c r="W258" t="inlineStr">
+        <is>
+          <t>-36.60092895116759,175.53009542144525</t>
+        </is>
+      </c>
+      <c r="X258" t="inlineStr">
+        <is>
+          <t>-36.601369324397645,175.53078722622348</t>
+        </is>
+      </c>
+      <c r="Y258" t="inlineStr">
+        <is>
+          <t>-36.60176702400463,175.53153029664588</t>
+        </is>
+      </c>
+      <c r="Z258" t="inlineStr">
+        <is>
+          <t>-36.60220489726269,175.53223511142073</t>
+        </is>
+      </c>
+      <c r="AA258" t="inlineStr">
+        <is>
+          <t>-36.60254925642508,175.5330110107593</t>
+        </is>
+      </c>
+      <c r="AB258" t="inlineStr">
+        <is>
+          <t>-36.602898447723824,175.533787928892</t>
+        </is>
+      </c>
+      <c r="AC258" t="inlineStr">
+        <is>
+          <t>-36.603102319082396,175.534628150935</t>
+        </is>
+      </c>
+      <c r="AD258" t="inlineStr">
+        <is>
+          <t>-36.603360958896,175.5354350295913</t>
+        </is>
+      </c>
+      <c r="AE258" t="inlineStr">
+        <is>
+          <t>-36.603547963943264,175.53629242352326</t>
+        </is>
+      </c>
+      <c r="AF258" t="inlineStr">
+        <is>
+          <t>-36.60362255112289,175.5370602328138</t>
+        </is>
+      </c>
+      <c r="AG258" t="inlineStr">
+        <is>
+          <t>-36.60348995549736,175.53783552816125</t>
+        </is>
+      </c>
+      <c r="AH258" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>-36.58877558030646,175.52483821153703</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>-36.589175678275915,175.52411645664705</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>-36.58965516623597,175.52346336904853</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>-36.59027569005463,175.52303691098888</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>-36.5909350622848,175.52266971407536</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>-36.59164067530121,175.52239845824573</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>-36.592381471859255,175.52231658383226</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>-36.59306727709129,175.52278676994845</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>-36.5937362559571,175.52305277813159</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>-36.59440879862095,175.52332391209185</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>-36.59505591111596,175.52368139800927</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>-36.59567515123023,175.5241105551432</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>-36.59629169557503,175.52454466808746</t>
+        </is>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>-36.596841058232044,175.5251029662372</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>-36.59740034502742,175.52564950999152</t>
+        </is>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>-36.59795698917879,175.52621817284452</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>-36.598486988152786,175.52682817435593</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>-36.598986340136115,175.52746986950316</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>-36.599477811581075,175.5281141614527</t>
+        </is>
+      </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>-36.59997033521414,175.52876512642055</t>
+        </is>
+      </c>
+      <c r="V259" t="inlineStr">
+        <is>
+          <t>-36.60043750286212,175.5294494853305</t>
+        </is>
+      </c>
+      <c r="W259" t="inlineStr">
+        <is>
+          <t>-36.60091397591203,175.53011060461375</t>
+        </is>
+      </c>
+      <c r="X259" t="inlineStr">
+        <is>
+          <t>-36.601351875029486,175.53080270903703</t>
+        </is>
+      </c>
+      <c r="Y259" t="inlineStr">
+        <is>
+          <t>-36.60175996754244,175.5315362430049</t>
+        </is>
+      </c>
+      <c r="Z259" t="inlineStr">
+        <is>
+          <t>-36.60215282025559,175.532274853605</t>
+        </is>
+      </c>
+      <c r="AA259" t="inlineStr">
+        <is>
+          <t>-36.602539101752406,175.53301782268596</t>
+        </is>
+      </c>
+      <c r="AB259" t="inlineStr">
+        <is>
+          <t>-36.602835867142055,175.53382611733673</t>
+        </is>
+      </c>
+      <c r="AC259" t="inlineStr">
+        <is>
+          <t>-36.60316594928303,175.53459823621384</t>
+        </is>
+      </c>
+      <c r="AD259" t="inlineStr">
+        <is>
+          <t>-36.603338379164,175.535442630048</t>
+        </is>
+      </c>
+      <c r="AE259" t="inlineStr">
+        <is>
+          <t>-36.60357076163034,175.53628581885775</t>
+        </is>
+      </c>
+      <c r="AF259" t="inlineStr">
+        <is>
+          <t>-36.603619304730756,175.53705982043996</t>
+        </is>
+      </c>
+      <c r="AG259" t="inlineStr">
+        <is>
+          <t>-36.60351702422431,175.53785077909788</t>
+        </is>
+      </c>
+      <c r="AH259" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>-36.58870676712982,175.52477379358183</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>-36.58914403243456,175.52407701665936</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>-36.589674538723024,175.52349769310052</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>-36.59024553529458,175.52294942992626</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>-36.59100079653363,175.5230651059344</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>-36.59307363045212,175.52274073759554</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>-36.593757904536396,175.52296799183995</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>-36.594409262116365,175.52332249745137</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>-36.59503426004884,175.5237349476596</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>-36.59567171018984,175.52411774836992</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>-36.59629780488041,175.52453399545087</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>-36.59688781962886,175.52503278091936</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>-36.59743343819474,175.52560545952133</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>-36.598022113642386,175.52613325806328</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>-36.59854181417229,175.5267558649302</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>-36.59905002587936,175.52739049787937</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>-36.59953609705659,175.52804748272206</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>-36.60001713510892,175.52871364744024</t>
+        </is>
+      </c>
+      <c r="V260" t="inlineStr">
+        <is>
+          <t>-36.600510644630404,175.5293690310734</t>
+        </is>
+      </c>
+      <c r="W260" t="inlineStr">
+        <is>
+          <t>-36.60101119968264,175.53001203087575</t>
+        </is>
+      </c>
+      <c r="X260" t="inlineStr">
+        <is>
+          <t>-36.60139409056437,175.53076525120454</t>
+        </is>
+      </c>
+      <c r="Y260" t="inlineStr">
+        <is>
+          <t>-36.6018419279619,175.5314671762931</t>
+        </is>
+      </c>
+      <c r="Z260" t="inlineStr">
+        <is>
+          <t>-36.60225171520815,175.5321993825985</t>
+        </is>
+      </c>
+      <c r="AA260" t="inlineStr">
+        <is>
+          <t>-36.60262271647179,175.53296173245556</t>
+        </is>
+      </c>
+      <c r="AB260" t="inlineStr">
+        <is>
+          <t>-36.60290790583261,175.5337821572802</t>
+        </is>
+      </c>
+      <c r="AC260" t="inlineStr">
+        <is>
+          <t>-36.60322246409395,175.53457166663793</t>
+        </is>
+      </c>
+      <c r="AD260" t="inlineStr">
+        <is>
+          <t>-36.60344174698012,175.53540783586226</t>
+        </is>
+      </c>
+      <c r="AE260" t="inlineStr">
+        <is>
+          <t>-36.603639029358945,175.5362660411496</t>
+        </is>
+      </c>
+      <c r="AF260" t="inlineStr">
+        <is>
+          <t>-36.60373156417154,175.53707408025062</t>
+        </is>
+      </c>
+      <c r="AG260" t="inlineStr">
+        <is>
+          <t>-36.603623904658335,175.5379109972987</t>
+        </is>
+      </c>
+      <c r="AH260" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0139/nzd0139.xlsx
+++ b/data/nzd0139/nzd0139.xlsx
@@ -29069,13 +29069,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0392</v>
+        <v>0.0536</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0462</v>
+        <v>0.0635</v>
       </c>
       <c r="I2" t="n">
         <v>-0.248475026555983</v>
@@ -29147,13 +29147,13 @@
         <v>0.03229213142178207</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0483</v>
+        <v>0.0624</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0568</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3031907336051587</v>
@@ -29225,13 +29225,13 @@
         <v>0.06435893725003093</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0509</v>
+        <v>0.0593</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0622</v>
+        <v>0.0735</v>
       </c>
       <c r="I4" t="n">
         <v>-0.3874140214713546</v>
@@ -29306,10 +29306,10 @@
         <v>0.045</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0398</v>
+        <v>0.0397</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0468</v>
+        <v>0.051</v>
       </c>
       <c r="I5" t="n">
         <v>-0.6275433026946047</v>
@@ -29381,13 +29381,13 @@
         <v>0.1288805410871109</v>
       </c>
       <c r="F6" t="n">
-        <v>0.045</v>
+        <v>0.025</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0393</v>
+        <v>0.0225</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0513</v>
+        <v>0.0312</v>
       </c>
       <c r="I6" t="n">
         <v>-0.6492018541328858</v>
@@ -29459,13 +29459,13 @@
         <v>0.16098757556721</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0244</v>
+        <v>0.0195</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0335</v>
+        <v>0.021</v>
       </c>
       <c r="I7" t="n">
         <v>-0.8455992943171248</v>
@@ -29537,13 +29537,13 @@
         <v>0.1932797069884733</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0196</v>
+        <v>0.0147</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0222</v>
+        <v>0.016</v>
       </c>
       <c r="I8" t="n">
         <v>0.1261194196421477</v>
@@ -29618,10 +29618,10 @@
         <v>0.025</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0241</v>
+        <v>0.0222</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0276</v>
+        <v>0.0266</v>
       </c>
       <c r="I9" t="n">
         <v>0.6340915448294991</v>
@@ -29693,13 +29693,13 @@
         <v>0.2578620474318353</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0385</v>
+        <v>0.0427</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0422</v>
+        <v>0.0515</v>
       </c>
       <c r="I10" t="n">
         <v>0.4451550288091402</v>
@@ -29774,10 +29774,10 @@
         <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0536</v>
+        <v>0.0537</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0646</v>
+        <v>0.0655</v>
       </c>
       <c r="I11" t="n">
         <v>0.4224195809837182</v>
@@ -29849,13 +29849,13 @@
         <v>0.3223641593219363</v>
       </c>
       <c r="F12" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0594</v>
+        <v>0.0649</v>
       </c>
       <c r="H12" t="n">
-        <v>0.068</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="I12" t="n">
         <v>0.4309942106619709</v>
@@ -29927,13 +29927,13 @@
         <v>0.3546555780633145</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0668</v>
+        <v>0.0788</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0769</v>
+        <v>0.0944</v>
       </c>
       <c r="I13" t="n">
         <v>0.2746049678179157</v>
@@ -30005,13 +30005,13 @@
         <v>0.3869221299905237</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0672</v>
+        <v>0.0696</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07870000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="I14" t="n">
         <v>0.1574130137727743</v>
@@ -30083,13 +30083,13 @@
         <v>0.4192131092021812</v>
       </c>
       <c r="F15" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0605</v>
+        <v>0.0697</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0688</v>
+        <v>0.0853</v>
       </c>
       <c r="I15" t="n">
         <v>0.2765309467697351</v>
@@ -30161,13 +30161,13 @@
         <v>0.4514420442205354</v>
       </c>
       <c r="F16" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G16" t="n">
-        <v>0.062</v>
+        <v>0.068</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0687</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="I16" t="n">
         <v>0.1763866366591608</v>
@@ -30239,13 +30239,13 @@
         <v>0.4836560546041679</v>
       </c>
       <c r="F17" t="n">
-        <v>0.065</v>
+        <v>0.105</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06320000000000001</v>
+        <v>0.0789</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0702</v>
+        <v>0.1568</v>
       </c>
       <c r="I17" t="n">
         <v>0.1942422416225896</v>
@@ -30317,13 +30317,13 @@
         <v>0.5159477143488853</v>
       </c>
       <c r="F18" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0732</v>
+        <v>0.0781</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0801</v>
+        <v>0.0929</v>
       </c>
       <c r="I18" t="n">
         <v>0.1497229342375589</v>
@@ -30395,13 +30395,13 @@
         <v>0.5482398457706578</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0677</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0769</v>
+        <v>0.0861</v>
       </c>
       <c r="I19" t="n">
         <v>0.1164546295355529</v>
@@ -30473,13 +30473,13 @@
         <v>0.5805026851175571</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0646</v>
+        <v>0.0699</v>
       </c>
       <c r="H20" t="n">
-        <v>0.073</v>
+        <v>0.0818</v>
       </c>
       <c r="I20" t="n">
         <v>0.09127558576620429</v>
@@ -30551,13 +30551,13 @@
         <v>0.6127948165390554</v>
       </c>
       <c r="F21" t="n">
-        <v>0.075</v>
+        <v>0.11</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06859999999999999</v>
+        <v>0.0886</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07829999999999999</v>
+        <v>0.141</v>
       </c>
       <c r="I21" t="n">
         <v>0.1492419375588564</v>
@@ -30629,13 +30629,13 @@
         <v>0.6450869479597409</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06469999999999999</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0745</v>
+        <v>0.0867</v>
       </c>
       <c r="I22" t="n">
         <v>0.2113663855737786</v>
@@ -30707,13 +30707,13 @@
         <v>0.6773790793813131</v>
       </c>
       <c r="F23" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06</v>
+        <v>0.0726</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0677</v>
+        <v>0.0853</v>
       </c>
       <c r="I23" t="n">
         <v>0.1798405816665456</v>
@@ -30785,13 +30785,13 @@
         <v>0.7096090275507938</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06710000000000001</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0759</v>
+        <v>0.0852</v>
       </c>
       <c r="I24" t="n">
         <v>0.1608518208839674</v>
@@ -30863,13 +30863,13 @@
         <v>0.7419011582488113</v>
       </c>
       <c r="F25" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0611</v>
+        <v>0.0709</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0682</v>
+        <v>0.0835</v>
       </c>
       <c r="I25" t="n">
         <v>0.1640018898309565</v>
@@ -30941,13 +30941,13 @@
         <v>0.7741932896697459</v>
       </c>
       <c r="F26" t="n">
-        <v>0.065</v>
+        <v>0.09</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06320000000000001</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0711</v>
+        <v>0.099</v>
       </c>
       <c r="I26" t="n">
         <v>0.120524651570264</v>
@@ -31019,13 +31019,13 @@
         <v>0.8064648206278109</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>0.065</v>
+        <v>0.0791</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0728</v>
+        <v>0.0961</v>
       </c>
       <c r="I27" t="n">
         <v>0.09027079579044285</v>
@@ -31097,13 +31097,13 @@
         <v>0.8387503317152593</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0631</v>
+        <v>0.0713</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07340000000000001</v>
+        <v>0.0861</v>
       </c>
       <c r="I28" t="n">
         <v>0.1323930330894976</v>
@@ -31175,13 +31175,13 @@
         <v>0.8710424631363958</v>
       </c>
       <c r="F29" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0624</v>
+        <v>0.0716</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0707</v>
+        <v>0.0856</v>
       </c>
       <c r="I29" t="n">
         <v>0.1712302178085461</v>
@@ -31253,13 +31253,13 @@
         <v>0.9032833306070811</v>
       </c>
       <c r="F30" t="n">
-        <v>0.065</v>
+        <v>0.09</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0616</v>
+        <v>0.0717</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0677</v>
+        <v>0.113</v>
       </c>
       <c r="I30" t="n">
         <v>0.2008211332130151</v>
@@ -31331,13 +31331,13 @@
         <v>0.9355665599284212</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.0696</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0747</v>
+        <v>0.0844</v>
       </c>
       <c r="I31" t="n">
         <v>0.1743422441922862</v>
@@ -31409,13 +31409,13 @@
         <v>0.9677078685786143</v>
       </c>
       <c r="F32" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0444</v>
+        <v>0.0515</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0506</v>
+        <v>0.0692</v>
       </c>
       <c r="I32" t="n">
         <v>0.1912399853298593</v>
@@ -31487,13 +31487,13 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02</v>
+        <v>0.0247</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0216</v>
+        <v>0.0292</v>
       </c>
       <c r="I33" t="n">
         <v>0.1144847709660658</v>

--- a/data/nzd0139/nzd0139.xlsx
+++ b/data/nzd0139/nzd0139.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>358.96</v>
+        <v>358.46</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
@@ -687,7 +687,7 @@
         <v>367.02</v>
       </c>
       <c r="AD2" t="n">
-        <v>364.56</v>
+        <v>364.9</v>
       </c>
       <c r="AE2" t="n">
         <v>369.74</v>
@@ -714,7 +714,7 @@
         <v>379.66</v>
       </c>
       <c r="C3" t="n">
-        <v>376.54</v>
+        <v>377.05</v>
       </c>
       <c r="D3" t="n">
         <v>375.06</v>
@@ -795,7 +795,7 @@
         <v>385.88</v>
       </c>
       <c r="AD3" t="n">
-        <v>385.27</v>
+        <v>384.92</v>
       </c>
       <c r="AE3" t="n">
         <v>375.78</v>
@@ -822,7 +822,7 @@
         <v>384.9</v>
       </c>
       <c r="C4" t="n">
-        <v>383.65</v>
+        <v>384.32</v>
       </c>
       <c r="D4" t="n">
         <v>379.98</v>
@@ -903,7 +903,7 @@
         <v>385.69</v>
       </c>
       <c r="AD4" t="n">
-        <v>381.71</v>
+        <v>381.25</v>
       </c>
       <c r="AE4" t="n">
         <v>379.09</v>
@@ -930,7 +930,7 @@
         <v>388.71</v>
       </c>
       <c r="C5" t="n">
-        <v>380.47</v>
+        <v>379.89</v>
       </c>
       <c r="D5" t="n">
         <v>378.6</v>
@@ -1011,7 +1011,7 @@
         <v>378.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>372.8</v>
+        <v>373.2</v>
       </c>
       <c r="AE5" t="n">
         <v>379.93</v>
@@ -1086,7 +1086,7 @@
         <v>387.46</v>
       </c>
       <c r="C7" t="n">
-        <v>374.88</v>
+        <v>375.26</v>
       </c>
       <c r="D7" t="n">
         <v>374.32</v>
@@ -1167,7 +1167,7 @@
         <v>392.02</v>
       </c>
       <c r="AD7" t="n">
-        <v>388.99</v>
+        <v>388.72</v>
       </c>
       <c r="AE7" t="n">
         <v>380</v>
@@ -1257,7 +1257,7 @@
         <v>379.33</v>
       </c>
       <c r="AD8" t="n">
-        <v>390.08</v>
+        <v>389.95</v>
       </c>
       <c r="AE8" t="n">
         <v>385.79</v>
@@ -1351,7 +1351,7 @@
         <v>371.94</v>
       </c>
       <c r="AD9" t="n">
-        <v>374.23</v>
+        <v>374.33</v>
       </c>
       <c r="AE9" t="n">
         <v>370.53</v>
@@ -1378,7 +1378,7 @@
         <v>368.97</v>
       </c>
       <c r="C10" t="n">
-        <v>360.89</v>
+        <v>359.75</v>
       </c>
       <c r="D10" t="n">
         <v>355.63</v>
@@ -1451,7 +1451,7 @@
         <v>384.47</v>
       </c>
       <c r="AD10" t="n">
-        <v>382.77</v>
+        <v>383.56</v>
       </c>
       <c r="AE10" t="n">
         <v>377.19</v>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>365.46</v>
+        <v>365.65</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
@@ -1555,7 +1555,7 @@
         <v>383.81</v>
       </c>
       <c r="AD11" t="n">
-        <v>386.27</v>
+        <v>386.14</v>
       </c>
       <c r="AE11" t="n">
         <v>377.52</v>
@@ -1582,7 +1582,7 @@
         <v>362.86</v>
       </c>
       <c r="C12" t="n">
-        <v>360.29</v>
+        <v>359.79</v>
       </c>
       <c r="D12" t="n">
         <v>356.47</v>
@@ -1663,7 +1663,7 @@
         <v>380.62</v>
       </c>
       <c r="AD12" t="n">
-        <v>383.42</v>
+        <v>383.77</v>
       </c>
       <c r="AE12" t="n">
         <v>371.4</v>
@@ -1690,7 +1690,7 @@
         <v>368.31</v>
       </c>
       <c r="C13" t="n">
-        <v>369.13</v>
+        <v>368.75</v>
       </c>
       <c r="D13" t="n">
         <v>352.4</v>
@@ -1741,7 +1741,7 @@
         <v>384.31</v>
       </c>
       <c r="AD13" t="n">
-        <v>393.05</v>
+        <v>393.32</v>
       </c>
       <c r="AE13" t="n">
         <v>386.91</v>
@@ -1768,7 +1768,7 @@
         <v>383.54</v>
       </c>
       <c r="C14" t="n">
-        <v>373.27</v>
+        <v>373.66</v>
       </c>
       <c r="D14" t="n">
         <v>359.21</v>
@@ -1849,7 +1849,7 @@
         <v>398.75</v>
       </c>
       <c r="AD14" t="n">
-        <v>397.98</v>
+        <v>397.72</v>
       </c>
       <c r="AE14" t="n">
         <v>388.81</v>
@@ -1876,7 +1876,7 @@
         <v>371.52</v>
       </c>
       <c r="C15" t="n">
-        <v>364.12</v>
+        <v>362.99</v>
       </c>
       <c r="D15" t="n">
         <v>360.45</v>
@@ -1921,7 +1921,7 @@
         <v>377.99</v>
       </c>
       <c r="AD15" t="n">
-        <v>376.48</v>
+        <v>377.26</v>
       </c>
       <c r="AE15" t="n">
         <v>383.21</v>
@@ -2003,7 +2003,7 @@
         <v>371.88</v>
       </c>
       <c r="AD16" t="n">
-        <v>359.21</v>
+        <v>358.61</v>
       </c>
       <c r="AE16" t="n">
         <v>364.58</v>
@@ -2030,7 +2030,7 @@
         <v>389.93</v>
       </c>
       <c r="C17" t="n">
-        <v>386.61</v>
+        <v>385.98</v>
       </c>
       <c r="D17" t="n">
         <v>384.7</v>
@@ -2111,7 +2111,7 @@
         <v>392.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>387.58</v>
+        <v>388.01</v>
       </c>
       <c r="AE17" t="n">
         <v>388.39</v>
@@ -2138,7 +2138,7 @@
         <v>380.38</v>
       </c>
       <c r="C18" t="n">
-        <v>374.79</v>
+        <v>374.46</v>
       </c>
       <c r="D18" t="n">
         <v>369.11</v>
@@ -2219,7 +2219,7 @@
         <v>381.45</v>
       </c>
       <c r="AD18" t="n">
-        <v>386.47</v>
+        <v>386.7</v>
       </c>
       <c r="AE18" t="n">
         <v>384.04</v>
@@ -2301,7 +2301,7 @@
         <v>372.44</v>
       </c>
       <c r="AD19" t="n">
-        <v>379.97</v>
+        <v>379.52</v>
       </c>
       <c r="AE19" t="n">
         <v>373.45</v>
@@ -2385,7 +2385,7 @@
         <v>392.05</v>
       </c>
       <c r="AD20" t="n">
-        <v>395.16</v>
+        <v>395</v>
       </c>
       <c r="AE20" t="n">
         <v>389.95</v>
@@ -2412,7 +2412,7 @@
         <v>376.94</v>
       </c>
       <c r="C21" t="n">
-        <v>366.24</v>
+        <v>366.74</v>
       </c>
       <c r="D21" t="n">
         <v>367.23</v>
@@ -2493,7 +2493,7 @@
         <v>380.56</v>
       </c>
       <c r="AD21" t="n">
-        <v>381.8</v>
+        <v>381.45</v>
       </c>
       <c r="AE21" t="n">
         <v>377.23</v>
@@ -2582,7 +2582,7 @@
         <v>373.92</v>
       </c>
       <c r="C23" t="n">
-        <v>372.07</v>
+        <v>371.81</v>
       </c>
       <c r="D23" t="n">
         <v>365.99</v>
@@ -2663,7 +2663,7 @@
         <v>398.45</v>
       </c>
       <c r="AD23" t="n">
-        <v>389.76</v>
+        <v>389.94</v>
       </c>
       <c r="AE23" t="n">
         <v>394.04</v>
@@ -2690,7 +2690,7 @@
         <v>376.44</v>
       </c>
       <c r="C24" t="n">
-        <v>371.23</v>
+        <v>371.1</v>
       </c>
       <c r="D24" t="n">
         <v>364.79</v>
@@ -2771,7 +2771,7 @@
         <v>389.86</v>
       </c>
       <c r="AD24" t="n">
-        <v>388.79</v>
+        <v>388.88</v>
       </c>
       <c r="AE24" t="n">
         <v>384.14</v>
@@ -2798,7 +2798,7 @@
         <v>381.77</v>
       </c>
       <c r="C25" t="n">
-        <v>382</v>
+        <v>381.61</v>
       </c>
       <c r="D25" t="n">
         <v>377.9</v>
@@ -2879,7 +2879,7 @@
         <v>394.81</v>
       </c>
       <c r="AD25" t="n">
-        <v>393.9</v>
+        <v>394.16</v>
       </c>
       <c r="AE25" t="n">
         <v>391.8</v>
@@ -2906,7 +2906,7 @@
         <v>380.94</v>
       </c>
       <c r="C26" t="n">
-        <v>384.79</v>
+        <v>385.09</v>
       </c>
       <c r="D26" t="n">
         <v>386.15</v>
@@ -2987,7 +2987,7 @@
         <v>394.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>393.44</v>
+        <v>393.24</v>
       </c>
       <c r="AE26" t="n">
         <v>390.12</v>
@@ -3014,7 +3014,7 @@
         <v>387.68</v>
       </c>
       <c r="C27" t="n">
-        <v>375.95</v>
+        <v>375.04</v>
       </c>
       <c r="D27" t="n">
         <v>373.12</v>
@@ -3091,7 +3091,7 @@
         <v>382.54</v>
       </c>
       <c r="AD27" t="n">
-        <v>381.36</v>
+        <v>381.98</v>
       </c>
       <c r="AE27" t="n">
         <v>377.22</v>
@@ -3118,7 +3118,7 @@
         <v>401.42</v>
       </c>
       <c r="C28" t="n">
-        <v>393.58</v>
+        <v>392.91</v>
       </c>
       <c r="D28" t="n">
         <v>390.83</v>
@@ -3199,7 +3199,7 @@
         <v>395.55</v>
       </c>
       <c r="AD28" t="n">
-        <v>396.98</v>
+        <v>397.44</v>
       </c>
       <c r="AE28" t="n">
         <v>387.81</v>
@@ -3226,7 +3226,7 @@
         <v>394.28</v>
       </c>
       <c r="C29" t="n">
-        <v>391.28</v>
+        <v>391.75</v>
       </c>
       <c r="D29" t="n">
         <v>389.35</v>
@@ -3307,7 +3307,7 @@
         <v>396.69</v>
       </c>
       <c r="AD29" t="n">
-        <v>400.69</v>
+        <v>400.37</v>
       </c>
       <c r="AE29" t="n">
         <v>396.14</v>
@@ -3334,7 +3334,7 @@
         <v>389.76</v>
       </c>
       <c r="C30" t="n">
-        <v>380.51</v>
+        <v>380.61</v>
       </c>
       <c r="D30" t="n">
         <v>366.62</v>
@@ -3415,7 +3415,7 @@
         <v>388.05</v>
       </c>
       <c r="AD30" t="n">
-        <v>383.47</v>
+        <v>383.4</v>
       </c>
       <c r="AE30" t="n">
         <v>379.01</v>
@@ -3442,7 +3442,7 @@
         <v>383.45</v>
       </c>
       <c r="C31" t="n">
-        <v>376.63</v>
+        <v>376.69</v>
       </c>
       <c r="D31" t="n">
         <v>368.98</v>
@@ -3523,7 +3523,7 @@
         <v>396.05</v>
       </c>
       <c r="AD31" t="n">
-        <v>395.6</v>
+        <v>395.56</v>
       </c>
       <c r="AE31" t="n">
         <v>387.68</v>
@@ -3550,7 +3550,7 @@
         <v>382.28</v>
       </c>
       <c r="C32" t="n">
-        <v>373.93</v>
+        <v>373.55</v>
       </c>
       <c r="D32" t="n">
         <v>366.26</v>
@@ -3631,7 +3631,7 @@
         <v>390.23</v>
       </c>
       <c r="AD32" t="n">
-        <v>392.81</v>
+        <v>393.08</v>
       </c>
       <c r="AE32" t="n">
         <v>385.3</v>
@@ -3711,7 +3711,7 @@
         <v>383.1</v>
       </c>
       <c r="AD33" t="n">
-        <v>380.64</v>
+        <v>380.35</v>
       </c>
       <c r="AE33" t="n">
         <v>373.41</v>
@@ -3738,7 +3738,7 @@
         <v>389.91</v>
       </c>
       <c r="C34" t="n">
-        <v>384.23</v>
+        <v>383.83</v>
       </c>
       <c r="D34" t="n">
         <v>377.84</v>
@@ -3819,7 +3819,7 @@
         <v>399.15</v>
       </c>
       <c r="AD34" t="n">
-        <v>388.87</v>
+        <v>389.14</v>
       </c>
       <c r="AE34" t="n">
         <v>389.81</v>
@@ -3846,7 +3846,7 @@
         <v>382.7</v>
       </c>
       <c r="C35" t="n">
-        <v>378.73</v>
+        <v>378.56</v>
       </c>
       <c r="D35" t="n">
         <v>374.31</v>
@@ -3927,7 +3927,7 @@
         <v>389.35</v>
       </c>
       <c r="AD35" t="n">
-        <v>382.98</v>
+        <v>383.1</v>
       </c>
       <c r="AE35" t="n">
         <v>382.41</v>
@@ -3954,7 +3954,7 @@
         <v>387.54</v>
       </c>
       <c r="C36" t="n">
-        <v>383.48</v>
+        <v>384.25</v>
       </c>
       <c r="D36" t="n">
         <v>379.61</v>
@@ -4035,7 +4035,7 @@
         <v>405.14</v>
       </c>
       <c r="AD36" t="n">
-        <v>405.02</v>
+        <v>404.49</v>
       </c>
       <c r="AE36" t="n">
         <v>394.16</v>
@@ -4062,7 +4062,7 @@
         <v>399.86</v>
       </c>
       <c r="C37" t="n">
-        <v>388.69</v>
+        <v>387.96</v>
       </c>
       <c r="D37" t="n">
         <v>382.14</v>
@@ -4139,7 +4139,7 @@
         <v>396.52</v>
       </c>
       <c r="AD37" t="n">
-        <v>391.03</v>
+        <v>391.53</v>
       </c>
       <c r="AE37" t="n">
         <v>391.05</v>
@@ -4166,7 +4166,7 @@
         <v>377.16</v>
       </c>
       <c r="C38" t="n">
-        <v>366.19</v>
+        <v>366.15</v>
       </c>
       <c r="D38" t="n">
         <v>351.11</v>
@@ -4247,7 +4247,7 @@
         <v>373.4</v>
       </c>
       <c r="AD38" t="n">
-        <v>375.66</v>
+        <v>375.69</v>
       </c>
       <c r="AE38" t="n">
         <v>374.55</v>
@@ -4274,7 +4274,7 @@
         <v>384.66</v>
       </c>
       <c r="C39" t="n">
-        <v>377.97</v>
+        <v>378.17</v>
       </c>
       <c r="D39" t="n">
         <v>364.6</v>
@@ -4355,7 +4355,7 @@
         <v>391.49</v>
       </c>
       <c r="AD39" t="n">
-        <v>389.16</v>
+        <v>389.02</v>
       </c>
       <c r="AE39" t="n">
         <v>386.62</v>
@@ -4382,7 +4382,7 @@
         <v>375.45</v>
       </c>
       <c r="C40" t="n">
-        <v>364.73</v>
+        <v>364.09</v>
       </c>
       <c r="D40" t="n">
         <v>354.89</v>
@@ -4463,7 +4463,7 @@
         <v>384.39</v>
       </c>
       <c r="AD40" t="n">
-        <v>390.61</v>
+        <v>391.05</v>
       </c>
       <c r="AE40" t="n">
         <v>387.72</v>
@@ -4490,7 +4490,7 @@
         <v>394.05</v>
       </c>
       <c r="C41" t="n">
-        <v>381.92</v>
+        <v>382.41</v>
       </c>
       <c r="D41" t="n">
         <v>368.37</v>
@@ -4571,7 +4571,7 @@
         <v>409.44</v>
       </c>
       <c r="AD41" t="n">
-        <v>401.35</v>
+        <v>401.02</v>
       </c>
       <c r="AE41" t="n">
         <v>399.19</v>
@@ -4598,7 +4598,7 @@
         <v>383.47</v>
       </c>
       <c r="C42" t="n">
-        <v>375.76</v>
+        <v>375.2</v>
       </c>
       <c r="D42" t="n">
         <v>371.95</v>
@@ -4679,7 +4679,7 @@
         <v>400.44</v>
       </c>
       <c r="AD42" t="n">
-        <v>398.17</v>
+        <v>398.55</v>
       </c>
       <c r="AE42" t="n">
         <v>394.26</v>
@@ -4706,7 +4706,7 @@
         <v>378.78</v>
       </c>
       <c r="C43" t="n">
-        <v>368.71</v>
+        <v>368.82</v>
       </c>
       <c r="D43" t="n">
         <v>360.25</v>
@@ -4787,7 +4787,7 @@
         <v>392.79</v>
       </c>
       <c r="AD43" t="n">
-        <v>390.87</v>
+        <v>390.79</v>
       </c>
       <c r="AE43" t="n">
         <v>388.94</v>
@@ -4814,7 +4814,7 @@
         <v>384.09</v>
       </c>
       <c r="C44" t="n">
-        <v>376.18</v>
+        <v>375.79</v>
       </c>
       <c r="D44" t="n">
         <v>369.9</v>
@@ -4910,7 +4910,7 @@
         <v>365.23</v>
       </c>
       <c r="C45" t="n">
-        <v>368.33</v>
+        <v>368.49</v>
       </c>
       <c r="D45" t="n">
         <v>364.83</v>
@@ -4991,7 +4991,7 @@
         <v>381.71</v>
       </c>
       <c r="AD45" t="n">
-        <v>391.45</v>
+        <v>391.34</v>
       </c>
       <c r="AE45" t="n">
         <v>390.9</v>
@@ -5018,7 +5018,7 @@
         <v>377.73</v>
       </c>
       <c r="C46" t="n">
-        <v>375.03</v>
+        <v>374.27</v>
       </c>
       <c r="D46" t="n">
         <v>366.67</v>
@@ -5099,7 +5099,7 @@
         <v>381.17</v>
       </c>
       <c r="AD46" t="n">
-        <v>375.61</v>
+        <v>376.12</v>
       </c>
       <c r="AE46" t="n">
         <v>375.62</v>
@@ -5126,7 +5126,7 @@
         <v>383.11</v>
       </c>
       <c r="C47" t="n">
-        <v>382</v>
+        <v>382.04</v>
       </c>
       <c r="D47" t="n">
         <v>377.55</v>
@@ -5207,7 +5207,7 @@
         <v>396.49</v>
       </c>
       <c r="AD47" t="n">
-        <v>394.65</v>
+        <v>394.62</v>
       </c>
       <c r="AE47" t="n">
         <v>390.78</v>
@@ -5234,7 +5234,7 @@
         <v>386.49</v>
       </c>
       <c r="C48" t="n">
-        <v>375.99</v>
+        <v>375.48</v>
       </c>
       <c r="D48" t="n">
         <v>370.21</v>
@@ -5315,7 +5315,7 @@
         <v>387.15</v>
       </c>
       <c r="AD48" t="n">
-        <v>387.47</v>
+        <v>387.82</v>
       </c>
       <c r="AE48" t="n">
         <v>386.33</v>
@@ -5342,7 +5342,7 @@
         <v>381.58</v>
       </c>
       <c r="C49" t="n">
-        <v>374.33</v>
+        <v>373.49</v>
       </c>
       <c r="D49" t="n">
         <v>364.14</v>
@@ -5419,7 +5419,7 @@
         <v>385.51</v>
       </c>
       <c r="AD49" t="n">
-        <v>378.06</v>
+        <v>378.63</v>
       </c>
       <c r="AE49" t="n">
         <v>383.33</v>
@@ -5446,7 +5446,7 @@
         <v>384.36</v>
       </c>
       <c r="C50" t="n">
-        <v>375.42</v>
+        <v>375.95</v>
       </c>
       <c r="D50" t="n">
         <v>367.97</v>
@@ -5527,7 +5527,7 @@
         <v>389.11</v>
       </c>
       <c r="AD50" t="n">
-        <v>384.63</v>
+        <v>384.27</v>
       </c>
       <c r="AE50" t="n">
         <v>385.95</v>
@@ -5625,7 +5625,7 @@
         <v>391.25</v>
       </c>
       <c r="AD51" t="n">
-        <v>386.86</v>
+        <v>386.61</v>
       </c>
       <c r="AE51" t="n">
         <v>379.87</v>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>369.25</v>
+        <v>369.69</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
@@ -5729,7 +5729,7 @@
         <v>392.62</v>
       </c>
       <c r="AD52" t="n">
-        <v>383.78</v>
+        <v>383.47</v>
       </c>
       <c r="AE52" t="n">
         <v>378.82</v>
@@ -5756,7 +5756,7 @@
         <v>380.28</v>
       </c>
       <c r="C53" t="n">
-        <v>377.58</v>
+        <v>376.89</v>
       </c>
       <c r="D53" t="n">
         <v>371.52</v>
@@ -5833,7 +5833,7 @@
         <v>396.69</v>
       </c>
       <c r="AD53" t="n">
-        <v>398.46</v>
+        <v>398.93</v>
       </c>
       <c r="AE53" t="n">
         <v>395.63</v>
@@ -5860,7 +5860,7 @@
         <v>375.17</v>
       </c>
       <c r="C54" t="n">
-        <v>362.83</v>
+        <v>363.61</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
@@ -5939,7 +5939,7 @@
         <v>391.98</v>
       </c>
       <c r="AD54" t="n">
-        <v>383.97</v>
+        <v>383.43</v>
       </c>
       <c r="AE54" t="n">
         <v>375.12</v>
@@ -5966,7 +5966,7 @@
         <v>370.76</v>
       </c>
       <c r="C55" t="n">
-        <v>366.86</v>
+        <v>367.1</v>
       </c>
       <c r="D55" t="n">
         <v>357.11</v>
@@ -6045,7 +6045,7 @@
         <v>389.07</v>
       </c>
       <c r="AD55" t="n">
-        <v>383.05</v>
+        <v>382.88</v>
       </c>
       <c r="AE55" t="n">
         <v>380.41</v>
@@ -6072,7 +6072,7 @@
         <v>378.67</v>
       </c>
       <c r="C56" t="n">
-        <v>373.39</v>
+        <v>373.08</v>
       </c>
       <c r="D56" t="n">
         <v>367.47</v>
@@ -6153,7 +6153,7 @@
         <v>395.87</v>
       </c>
       <c r="AD56" t="n">
-        <v>382.6</v>
+        <v>382.81</v>
       </c>
       <c r="AE56" t="n">
         <v>383.41</v>
@@ -6180,7 +6180,7 @@
         <v>382.09</v>
       </c>
       <c r="C57" t="n">
-        <v>381.13</v>
+        <v>381.69</v>
       </c>
       <c r="D57" t="n">
         <v>378.73</v>
@@ -6261,7 +6261,7 @@
         <v>387.81</v>
       </c>
       <c r="AD57" t="n">
-        <v>384.63</v>
+        <v>384.25</v>
       </c>
       <c r="AE57" t="n">
         <v>374.73</v>
@@ -6288,7 +6288,7 @@
         <v>378.52</v>
       </c>
       <c r="C58" t="n">
-        <v>370.65</v>
+        <v>371.15</v>
       </c>
       <c r="D58" t="n">
         <v>362.55</v>
@@ -6352,7 +6352,7 @@
         <v>385.95</v>
       </c>
       <c r="C59" t="n">
-        <v>370.46</v>
+        <v>370.59</v>
       </c>
       <c r="D59" t="n">
         <v>363.81</v>
@@ -6433,7 +6433,7 @@
         <v>387.1</v>
       </c>
       <c r="AD59" t="n">
-        <v>385.18</v>
+        <v>385.09</v>
       </c>
       <c r="AE59" t="n">
         <v>379.46</v>
@@ -6460,7 +6460,7 @@
         <v>383.78</v>
       </c>
       <c r="C60" t="n">
-        <v>382.3</v>
+        <v>381.96</v>
       </c>
       <c r="D60" t="n">
         <v>372.79</v>
@@ -6541,7 +6541,7 @@
         <v>394.78</v>
       </c>
       <c r="AD60" t="n">
-        <v>387.36</v>
+        <v>387.6</v>
       </c>
       <c r="AE60" t="n">
         <v>384.73</v>
@@ -6568,7 +6568,7 @@
         <v>376.4</v>
       </c>
       <c r="C61" t="n">
-        <v>369.05</v>
+        <v>368.14</v>
       </c>
       <c r="D61" t="n">
         <v>368.34</v>
@@ -6641,7 +6641,7 @@
         <v>381.46</v>
       </c>
       <c r="AD61" t="n">
-        <v>377.62</v>
+        <v>378.24</v>
       </c>
       <c r="AE61" t="n">
         <v>376.75</v>
@@ -6739,7 +6739,7 @@
         <v>380.93</v>
       </c>
       <c r="AD62" t="n">
-        <v>376.74</v>
+        <v>377.22</v>
       </c>
       <c r="AE62" t="n">
         <v>383.4</v>
@@ -6766,7 +6766,7 @@
         <v>396.64</v>
       </c>
       <c r="C63" t="n">
-        <v>399.86</v>
+        <v>400.68</v>
       </c>
       <c r="D63" t="n">
         <v>398.89</v>
@@ -6823,7 +6823,7 @@
         <v>387.75</v>
       </c>
       <c r="AD63" t="n">
-        <v>386.66</v>
+        <v>386.1</v>
       </c>
       <c r="AE63" t="n">
         <v>380.82</v>
@@ -6850,7 +6850,7 @@
         <v>383.56</v>
       </c>
       <c r="C64" t="n">
-        <v>387.19</v>
+        <v>387.38</v>
       </c>
       <c r="D64" t="n">
         <v>383.34</v>
@@ -6931,7 +6931,7 @@
         <v>397.02</v>
       </c>
       <c r="AD64" t="n">
-        <v>395.04</v>
+        <v>394.91</v>
       </c>
       <c r="AE64" t="n">
         <v>388.61</v>
@@ -6958,7 +6958,7 @@
         <v>384.06</v>
       </c>
       <c r="C65" t="n">
-        <v>379.5</v>
+        <v>378.86</v>
       </c>
       <c r="D65" t="n">
         <v>373.84</v>
@@ -7046,7 +7046,7 @@
         <v>375.95</v>
       </c>
       <c r="C66" t="n">
-        <v>372.35</v>
+        <v>372.82</v>
       </c>
       <c r="D66" t="n">
         <v>365.44</v>
@@ -7127,7 +7127,7 @@
         <v>388.24</v>
       </c>
       <c r="AD66" t="n">
-        <v>391</v>
+        <v>390.68</v>
       </c>
       <c r="AE66" t="n">
         <v>398.54</v>
@@ -7205,7 +7205,7 @@
         <v>377.7</v>
       </c>
       <c r="AD67" t="n">
-        <v>379.92</v>
+        <v>380.21</v>
       </c>
       <c r="AE67" t="n">
         <v>377.61</v>
@@ -7285,7 +7285,7 @@
         <v>400.94</v>
       </c>
       <c r="AD68" t="n">
-        <v>395.05</v>
+        <v>394.62</v>
       </c>
       <c r="AE68" t="n">
         <v>391.26</v>
@@ -7312,7 +7312,7 @@
         <v>391.1</v>
       </c>
       <c r="C69" t="n">
-        <v>382.85</v>
+        <v>381.91</v>
       </c>
       <c r="D69" t="n">
         <v>384.56</v>
@@ -7391,7 +7391,7 @@
         <v>398.96</v>
       </c>
       <c r="AD69" t="n">
-        <v>400.95</v>
+        <v>401.6</v>
       </c>
       <c r="AE69" t="n">
         <v>401.17</v>
@@ -7418,7 +7418,7 @@
         <v>381.48</v>
       </c>
       <c r="C70" t="n">
-        <v>377.23</v>
+        <v>377.43</v>
       </c>
       <c r="D70" t="n">
         <v>373.4</v>
@@ -7499,7 +7499,7 @@
         <v>399.07</v>
       </c>
       <c r="AD70" t="n">
-        <v>393.27</v>
+        <v>393.13</v>
       </c>
       <c r="AE70" t="n">
         <v>396.38</v>
@@ -7526,7 +7526,7 @@
         <v>381.44</v>
       </c>
       <c r="C71" t="n">
-        <v>377.89</v>
+        <v>377.32</v>
       </c>
       <c r="D71" t="n">
         <v>372.48</v>
@@ -7624,7 +7624,7 @@
         <v>374.03</v>
       </c>
       <c r="C72" t="n">
-        <v>366.18</v>
+        <v>366.19</v>
       </c>
       <c r="D72" t="n">
         <v>361.42</v>
@@ -7705,7 +7705,7 @@
         <v>383.38</v>
       </c>
       <c r="AD72" t="n">
-        <v>377.44</v>
+        <v>377.43</v>
       </c>
       <c r="AE72" t="n">
         <v>380.18</v>
@@ -7730,7 +7730,7 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>367.46</v>
+        <v>368.23</v>
       </c>
       <c r="D73" t="n">
         <v>363.26</v>
@@ -7805,7 +7805,7 @@
         <v>390.12</v>
       </c>
       <c r="AD73" t="n">
-        <v>387.01</v>
+        <v>386.48</v>
       </c>
       <c r="AE73" t="n">
         <v>377.93</v>
@@ -7832,7 +7832,7 @@
         <v>362.23</v>
       </c>
       <c r="C74" t="n">
-        <v>360.26</v>
+        <v>360.47</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
@@ -7911,7 +7911,7 @@
         <v>376.11</v>
       </c>
       <c r="AD74" t="n">
-        <v>373.69</v>
+        <v>373.54</v>
       </c>
       <c r="AE74" t="n">
         <v>374.79</v>
@@ -8001,7 +8001,7 @@
         <v>380.82</v>
       </c>
       <c r="AD75" t="n">
-        <v>380.18</v>
+        <v>380.44</v>
       </c>
       <c r="AE75" t="n">
         <v>380.08</v>
@@ -8087,7 +8087,7 @@
         <v>396.11</v>
       </c>
       <c r="AD76" t="n">
-        <v>381.61</v>
+        <v>382.03</v>
       </c>
       <c r="AE76" t="n">
         <v>389.57</v>
@@ -8112,7 +8112,7 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>358.18</v>
+        <v>359</v>
       </c>
       <c r="D77" t="n">
         <v>353.35</v>
@@ -8185,7 +8185,7 @@
         <v>383.39</v>
       </c>
       <c r="AD77" t="n">
-        <v>384.69</v>
+        <v>384.13</v>
       </c>
       <c r="AE77" t="inlineStr"/>
       <c r="AF77" t="n">
@@ -8210,7 +8210,7 @@
         <v>370.22</v>
       </c>
       <c r="C78" t="n">
-        <v>371.91</v>
+        <v>372.37</v>
       </c>
       <c r="D78" t="n">
         <v>368.26</v>
@@ -8291,7 +8291,7 @@
         <v>372.42</v>
       </c>
       <c r="AD78" t="n">
-        <v>375.88</v>
+        <v>375.56</v>
       </c>
       <c r="AE78" t="n">
         <v>395.28</v>
@@ -8318,7 +8318,7 @@
         <v>381.79</v>
       </c>
       <c r="C79" t="n">
-        <v>382.05</v>
+        <v>381.29</v>
       </c>
       <c r="D79" t="n">
         <v>371.5</v>
@@ -8393,7 +8393,7 @@
         <v>398.87</v>
       </c>
       <c r="AD79" t="n">
-        <v>389.98</v>
+        <v>390.49</v>
       </c>
       <c r="AE79" t="n">
         <v>390.67</v>
@@ -8502,7 +8502,7 @@
         <v>375.19</v>
       </c>
       <c r="C81" t="n">
-        <v>366.49</v>
+        <v>365.62</v>
       </c>
       <c r="D81" t="n">
         <v>360.11</v>
@@ -8583,7 +8583,7 @@
         <v>383.21</v>
       </c>
       <c r="AD81" t="n">
-        <v>379.28</v>
+        <v>379.88</v>
       </c>
       <c r="AE81" t="n">
         <v>381.35</v>
@@ -8610,7 +8610,7 @@
         <v>382.04</v>
       </c>
       <c r="C82" t="n">
-        <v>381.2</v>
+        <v>381.7</v>
       </c>
       <c r="D82" t="n">
         <v>374.22</v>
@@ -8691,7 +8691,7 @@
         <v>390.39</v>
       </c>
       <c r="AD82" t="n">
-        <v>388.47</v>
+        <v>388.12</v>
       </c>
       <c r="AE82" t="n">
         <v>387.33</v>
@@ -8718,7 +8718,7 @@
         <v>375.82</v>
       </c>
       <c r="C83" t="n">
-        <v>371.28</v>
+        <v>371.34</v>
       </c>
       <c r="D83" t="n">
         <v>366.36</v>
@@ -8799,7 +8799,7 @@
         <v>381.02</v>
       </c>
       <c r="AD83" t="n">
-        <v>374.52</v>
+        <v>374.48</v>
       </c>
       <c r="AE83" t="n">
         <v>378.76</v>
@@ -8826,7 +8826,7 @@
         <v>375.52</v>
       </c>
       <c r="C84" t="n">
-        <v>368.77</v>
+        <v>368.41</v>
       </c>
       <c r="D84" t="n">
         <v>355.9</v>
@@ -8905,7 +8905,7 @@
         <v>384.47</v>
       </c>
       <c r="AD84" t="n">
-        <v>388.79</v>
+        <v>389.04</v>
       </c>
       <c r="AE84" t="n">
         <v>385.76</v>
@@ -8930,7 +8930,7 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>375.46</v>
+        <v>376.23</v>
       </c>
       <c r="D85" t="n">
         <v>373.69</v>
@@ -9009,7 +9009,7 @@
         <v>390.15</v>
       </c>
       <c r="AD85" t="n">
-        <v>388.52</v>
+        <v>387.99</v>
       </c>
       <c r="AE85" t="n">
         <v>393.24</v>
@@ -9099,7 +9099,7 @@
         <v>373.13</v>
       </c>
       <c r="AD86" t="n">
-        <v>372.41</v>
+        <v>372.96</v>
       </c>
       <c r="AE86" t="n">
         <v>376.86</v>
@@ -9122,7 +9122,7 @@
         <v>373.17</v>
       </c>
       <c r="C87" t="n">
-        <v>363.93</v>
+        <v>363.03</v>
       </c>
       <c r="D87" t="n">
         <v>354.62</v>
@@ -9201,7 +9201,7 @@
         <v>381.89</v>
       </c>
       <c r="AD87" t="n">
-        <v>378.29</v>
+        <v>378.91</v>
       </c>
       <c r="AE87" t="n">
         <v>379.31</v>
@@ -9228,7 +9228,7 @@
         <v>382.76</v>
       </c>
       <c r="C88" t="n">
-        <v>367.86</v>
+        <v>368.53</v>
       </c>
       <c r="D88" t="n">
         <v>358.98</v>
@@ -9305,7 +9305,7 @@
         <v>391.17</v>
       </c>
       <c r="AD88" t="n">
-        <v>397.45</v>
+        <v>396.99</v>
       </c>
       <c r="AE88" t="n">
         <v>383.79</v>
@@ -9330,7 +9330,7 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>364.92</v>
+        <v>365.74</v>
       </c>
       <c r="D89" t="n">
         <v>353.4</v>
@@ -9409,7 +9409,7 @@
         <v>388.42</v>
       </c>
       <c r="AD89" t="n">
-        <v>388.45</v>
+        <v>387.89</v>
       </c>
       <c r="AE89" t="n">
         <v>374.51</v>
@@ -9436,7 +9436,7 @@
         <v>372.79</v>
       </c>
       <c r="C90" t="n">
-        <v>362.91</v>
+        <v>362.08</v>
       </c>
       <c r="D90" t="n">
         <v>357.93</v>
@@ -9517,7 +9517,7 @@
         <v>392.76</v>
       </c>
       <c r="AD90" t="n">
-        <v>384.97</v>
+        <v>385.54</v>
       </c>
       <c r="AE90" t="n">
         <v>390.15</v>
@@ -9544,7 +9544,7 @@
         <v>376.79</v>
       </c>
       <c r="C91" t="n">
-        <v>368.4</v>
+        <v>368.74</v>
       </c>
       <c r="D91" t="n">
         <v>365.16</v>
@@ -9605,7 +9605,7 @@
         <v>388.89</v>
       </c>
       <c r="AD91" t="n">
-        <v>390.76</v>
+        <v>390.52</v>
       </c>
       <c r="AE91" t="n">
         <v>389.95</v>
@@ -9632,7 +9632,7 @@
         <v>357.23</v>
       </c>
       <c r="C92" t="n">
-        <v>356.46</v>
+        <v>356.8</v>
       </c>
       <c r="D92" t="n">
         <v>357.71</v>
@@ -9713,7 +9713,7 @@
         <v>382.38</v>
       </c>
       <c r="AD92" t="n">
-        <v>383.9</v>
+        <v>383.66</v>
       </c>
       <c r="AE92" t="n">
         <v>385.71</v>
@@ -9740,7 +9740,7 @@
         <v>379.77</v>
       </c>
       <c r="C93" t="n">
-        <v>365.83</v>
+        <v>365.01</v>
       </c>
       <c r="D93" t="n">
         <v>360.06</v>
@@ -9817,7 +9817,7 @@
         <v>403.37</v>
       </c>
       <c r="AD93" t="n">
-        <v>402.61</v>
+        <v>403.17</v>
       </c>
       <c r="AE93" t="n">
         <v>399.5</v>
@@ -9879,7 +9879,7 @@
         <v>411.56</v>
       </c>
       <c r="AD94" t="n">
-        <v>373.07</v>
+        <v>372.67</v>
       </c>
       <c r="AE94" t="inlineStr"/>
       <c r="AF94" t="inlineStr"/>
@@ -9953,7 +9953,7 @@
         <v>396.25</v>
       </c>
       <c r="AD95" t="n">
-        <v>392.8</v>
+        <v>392.77</v>
       </c>
       <c r="AE95" t="n">
         <v>394.95</v>
@@ -10043,7 +10043,7 @@
         <v>383.25</v>
       </c>
       <c r="AD96" t="n">
-        <v>381.87</v>
+        <v>381.9</v>
       </c>
       <c r="AE96" t="n">
         <v>381.01</v>
@@ -10070,7 +10070,7 @@
         <v>372.98</v>
       </c>
       <c r="C97" t="n">
-        <v>362.55</v>
+        <v>363.15</v>
       </c>
       <c r="D97" t="n">
         <v>354.01</v>
@@ -10149,7 +10149,7 @@
         <v>394.17</v>
       </c>
       <c r="AD97" t="n">
-        <v>392.82</v>
+        <v>392.41</v>
       </c>
       <c r="AE97" t="n">
         <v>385.9</v>
@@ -10176,7 +10176,7 @@
         <v>365.77</v>
       </c>
       <c r="C98" t="n">
-        <v>364.17</v>
+        <v>363.9</v>
       </c>
       <c r="D98" t="n">
         <v>342.04</v>
@@ -10257,7 +10257,7 @@
         <v>381.63</v>
       </c>
       <c r="AD98" t="n">
-        <v>379.73</v>
+        <v>379.91</v>
       </c>
       <c r="AE98" t="n">
         <v>379.36</v>
@@ -10325,7 +10325,7 @@
         <v>391</v>
       </c>
       <c r="AD99" t="n">
-        <v>391.71</v>
+        <v>392.03</v>
       </c>
       <c r="AE99" t="n">
         <v>388.41</v>
@@ -10352,7 +10352,7 @@
         <v>363.94</v>
       </c>
       <c r="C100" t="n">
-        <v>363.11</v>
+        <v>362.4</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
@@ -10421,7 +10421,7 @@
         <v>382.38</v>
       </c>
       <c r="AD100" t="n">
-        <v>383.5</v>
+        <v>383.99</v>
       </c>
       <c r="AE100" t="n">
         <v>384.36</v>
@@ -10448,7 +10448,7 @@
         <v>353.71</v>
       </c>
       <c r="C101" t="n">
-        <v>357.82</v>
+        <v>358.13</v>
       </c>
       <c r="D101" t="n">
         <v>354</v>
@@ -10529,7 +10529,7 @@
         <v>378.98</v>
       </c>
       <c r="AD101" t="n">
-        <v>383.08</v>
+        <v>382.87</v>
       </c>
       <c r="AE101" t="n">
         <v>378.08</v>
@@ -10556,7 +10556,7 @@
         <v>372.06</v>
       </c>
       <c r="C102" t="n">
-        <v>376.13</v>
+        <v>375.99</v>
       </c>
       <c r="D102" t="n">
         <v>383.42</v>
@@ -10637,7 +10637,7 @@
         <v>401.62</v>
       </c>
       <c r="AD102" t="n">
-        <v>397.02</v>
+        <v>397.11</v>
       </c>
       <c r="AE102" t="n">
         <v>403.55</v>
@@ -10664,7 +10664,7 @@
         <v>368.01</v>
       </c>
       <c r="C103" t="n">
-        <v>355.69</v>
+        <v>354.83</v>
       </c>
       <c r="D103" t="n">
         <v>348.76</v>
@@ -10739,7 +10739,7 @@
         <v>380.74</v>
       </c>
       <c r="AD103" t="n">
-        <v>375.23</v>
+        <v>375.82</v>
       </c>
       <c r="AE103" t="n">
         <v>378.43</v>
@@ -10766,7 +10766,7 @@
         <v>385.28</v>
       </c>
       <c r="C104" t="n">
-        <v>380.91</v>
+        <v>381.35</v>
       </c>
       <c r="D104" t="n">
         <v>374.25</v>
@@ -10847,7 +10847,7 @@
         <v>399.8</v>
       </c>
       <c r="AD104" t="n">
-        <v>400.28</v>
+        <v>399.97</v>
       </c>
       <c r="AE104" t="n">
         <v>399.66</v>
@@ -10874,7 +10874,7 @@
         <v>382.16</v>
       </c>
       <c r="C105" t="n">
-        <v>370.64</v>
+        <v>371.34</v>
       </c>
       <c r="D105" t="n">
         <v>364.88</v>
@@ -10955,7 +10955,7 @@
         <v>389.26</v>
       </c>
       <c r="AD105" t="n">
-        <v>387.61</v>
+        <v>387.13</v>
       </c>
       <c r="AE105" t="n">
         <v>389.12</v>
@@ -10982,7 +10982,7 @@
         <v>375.88</v>
       </c>
       <c r="C106" t="n">
-        <v>366.7</v>
+        <v>365.77</v>
       </c>
       <c r="D106" t="n">
         <v>368.26</v>
@@ -11061,7 +11061,7 @@
         <v>389.73</v>
       </c>
       <c r="AD106" t="n">
-        <v>381.91</v>
+        <v>382.54</v>
       </c>
       <c r="AE106" t="n">
         <v>387.28</v>
@@ -11088,7 +11088,7 @@
         <v>380.43</v>
       </c>
       <c r="C107" t="n">
-        <v>370.15</v>
+        <v>370.65</v>
       </c>
       <c r="D107" t="n">
         <v>359.72</v>
@@ -11169,7 +11169,7 @@
         <v>388.22</v>
       </c>
       <c r="AD107" t="n">
-        <v>388.08</v>
+        <v>387.74</v>
       </c>
       <c r="AE107" t="n">
         <v>385.4</v>
@@ -11196,7 +11196,7 @@
         <v>369.59</v>
       </c>
       <c r="C108" t="n">
-        <v>357.06</v>
+        <v>356.87</v>
       </c>
       <c r="D108" t="n">
         <v>348.59</v>
@@ -11277,7 +11277,7 @@
         <v>385.26</v>
       </c>
       <c r="AD108" t="n">
-        <v>376.42</v>
+        <v>376.55</v>
       </c>
       <c r="AE108" t="n">
         <v>380.62</v>
@@ -11304,7 +11304,7 @@
         <v>367.53</v>
       </c>
       <c r="C109" t="n">
-        <v>365.71</v>
+        <v>365.35</v>
       </c>
       <c r="D109" t="n">
         <v>354.86</v>
@@ -11385,7 +11385,7 @@
         <v>383.96</v>
       </c>
       <c r="AD109" t="n">
-        <v>389.67</v>
+        <v>389.92</v>
       </c>
       <c r="AE109" t="n">
         <v>386.25</v>
@@ -11412,7 +11412,7 @@
         <v>366.48</v>
       </c>
       <c r="C110" t="n">
-        <v>361.06</v>
+        <v>361.45</v>
       </c>
       <c r="D110" t="n">
         <v>355.51</v>
@@ -11491,7 +11491,7 @@
         <v>387.02</v>
       </c>
       <c r="AD110" t="n">
-        <v>382.8</v>
+        <v>382.54</v>
       </c>
       <c r="AE110" t="n">
         <v>382.49</v>
@@ -11518,7 +11518,7 @@
         <v>379.03</v>
       </c>
       <c r="C111" t="n">
-        <v>367.3</v>
+        <v>366.8</v>
       </c>
       <c r="D111" t="n">
         <v>356.01</v>
@@ -11599,7 +11599,7 @@
         <v>403.22</v>
       </c>
       <c r="AD111" t="n">
-        <v>398.65</v>
+        <v>398.99</v>
       </c>
       <c r="AE111" t="n">
         <v>394.16</v>
@@ -11626,7 +11626,7 @@
         <v>357.25</v>
       </c>
       <c r="C112" t="n">
-        <v>356.01</v>
+        <v>355.87</v>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="n">
@@ -11705,7 +11705,7 @@
         <v>390.9</v>
       </c>
       <c r="AD112" t="n">
-        <v>382.54</v>
+        <v>382.63</v>
       </c>
       <c r="AE112" t="n">
         <v>382.44</v>
@@ -11732,7 +11732,7 @@
         <v>357.47</v>
       </c>
       <c r="C113" t="n">
-        <v>348.2</v>
+        <v>347.53</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
@@ -11807,7 +11807,7 @@
         <v>379.73</v>
       </c>
       <c r="AD113" t="n">
-        <v>375.66</v>
+        <v>376.12</v>
       </c>
       <c r="AE113" t="n">
         <v>371.48</v>
@@ -11877,7 +11877,7 @@
         <v>370.35</v>
       </c>
       <c r="AD114" t="n">
-        <v>378.9</v>
+        <v>378.34</v>
       </c>
       <c r="AE114" t="n">
         <v>396.26</v>
@@ -11904,7 +11904,7 @@
         <v>358.5</v>
       </c>
       <c r="C115" t="n">
-        <v>355.94</v>
+        <v>355.74</v>
       </c>
       <c r="D115" t="n">
         <v>352.7</v>
@@ -11985,7 +11985,7 @@
         <v>384.13</v>
       </c>
       <c r="AD115" t="n">
-        <v>381.01</v>
+        <v>381.15</v>
       </c>
       <c r="AE115" t="n">
         <v>382.64</v>
@@ -12012,7 +12012,7 @@
         <v>367.95</v>
       </c>
       <c r="C116" t="n">
-        <v>359.29</v>
+        <v>358.73</v>
       </c>
       <c r="D116" t="n">
         <v>356.1</v>
@@ -12093,7 +12093,7 @@
         <v>388.24</v>
       </c>
       <c r="AD116" t="n">
-        <v>395.87</v>
+        <v>396.25</v>
       </c>
       <c r="AE116" t="n">
         <v>392.93</v>
@@ -12120,7 +12120,7 @@
         <v>373.42</v>
       </c>
       <c r="C117" t="n">
-        <v>357.01</v>
+        <v>357.74</v>
       </c>
       <c r="D117" t="n">
         <v>386.62</v>
@@ -12201,7 +12201,7 @@
         <v>388.31</v>
       </c>
       <c r="AD117" t="n">
-        <v>393.43</v>
+        <v>392.93</v>
       </c>
       <c r="AE117" t="n">
         <v>387.07</v>
@@ -12228,7 +12228,7 @@
         <v>365.27</v>
       </c>
       <c r="C118" t="n">
-        <v>362.59</v>
+        <v>363.15</v>
       </c>
       <c r="D118" t="n">
         <v>360.72</v>
@@ -12307,7 +12307,7 @@
         <v>378.56</v>
       </c>
       <c r="AD118" t="n">
-        <v>380.07</v>
+        <v>379.69</v>
       </c>
       <c r="AE118" t="n">
         <v>376.1</v>
@@ -12393,7 +12393,7 @@
         <v>376.83</v>
       </c>
       <c r="AD119" t="n">
-        <v>378.13</v>
+        <v>378.39</v>
       </c>
       <c r="AE119" t="n">
         <v>376.38</v>
@@ -12420,7 +12420,7 @@
         <v>389.7</v>
       </c>
       <c r="C120" t="n">
-        <v>373.61</v>
+        <v>374.14</v>
       </c>
       <c r="D120" t="n">
         <v>365.7</v>
@@ -12501,7 +12501,7 @@
         <v>395.7</v>
       </c>
       <c r="AD120" t="n">
-        <v>392.33</v>
+        <v>391.96</v>
       </c>
       <c r="AE120" t="n">
         <v>390.58</v>
@@ -12528,7 +12528,7 @@
         <v>362.48</v>
       </c>
       <c r="C121" t="n">
-        <v>356.22</v>
+        <v>355.29</v>
       </c>
       <c r="D121" t="n">
         <v>345.87</v>
@@ -12607,7 +12607,7 @@
         <v>382.7</v>
       </c>
       <c r="AD121" t="n">
-        <v>380.55</v>
+        <v>381.18</v>
       </c>
       <c r="AE121" t="n">
         <v>381.43</v>
@@ -12634,7 +12634,7 @@
         <v>361.32</v>
       </c>
       <c r="C122" t="n">
-        <v>362.56</v>
+        <v>363.02</v>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="n">
@@ -12713,7 +12713,7 @@
         <v>387.67</v>
       </c>
       <c r="AD122" t="n">
-        <v>387.05</v>
+        <v>386.73</v>
       </c>
       <c r="AE122" t="n">
         <v>382.42</v>
@@ -12853,7 +12853,7 @@
         <v>394.11</v>
       </c>
       <c r="AD124" t="n">
-        <v>391.27</v>
+        <v>391.53</v>
       </c>
       <c r="AE124" t="n">
         <v>385.31</v>
@@ -12947,7 +12947,7 @@
         <v>386.99</v>
       </c>
       <c r="AD125" t="n">
-        <v>385.23</v>
+        <v>385.22</v>
       </c>
       <c r="AE125" t="n">
         <v>381.49</v>
@@ -12974,7 +12974,7 @@
         <v>374.93</v>
       </c>
       <c r="C126" t="n">
-        <v>371.54</v>
+        <v>371.61</v>
       </c>
       <c r="D126" t="n">
         <v>373.37</v>
@@ -13055,7 +13055,7 @@
         <v>388.52</v>
       </c>
       <c r="AD126" t="n">
-        <v>386.24</v>
+        <v>386.19</v>
       </c>
       <c r="AE126" t="n">
         <v>382.41</v>
@@ -13082,7 +13082,7 @@
         <v>369.87</v>
       </c>
       <c r="C127" t="n">
-        <v>370.21</v>
+        <v>369.54</v>
       </c>
       <c r="D127" t="n">
         <v>369.22</v>
@@ -13163,7 +13163,7 @@
         <v>389.37</v>
       </c>
       <c r="AD127" t="n">
-        <v>382.85</v>
+        <v>383.31</v>
       </c>
       <c r="AE127" t="n">
         <v>386.73</v>
@@ -13190,7 +13190,7 @@
         <v>377.94</v>
       </c>
       <c r="C128" t="n">
-        <v>370.58</v>
+        <v>371.28</v>
       </c>
       <c r="D128" t="n">
         <v>368.67</v>
@@ -13271,7 +13271,7 @@
         <v>386.28</v>
       </c>
       <c r="AD128" t="n">
-        <v>383.03</v>
+        <v>382.54</v>
       </c>
       <c r="AE128" t="n">
         <v>378.07</v>
@@ -13298,7 +13298,7 @@
         <v>372.74</v>
       </c>
       <c r="C129" t="n">
-        <v>362.64</v>
+        <v>363.01</v>
       </c>
       <c r="D129" t="n">
         <v>354.88</v>
@@ -13379,7 +13379,7 @@
         <v>367.8</v>
       </c>
       <c r="AD129" t="n">
-        <v>373.43</v>
+        <v>373.17</v>
       </c>
       <c r="AE129" t="n">
         <v>374.34</v>
@@ -13406,7 +13406,7 @@
         <v>383</v>
       </c>
       <c r="C130" t="n">
-        <v>370.07</v>
+        <v>370.11</v>
       </c>
       <c r="D130" t="n">
         <v>361.87</v>
@@ -13569,7 +13569,7 @@
         <v>391.99</v>
       </c>
       <c r="AD131" t="n">
-        <v>391.02</v>
+        <v>390.95</v>
       </c>
       <c r="AE131" t="n">
         <v>387.95</v>
@@ -13661,7 +13661,7 @@
         <v>383.92</v>
       </c>
       <c r="AD132" t="n">
-        <v>376.17</v>
+        <v>375.57</v>
       </c>
       <c r="AE132" t="n">
         <v>373.06</v>
@@ -13739,7 +13739,7 @@
         <v>395.68</v>
       </c>
       <c r="AD133" t="n">
-        <v>381.43</v>
+        <v>381.99</v>
       </c>
       <c r="AE133" t="n">
         <v>387.37</v>
@@ -13766,7 +13766,7 @@
         <v>363.53</v>
       </c>
       <c r="C134" t="n">
-        <v>362.61</v>
+        <v>363.04</v>
       </c>
       <c r="D134" t="n">
         <v>354.07</v>
@@ -13847,7 +13847,7 @@
         <v>384.21</v>
       </c>
       <c r="AD134" t="n">
-        <v>387.08</v>
+        <v>386.79</v>
       </c>
       <c r="AE134" t="n">
         <v>388.43</v>
@@ -13874,7 +13874,7 @@
         <v>391.87</v>
       </c>
       <c r="C135" t="n">
-        <v>376.83</v>
+        <v>376.99</v>
       </c>
       <c r="D135" t="n">
         <v>363.51</v>
@@ -13955,7 +13955,7 @@
         <v>402.55</v>
       </c>
       <c r="AD135" t="n">
-        <v>397.62</v>
+        <v>397.52</v>
       </c>
       <c r="AE135" t="n">
         <v>407.68</v>
@@ -13982,7 +13982,7 @@
         <v>369.94</v>
       </c>
       <c r="C136" t="n">
-        <v>359.39</v>
+        <v>358.79</v>
       </c>
       <c r="D136" t="n">
         <v>352.09</v>
@@ -14063,7 +14063,7 @@
         <v>379.87</v>
       </c>
       <c r="AD136" t="n">
-        <v>380.01</v>
+        <v>380.42</v>
       </c>
       <c r="AE136" t="n">
         <v>382.82</v>
@@ -14090,7 +14090,7 @@
         <v>383.2</v>
       </c>
       <c r="C137" t="n">
-        <v>373.39</v>
+        <v>374.08</v>
       </c>
       <c r="D137" t="n">
         <v>354.83</v>
@@ -14169,7 +14169,7 @@
         <v>393.16</v>
       </c>
       <c r="AD137" t="n">
-        <v>387.61</v>
+        <v>387.14</v>
       </c>
       <c r="AE137" t="n">
         <v>383.02</v>
@@ -14196,7 +14196,7 @@
         <v>374.32</v>
       </c>
       <c r="C138" t="n">
-        <v>371.95</v>
+        <v>371.79</v>
       </c>
       <c r="D138" t="n">
         <v>371.87</v>
@@ -14275,7 +14275,7 @@
         <v>394.36</v>
       </c>
       <c r="AD138" t="n">
-        <v>390.42</v>
+        <v>390.53</v>
       </c>
       <c r="AE138" t="n">
         <v>390.09</v>
@@ -14302,7 +14302,7 @@
         <v>381.29</v>
       </c>
       <c r="C139" t="n">
-        <v>377.87</v>
+        <v>377.17</v>
       </c>
       <c r="D139" t="n">
         <v>370.72</v>
@@ -14359,7 +14359,7 @@
         <v>403.17</v>
       </c>
       <c r="AD139" t="n">
-        <v>397.05</v>
+        <v>397.53</v>
       </c>
       <c r="AE139" t="n">
         <v>390.51</v>
@@ -14386,7 +14386,7 @@
         <v>363.34</v>
       </c>
       <c r="C140" t="n">
-        <v>361.72</v>
+        <v>362.14</v>
       </c>
       <c r="D140" t="n">
         <v>356.73</v>
@@ -14459,7 +14459,7 @@
         <v>392.51</v>
       </c>
       <c r="AD140" t="n">
-        <v>391.54</v>
+        <v>391.25</v>
       </c>
       <c r="AE140" t="n">
         <v>379.6</v>
@@ -14482,7 +14482,7 @@
         <v>388.4</v>
       </c>
       <c r="C141" t="n">
-        <v>375.69</v>
+        <v>374.69</v>
       </c>
       <c r="D141" t="n">
         <v>363.51</v>
@@ -14559,7 +14559,7 @@
         <v>408.79</v>
       </c>
       <c r="AD141" t="n">
-        <v>404.05</v>
+        <v>404.73</v>
       </c>
       <c r="AE141" t="n">
         <v>398.92</v>
@@ -14586,7 +14586,7 @@
         <v>404.33</v>
       </c>
       <c r="C142" t="n">
-        <v>392.22</v>
+        <v>391.28</v>
       </c>
       <c r="D142" t="n">
         <v>395.51</v>
@@ -14661,7 +14661,7 @@
         <v>411.55</v>
       </c>
       <c r="AD142" t="n">
-        <v>403.43</v>
+        <v>404.08</v>
       </c>
       <c r="AE142" t="n">
         <v>404.4</v>
@@ -14688,7 +14688,7 @@
         <v>366.79</v>
       </c>
       <c r="C143" t="n">
-        <v>364.55</v>
+        <v>364.96</v>
       </c>
       <c r="D143" t="n">
         <v>358.19</v>
@@ -14776,7 +14776,7 @@
         <v>381.22</v>
       </c>
       <c r="C144" t="n">
-        <v>373.43</v>
+        <v>373.62</v>
       </c>
       <c r="D144" t="n">
         <v>372.25</v>
@@ -14857,7 +14857,7 @@
         <v>399.54</v>
       </c>
       <c r="AD144" t="n">
-        <v>394.17</v>
+        <v>394.04</v>
       </c>
       <c r="AE144" t="n">
         <v>391.23</v>
@@ -14882,7 +14882,7 @@
         <v>372.53</v>
       </c>
       <c r="C145" t="n">
-        <v>363.08</v>
+        <v>362.18</v>
       </c>
       <c r="D145" t="n">
         <v>360.07</v>
@@ -14963,7 +14963,7 @@
         <v>385.08</v>
       </c>
       <c r="AD145" t="n">
-        <v>380.37</v>
+        <v>380.99</v>
       </c>
       <c r="AE145" t="n">
         <v>387.63</v>
@@ -14990,7 +14990,7 @@
         <v>385.98</v>
       </c>
       <c r="C146" t="n">
-        <v>377.98</v>
+        <v>378.67</v>
       </c>
       <c r="D146" t="n">
         <v>370.06</v>
@@ -15071,7 +15071,7 @@
         <v>394.44</v>
       </c>
       <c r="AD146" t="n">
-        <v>391.19</v>
+        <v>390.72</v>
       </c>
       <c r="AE146" t="n">
         <v>396.11</v>
@@ -15098,7 +15098,7 @@
         <v>357.87</v>
       </c>
       <c r="C147" t="n">
-        <v>358.91</v>
+        <v>358.47</v>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="n">
@@ -15182,7 +15182,7 @@
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="n">
-        <v>349.17</v>
+        <v>349.78</v>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
@@ -15259,7 +15259,7 @@
         <v>376.83</v>
       </c>
       <c r="AD148" t="n">
-        <v>370.51</v>
+        <v>370.09</v>
       </c>
       <c r="AE148" t="n">
         <v>373.12</v>
@@ -15286,7 +15286,7 @@
         <v>383.54</v>
       </c>
       <c r="C149" t="n">
-        <v>371</v>
+        <v>371.5</v>
       </c>
       <c r="D149" t="n">
         <v>368.11</v>
@@ -15367,7 +15367,7 @@
         <v>392.69</v>
       </c>
       <c r="AD149" t="n">
-        <v>390.47</v>
+        <v>390.12</v>
       </c>
       <c r="AE149" t="n">
         <v>389.33</v>
@@ -15394,7 +15394,7 @@
         <v>377.11</v>
       </c>
       <c r="C150" t="n">
-        <v>373.1</v>
+        <v>373.56</v>
       </c>
       <c r="D150" t="n">
         <v>364.94</v>
@@ -15473,7 +15473,7 @@
         <v>395.28</v>
       </c>
       <c r="AD150" t="n">
-        <v>393.36</v>
+        <v>393.04</v>
       </c>
       <c r="AE150" t="n">
         <v>390.83</v>
@@ -15500,7 +15500,7 @@
         <v>368.32</v>
       </c>
       <c r="C151" t="n">
-        <v>357.54</v>
+        <v>357.1</v>
       </c>
       <c r="D151" t="n">
         <v>350.14</v>
@@ -15581,7 +15581,7 @@
         <v>381.21</v>
       </c>
       <c r="AD151" t="n">
-        <v>379.21</v>
+        <v>379.51</v>
       </c>
       <c r="AE151" t="n">
         <v>382.65</v>
@@ -15608,7 +15608,7 @@
         <v>396.17</v>
       </c>
       <c r="C152" t="n">
-        <v>384.48</v>
+        <v>385.24</v>
       </c>
       <c r="D152" t="n">
         <v>374.4</v>
@@ -15706,7 +15706,7 @@
         <v>359.75</v>
       </c>
       <c r="C153" t="n">
-        <v>359.93</v>
+        <v>359.23</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="n">
@@ -15785,7 +15785,7 @@
         <v>392</v>
       </c>
       <c r="AD153" t="n">
-        <v>394.39</v>
+        <v>394.87</v>
       </c>
       <c r="AE153" t="n">
         <v>387.11</v>
@@ -15885,7 +15885,7 @@
         <v>385.71</v>
       </c>
       <c r="AD154" t="n">
-        <v>378.46</v>
+        <v>379.05</v>
       </c>
       <c r="AE154" t="n">
         <v>379.72</v>
@@ -15910,7 +15910,7 @@
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="n">
-        <v>366.51</v>
+        <v>366.44</v>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="n">
@@ -15989,7 +15989,7 @@
         <v>396.99</v>
       </c>
       <c r="AD155" t="n">
-        <v>392.93</v>
+        <v>392.98</v>
       </c>
       <c r="AE155" t="n">
         <v>391.28</v>
@@ -16016,7 +16016,7 @@
         <v>385.12</v>
       </c>
       <c r="C156" t="n">
-        <v>376.91</v>
+        <v>377.49</v>
       </c>
       <c r="D156" t="n">
         <v>359.76</v>
@@ -16095,7 +16095,7 @@
         <v>390.42</v>
       </c>
       <c r="AD156" t="n">
-        <v>391.32</v>
+        <v>390.92</v>
       </c>
       <c r="AE156" t="n">
         <v>386.03</v>
@@ -16194,7 +16194,7 @@
         <v>372.58</v>
       </c>
       <c r="C158" t="n">
-        <v>368.85</v>
+        <v>369.45</v>
       </c>
       <c r="D158" t="n">
         <v>351.01</v>
@@ -16273,7 +16273,7 @@
         <v>378.08</v>
       </c>
       <c r="AD158" t="n">
-        <v>382.24</v>
+        <v>381.83</v>
       </c>
       <c r="AE158" t="n">
         <v>378.19</v>
@@ -16300,7 +16300,7 @@
         <v>392.9</v>
       </c>
       <c r="C159" t="n">
-        <v>386.64</v>
+        <v>386.95</v>
       </c>
       <c r="D159" t="n">
         <v>379.39</v>
@@ -16377,7 +16377,7 @@
         <v>404.51</v>
       </c>
       <c r="AD159" t="n">
-        <v>403.61</v>
+        <v>403.4</v>
       </c>
       <c r="AE159" t="n">
         <v>404.86</v>
@@ -16404,7 +16404,7 @@
         <v>384.94</v>
       </c>
       <c r="C160" t="n">
-        <v>380.26</v>
+        <v>380.99</v>
       </c>
       <c r="D160" t="n">
         <v>370.86</v>
@@ -16481,7 +16481,7 @@
         <v>408.14</v>
       </c>
       <c r="AD160" t="n">
-        <v>407.31</v>
+        <v>406.81</v>
       </c>
       <c r="AE160" t="n">
         <v>405.07</v>
@@ -16508,7 +16508,7 @@
         <v>375.86</v>
       </c>
       <c r="C161" t="n">
-        <v>374.98</v>
+        <v>374.67</v>
       </c>
       <c r="D161" t="n">
         <v>378.26</v>
@@ -16589,7 +16589,7 @@
         <v>392.27</v>
       </c>
       <c r="AD161" t="n">
-        <v>389.94</v>
+        <v>390.15</v>
       </c>
       <c r="AE161" t="n">
         <v>386.17</v>
@@ -16616,7 +16616,7 @@
         <v>382.8</v>
       </c>
       <c r="C162" t="n">
-        <v>376.6</v>
+        <v>375.9</v>
       </c>
       <c r="D162" t="n">
         <v>375.56</v>
@@ -16704,7 +16704,7 @@
         <v>383.01</v>
       </c>
       <c r="C163" t="n">
-        <v>375.3</v>
+        <v>374.54</v>
       </c>
       <c r="D163" t="n">
         <v>372.11</v>
@@ -16785,7 +16785,7 @@
         <v>397.7</v>
       </c>
       <c r="AD163" t="n">
-        <v>400.76</v>
+        <v>401.27</v>
       </c>
       <c r="AE163" t="n">
         <v>393.36</v>
@@ -16812,7 +16812,7 @@
         <v>372.82</v>
       </c>
       <c r="C164" t="n">
-        <v>360.32</v>
+        <v>360.91</v>
       </c>
       <c r="D164" t="n">
         <v>348.33</v>
@@ -16893,7 +16893,7 @@
         <v>391.25</v>
       </c>
       <c r="AD164" t="n">
-        <v>388.64</v>
+        <v>388.24</v>
       </c>
       <c r="AE164" t="n">
         <v>382.4</v>
@@ -16920,7 +16920,7 @@
         <v>386.81</v>
       </c>
       <c r="C165" t="n">
-        <v>372.87</v>
+        <v>373.26</v>
       </c>
       <c r="D165" t="n">
         <v>366.11</v>
@@ -17001,7 +17001,7 @@
         <v>395.79</v>
       </c>
       <c r="AD165" t="n">
-        <v>393.88</v>
+        <v>393.62</v>
       </c>
       <c r="AE165" t="n">
         <v>391.52</v>
@@ -17134,7 +17134,7 @@
         <v>385.22</v>
       </c>
       <c r="C167" t="n">
-        <v>371.35</v>
+        <v>371.19</v>
       </c>
       <c r="D167" t="n">
         <v>367.58</v>
@@ -17215,7 +17215,7 @@
         <v>401.01</v>
       </c>
       <c r="AD167" t="n">
-        <v>395.55</v>
+        <v>395.66</v>
       </c>
       <c r="AE167" t="n">
         <v>394.15</v>
@@ -17242,7 +17242,7 @@
         <v>376.14</v>
       </c>
       <c r="C168" t="n">
-        <v>367.29</v>
+        <v>366.79</v>
       </c>
       <c r="D168" t="n">
         <v>359.39</v>
@@ -17323,7 +17323,7 @@
         <v>388.19</v>
       </c>
       <c r="AD168" t="n">
-        <v>379.76</v>
+        <v>380.11</v>
       </c>
       <c r="AE168" t="n">
         <v>386.66</v>
@@ -17403,7 +17403,7 @@
         <v>410.22</v>
       </c>
       <c r="AD169" t="n">
-        <v>410.84</v>
+        <v>410.4</v>
       </c>
       <c r="AE169" t="n">
         <v>402.26</v>
@@ -17428,7 +17428,7 @@
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>366.29</v>
+        <v>366.03</v>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
@@ -17505,7 +17505,7 @@
         <v>389.94</v>
       </c>
       <c r="AD170" t="n">
-        <v>387.92</v>
+        <v>388.1</v>
       </c>
       <c r="AE170" t="n">
         <v>383.41</v>
@@ -17657,7 +17657,7 @@
         <v>392.85</v>
       </c>
       <c r="AD172" t="n">
-        <v>391.09</v>
+        <v>391.49</v>
       </c>
       <c r="AE172" t="n">
         <v>386.18</v>
@@ -17684,7 +17684,7 @@
         <v>392.71</v>
       </c>
       <c r="C173" t="n">
-        <v>389.12</v>
+        <v>388.48</v>
       </c>
       <c r="D173" t="n">
         <v>381.36</v>
@@ -17765,7 +17765,7 @@
         <v>399.55</v>
       </c>
       <c r="AD173" t="n">
-        <v>393.79</v>
+        <v>394.23</v>
       </c>
       <c r="AE173" t="n">
         <v>393.87</v>
@@ -17847,7 +17847,7 @@
         <v>388.51</v>
       </c>
       <c r="AD174" t="n">
-        <v>380.71</v>
+        <v>381.17</v>
       </c>
       <c r="AE174" t="n">
         <v>387.81</v>
@@ -17874,7 +17874,7 @@
         <v>391.48</v>
       </c>
       <c r="C175" t="n">
-        <v>389.85</v>
+        <v>390.22</v>
       </c>
       <c r="D175" t="n">
         <v>381.21</v>
@@ -17955,7 +17955,7 @@
         <v>401.01</v>
       </c>
       <c r="AD175" t="n">
-        <v>402.15</v>
+        <v>401.89</v>
       </c>
       <c r="AE175" t="n">
         <v>406.54</v>
@@ -17982,7 +17982,7 @@
         <v>388.28</v>
       </c>
       <c r="C176" t="n">
-        <v>387.58</v>
+        <v>386.91</v>
       </c>
       <c r="D176" t="n">
         <v>388.45</v>
@@ -18061,7 +18061,7 @@
         <v>382.38</v>
       </c>
       <c r="AD176" t="n">
-        <v>381.08</v>
+        <v>381.54</v>
       </c>
       <c r="AE176" t="n">
         <v>381.99</v>
@@ -18088,7 +18088,7 @@
         <v>386.23</v>
       </c>
       <c r="C177" t="n">
-        <v>380.36</v>
+        <v>381.06</v>
       </c>
       <c r="D177" t="n">
         <v>375.47</v>
@@ -18169,7 +18169,7 @@
         <v>403.56</v>
       </c>
       <c r="AD177" t="n">
-        <v>405.26</v>
+        <v>404.78</v>
       </c>
       <c r="AE177" t="n">
         <v>402.92</v>
@@ -18196,7 +18196,7 @@
         <v>392.63</v>
       </c>
       <c r="C178" t="n">
-        <v>382.51</v>
+        <v>382.12</v>
       </c>
       <c r="D178" t="n">
         <v>379.41</v>
@@ -18277,7 +18277,7 @@
         <v>400.64</v>
       </c>
       <c r="AD178" t="n">
-        <v>396.45</v>
+        <v>396.71</v>
       </c>
       <c r="AE178" t="n">
         <v>390.89</v>
@@ -18304,7 +18304,7 @@
         <v>388.09</v>
       </c>
       <c r="C179" t="n">
-        <v>376.77</v>
+        <v>376.88</v>
       </c>
       <c r="D179" t="n">
         <v>379.63</v>
@@ -18385,7 +18385,7 @@
         <v>395.37</v>
       </c>
       <c r="AD179" t="n">
-        <v>392.4</v>
+        <v>392.32</v>
       </c>
       <c r="AE179" t="n">
         <v>398.97</v>
@@ -18412,7 +18412,7 @@
         <v>390.87</v>
       </c>
       <c r="C180" t="n">
-        <v>384.53</v>
+        <v>383.87</v>
       </c>
       <c r="D180" t="n">
         <v>382.16</v>
@@ -18493,7 +18493,7 @@
         <v>398.01</v>
       </c>
       <c r="AD180" t="n">
-        <v>396.54</v>
+        <v>396.99</v>
       </c>
       <c r="AE180" t="n">
         <v>394.23</v>
@@ -18520,7 +18520,7 @@
         <v>362.68</v>
       </c>
       <c r="C181" t="n">
-        <v>360.78</v>
+        <v>361.17</v>
       </c>
       <c r="D181" t="n">
         <v>354.95</v>
@@ -18595,7 +18595,7 @@
         <v>411.62</v>
       </c>
       <c r="AD181" t="n">
-        <v>406.87</v>
+        <v>406.61</v>
       </c>
       <c r="AE181" t="n">
         <v>403.43</v>
@@ -18622,7 +18622,7 @@
         <v>375.34</v>
       </c>
       <c r="C182" t="n">
-        <v>372.37</v>
+        <v>371.76</v>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="n">
@@ -18699,7 +18699,7 @@
         <v>398.73</v>
       </c>
       <c r="AD182" t="n">
-        <v>390.37</v>
+        <v>390.79</v>
       </c>
       <c r="AE182" t="n">
         <v>390.88</v>
@@ -18726,7 +18726,7 @@
         <v>382.08</v>
       </c>
       <c r="C183" t="n">
-        <v>380.32</v>
+        <v>380.82</v>
       </c>
       <c r="D183" t="n">
         <v>378.63</v>
@@ -18783,7 +18783,7 @@
         <v>385.07</v>
       </c>
       <c r="AD183" t="n">
-        <v>385.07</v>
+        <v>384.73</v>
       </c>
       <c r="AE183" t="inlineStr"/>
       <c r="AF183" t="inlineStr"/>
@@ -18851,7 +18851,7 @@
         <v>389.83</v>
       </c>
       <c r="AD184" t="n">
-        <v>392.87</v>
+        <v>393.36</v>
       </c>
       <c r="AE184" t="n">
         <v>391.93</v>
@@ -18876,7 +18876,7 @@
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="n">
-        <v>353.43</v>
+        <v>353.77</v>
       </c>
       <c r="D185" t="n">
         <v>352.09</v>
@@ -18955,7 +18955,7 @@
         <v>389.83</v>
       </c>
       <c r="AD185" t="n">
-        <v>387.85</v>
+        <v>387.61</v>
       </c>
       <c r="AE185" t="n">
         <v>386.12</v>
@@ -18982,7 +18982,7 @@
         <v>381.5</v>
       </c>
       <c r="C186" t="n">
-        <v>369.85</v>
+        <v>370.61</v>
       </c>
       <c r="D186" t="n">
         <v>364.6</v>
@@ -19063,7 +19063,7 @@
         <v>397.52</v>
       </c>
       <c r="AD186" t="n">
-        <v>402.9</v>
+        <v>402.38</v>
       </c>
       <c r="AE186" t="n">
         <v>401.36</v>
@@ -19090,7 +19090,7 @@
         <v>380.99</v>
       </c>
       <c r="C187" t="n">
-        <v>374.35</v>
+        <v>374.13</v>
       </c>
       <c r="D187" t="n">
         <v>369.56</v>
@@ -19171,7 +19171,7 @@
         <v>401.13</v>
       </c>
       <c r="AD187" t="n">
-        <v>396.71</v>
+        <v>396.86</v>
       </c>
       <c r="AE187" t="n">
         <v>396.53</v>
@@ -19229,7 +19229,7 @@
         <v>397.22</v>
       </c>
       <c r="AD188" t="n">
-        <v>392.51</v>
+        <v>392.66</v>
       </c>
       <c r="AE188" t="n">
         <v>388.44</v>
@@ -19256,7 +19256,7 @@
         <v>382.58</v>
       </c>
       <c r="C189" t="n">
-        <v>383.29</v>
+        <v>383.76</v>
       </c>
       <c r="D189" t="n">
         <v>378.25</v>
@@ -19337,7 +19337,7 @@
         <v>397.32</v>
       </c>
       <c r="AD189" t="n">
-        <v>406</v>
+        <v>405.68</v>
       </c>
       <c r="AE189" t="n">
         <v>402.6</v>
@@ -19441,7 +19441,7 @@
         <v>394.54</v>
       </c>
       <c r="AD190" t="n">
-        <v>390.78</v>
+        <v>390.46</v>
       </c>
       <c r="AE190" t="n">
         <v>390.56</v>
@@ -19468,7 +19468,7 @@
         <v>379.74</v>
       </c>
       <c r="C191" t="n">
-        <v>382.24</v>
+        <v>381.8</v>
       </c>
       <c r="D191" t="n">
         <v>375.23</v>
@@ -19549,7 +19549,7 @@
         <v>399.73</v>
       </c>
       <c r="AD191" t="n">
-        <v>395.7</v>
+        <v>396</v>
       </c>
       <c r="AE191" t="n">
         <v>393.43</v>
@@ -19576,7 +19576,7 @@
         <v>376.14</v>
       </c>
       <c r="C192" t="n">
-        <v>369.21</v>
+        <v>369.74</v>
       </c>
       <c r="D192" t="n">
         <v>365.02</v>
@@ -19653,7 +19653,7 @@
         <v>392.46</v>
       </c>
       <c r="AD192" t="n">
-        <v>389.74</v>
+        <v>389.38</v>
       </c>
       <c r="AE192" t="n">
         <v>380.62</v>
@@ -19680,7 +19680,7 @@
         <v>376.32</v>
       </c>
       <c r="C193" t="n">
-        <v>370</v>
+        <v>369.02</v>
       </c>
       <c r="D193" t="n">
         <v>375.46</v>
@@ -19757,7 +19757,7 @@
         <v>387.4</v>
       </c>
       <c r="AD193" t="n">
-        <v>383.69</v>
+        <v>384.37</v>
       </c>
       <c r="AE193" t="n">
         <v>388.62</v>
@@ -19784,7 +19784,7 @@
         <v>385.19</v>
       </c>
       <c r="C194" t="n">
-        <v>377.98</v>
+        <v>377.88</v>
       </c>
       <c r="D194" t="n">
         <v>377.21</v>
@@ -19863,7 +19863,7 @@
         <v>400.62</v>
       </c>
       <c r="AD194" t="n">
-        <v>393.81</v>
+        <v>393.88</v>
       </c>
       <c r="AE194" t="n">
         <v>391.11</v>
@@ -19947,7 +19947,7 @@
         <v>405.86</v>
       </c>
       <c r="AD195" t="n">
-        <v>398.83</v>
+        <v>398.87</v>
       </c>
       <c r="AE195" t="n">
         <v>394.39</v>
@@ -19972,7 +19972,7 @@
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
-        <v>357.5</v>
+        <v>358.26</v>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="n">
@@ -20045,7 +20045,7 @@
         <v>375.5</v>
       </c>
       <c r="AD196" t="n">
-        <v>369.63</v>
+        <v>369.12</v>
       </c>
       <c r="AE196" t="inlineStr"/>
       <c r="AF196" t="inlineStr"/>
@@ -20130,7 +20130,7 @@
         <v>371.78</v>
       </c>
       <c r="C198" t="n">
-        <v>370.27</v>
+        <v>369.51</v>
       </c>
       <c r="D198" t="n">
         <v>359.48</v>
@@ -20211,7 +20211,7 @@
         <v>392.86</v>
       </c>
       <c r="AD198" t="n">
-        <v>394.06</v>
+        <v>394.57</v>
       </c>
       <c r="AE198" t="n">
         <v>391.88</v>
@@ -20238,7 +20238,7 @@
         <v>382.07</v>
       </c>
       <c r="C199" t="n">
-        <v>375.08</v>
+        <v>375.62</v>
       </c>
       <c r="D199" t="n">
         <v>371.29</v>
@@ -20319,7 +20319,7 @@
         <v>397.61</v>
       </c>
       <c r="AD199" t="n">
-        <v>396.1</v>
+        <v>395.72</v>
       </c>
       <c r="AE199" t="n">
         <v>386.2</v>
@@ -20346,7 +20346,7 @@
         <v>364.51</v>
       </c>
       <c r="C200" t="n">
-        <v>359.16</v>
+        <v>359.66</v>
       </c>
       <c r="D200" t="n">
         <v>352.47</v>
@@ -20425,7 +20425,7 @@
         <v>375.26</v>
       </c>
       <c r="AD200" t="n">
-        <v>374.42</v>
+        <v>374.08</v>
       </c>
       <c r="AE200" t="n">
         <v>370.16</v>
@@ -20525,7 +20525,7 @@
         <v>379.99</v>
       </c>
       <c r="AD201" t="n">
-        <v>382.37</v>
+        <v>382.26</v>
       </c>
       <c r="AE201" t="n">
         <v>378.56</v>
@@ -20552,7 +20552,7 @@
         <v>374.09</v>
       </c>
       <c r="C202" t="n">
-        <v>370.75</v>
+        <v>370.42</v>
       </c>
       <c r="D202" t="n">
         <v>359.22</v>
@@ -20633,7 +20633,7 @@
         <v>389.9</v>
       </c>
       <c r="AD202" t="n">
-        <v>393.83</v>
+        <v>394.06</v>
       </c>
       <c r="AE202" t="n">
         <v>387.09</v>
@@ -20660,7 +20660,7 @@
         <v>362.93</v>
       </c>
       <c r="C203" t="n">
-        <v>362.33</v>
+        <v>362.72</v>
       </c>
       <c r="D203" t="n">
         <v>344.04</v>
@@ -20739,7 +20739,7 @@
         <v>363.79</v>
       </c>
       <c r="AD203" t="n">
-        <v>377.25</v>
+        <v>376.99</v>
       </c>
       <c r="AE203" t="n">
         <v>376.08</v>
@@ -20766,7 +20766,7 @@
         <v>368.73</v>
       </c>
       <c r="C204" t="n">
-        <v>361.42</v>
+        <v>361.59</v>
       </c>
       <c r="D204" t="n">
         <v>355.52</v>
@@ -20847,7 +20847,7 @@
         <v>389.5</v>
       </c>
       <c r="AD204" t="n">
-        <v>388.96</v>
+        <v>388.84</v>
       </c>
       <c r="AE204" t="n">
         <v>383.15</v>
@@ -20874,7 +20874,7 @@
         <v>360.55</v>
       </c>
       <c r="C205" t="n">
-        <v>358.92</v>
+        <v>359.54</v>
       </c>
       <c r="D205" t="n">
         <v>344.16</v>
@@ -20955,7 +20955,7 @@
         <v>377.5</v>
       </c>
       <c r="AD205" t="n">
-        <v>384.17</v>
+        <v>383.74</v>
       </c>
       <c r="AE205" t="n">
         <v>371.22</v>
@@ -20980,7 +20980,7 @@
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>352.59</v>
+        <v>352.49</v>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="n">
@@ -21044,7 +21044,7 @@
         <v>374.29</v>
       </c>
       <c r="C207" t="n">
-        <v>366.68</v>
+        <v>366.59</v>
       </c>
       <c r="D207" t="n">
         <v>358.69</v>
@@ -21125,7 +21125,7 @@
         <v>403.08</v>
       </c>
       <c r="AD207" t="n">
-        <v>396.5</v>
+        <v>396.56</v>
       </c>
       <c r="AE207" t="n">
         <v>396.43</v>
@@ -21191,7 +21191,7 @@
         <v>387.65</v>
       </c>
       <c r="AD208" t="n">
-        <v>380.31</v>
+        <v>379.85</v>
       </c>
       <c r="AE208" t="n">
         <v>372.6</v>
@@ -21277,7 +21277,7 @@
         <v>389.35</v>
       </c>
       <c r="AD209" t="n">
-        <v>391.39</v>
+        <v>391.57</v>
       </c>
       <c r="AE209" t="n">
         <v>387.62</v>
@@ -21380,7 +21380,7 @@
       </c>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
-        <v>346.92</v>
+        <v>347.56</v>
       </c>
       <c r="D211" t="n">
         <v>334</v>
@@ -21454,7 +21454,7 @@
         <v>362.75</v>
       </c>
       <c r="C212" t="n">
-        <v>368.27</v>
+        <v>369.04</v>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
@@ -21499,7 +21499,7 @@
         <v>381.38</v>
       </c>
       <c r="AD212" t="n">
-        <v>383.72</v>
+        <v>383.19</v>
       </c>
       <c r="AE212" t="n">
         <v>374.47</v>
@@ -21524,7 +21524,7 @@
       </c>
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="n">
-        <v>350.05</v>
+        <v>349.74</v>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
@@ -21583,7 +21583,7 @@
         <v>383.26</v>
       </c>
       <c r="AD213" t="n">
-        <v>382.9</v>
+        <v>383.11</v>
       </c>
       <c r="AE213" t="n">
         <v>378.64</v>
@@ -21608,7 +21608,7 @@
         <v>391.14</v>
       </c>
       <c r="C214" t="n">
-        <v>379.05</v>
+        <v>379.69</v>
       </c>
       <c r="D214" t="n">
         <v>376.12</v>
@@ -21687,7 +21687,7 @@
         <v>389.65</v>
       </c>
       <c r="AD214" t="n">
-        <v>403.21</v>
+        <v>402.77</v>
       </c>
       <c r="AE214" t="n">
         <v>391.21</v>
@@ -21714,7 +21714,7 @@
         <v>391.53</v>
       </c>
       <c r="C215" t="n">
-        <v>377.61</v>
+        <v>378.17</v>
       </c>
       <c r="D215" t="n">
         <v>358.74</v>
@@ -21755,7 +21755,7 @@
         <v>392.86</v>
       </c>
       <c r="AD215" t="n">
-        <v>386.8</v>
+        <v>386.42</v>
       </c>
       <c r="AE215" t="n">
         <v>381.99</v>
@@ -21782,7 +21782,7 @@
         <v>357.63</v>
       </c>
       <c r="C216" t="n">
-        <v>357.41</v>
+        <v>357.85</v>
       </c>
       <c r="D216" t="n">
         <v>344.96</v>
@@ -21857,7 +21857,7 @@
         <v>380.89</v>
       </c>
       <c r="AD216" t="n">
-        <v>383.56</v>
+        <v>383.25</v>
       </c>
       <c r="AE216" t="n">
         <v>373.52</v>
@@ -21884,7 +21884,7 @@
         <v>370.13</v>
       </c>
       <c r="C217" t="n">
-        <v>352.76</v>
+        <v>351.65</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
@@ -21957,7 +21957,7 @@
         <v>381.31</v>
       </c>
       <c r="AD217" t="n">
-        <v>376.57</v>
+        <v>377.33</v>
       </c>
       <c r="AE217" t="n">
         <v>372.86</v>
@@ -21982,7 +21982,7 @@
         <v>363.5</v>
       </c>
       <c r="C218" t="n">
-        <v>357.1</v>
+        <v>357.63</v>
       </c>
       <c r="D218" t="n">
         <v>344.31</v>
@@ -22063,7 +22063,7 @@
         <v>381.29</v>
       </c>
       <c r="AD218" t="n">
-        <v>379.87</v>
+        <v>379.5</v>
       </c>
       <c r="AE218" t="n">
         <v>378.59</v>
@@ -22090,7 +22090,7 @@
         <v>348.4</v>
       </c>
       <c r="C219" t="n">
-        <v>355.16</v>
+        <v>355.2</v>
       </c>
       <c r="D219" t="n">
         <v>340.22</v>
@@ -22171,7 +22171,7 @@
         <v>392</v>
       </c>
       <c r="AD219" t="n">
-        <v>387.31</v>
+        <v>387.28</v>
       </c>
       <c r="AE219" t="n">
         <v>391.89</v>
@@ -22198,7 +22198,7 @@
         <v>367.03</v>
       </c>
       <c r="C220" t="n">
-        <v>362.12</v>
+        <v>361.79</v>
       </c>
       <c r="D220" t="n">
         <v>349.47</v>
@@ -22279,7 +22279,7 @@
         <v>387.95</v>
       </c>
       <c r="AD220" t="n">
-        <v>391.22</v>
+        <v>391.44</v>
       </c>
       <c r="AE220" t="n">
         <v>386.27</v>
@@ -22306,7 +22306,7 @@
         <v>364.99</v>
       </c>
       <c r="C221" t="n">
-        <v>357.17</v>
+        <v>356.76</v>
       </c>
       <c r="D221" t="n">
         <v>348.36</v>
@@ -22387,7 +22387,7 @@
         <v>384.14</v>
       </c>
       <c r="AD221" t="n">
-        <v>390.77</v>
+        <v>391.05</v>
       </c>
       <c r="AE221" t="n">
         <v>383.23</v>
@@ -22484,7 +22484,7 @@
         <v>359.69</v>
       </c>
       <c r="C223" t="n">
-        <v>362.65</v>
+        <v>362.94</v>
       </c>
       <c r="D223" t="n">
         <v>345.09</v>
@@ -22557,7 +22557,7 @@
         <v>395.91</v>
       </c>
       <c r="AD223" t="n">
-        <v>395.86</v>
+        <v>395.66</v>
       </c>
       <c r="AE223" t="n">
         <v>391.04</v>
@@ -22582,7 +22582,7 @@
       </c>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="n">
-        <v>352.93</v>
+        <v>352.52</v>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="n">
@@ -22660,7 +22660,7 @@
         <v>363.63</v>
       </c>
       <c r="C225" t="n">
-        <v>355.09</v>
+        <v>354.36</v>
       </c>
       <c r="D225" t="n">
         <v>344.36</v>
@@ -22741,7 +22741,7 @@
         <v>385.06</v>
       </c>
       <c r="AD225" t="n">
-        <v>382.01</v>
+        <v>382.51</v>
       </c>
       <c r="AE225" t="n">
         <v>385.87</v>
@@ -22829,7 +22829,7 @@
         <v>382.59</v>
       </c>
       <c r="AD226" t="n">
-        <v>383.66</v>
+        <v>383.88</v>
       </c>
       <c r="AE226" t="n">
         <v>381.44</v>
@@ -22915,7 +22915,7 @@
         <v>383.75</v>
       </c>
       <c r="AD227" t="n">
-        <v>383.09</v>
+        <v>382.68</v>
       </c>
       <c r="AE227" t="n">
         <v>374.34</v>
@@ -22999,7 +22999,7 @@
         <v>384.88</v>
       </c>
       <c r="AD228" t="n">
-        <v>387.65</v>
+        <v>387.74</v>
       </c>
       <c r="AE228" t="n">
         <v>381.71</v>
@@ -23083,7 +23083,7 @@
         <v>393.56</v>
       </c>
       <c r="AD229" t="n">
-        <v>387.46</v>
+        <v>387.48</v>
       </c>
       <c r="AE229" t="n">
         <v>382.03</v>
@@ -23169,7 +23169,7 @@
         <v>395.24</v>
       </c>
       <c r="AD230" t="n">
-        <v>400.94</v>
+        <v>400.51</v>
       </c>
       <c r="AE230" t="n">
         <v>393.93</v>
@@ -23196,7 +23196,7 @@
         <v>369.69</v>
       </c>
       <c r="C231" t="n">
-        <v>360.29</v>
+        <v>359.38</v>
       </c>
       <c r="D231" t="n">
         <v>358.67</v>
@@ -23275,7 +23275,7 @@
         <v>389.92</v>
       </c>
       <c r="AD231" t="n">
-        <v>396.81</v>
+        <v>397.43</v>
       </c>
       <c r="AE231" t="n">
         <v>388.68</v>
@@ -23363,7 +23363,7 @@
         <v>388.17</v>
       </c>
       <c r="AD232" t="n">
-        <v>394.37</v>
+        <v>394.77</v>
       </c>
       <c r="AE232" t="n">
         <v>388.23</v>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="n">
-        <v>350.38</v>
+        <v>349.74</v>
       </c>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr"/>
@@ -23456,7 +23456,7 @@
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="n">
-        <v>364.58</v>
+        <v>363.95</v>
       </c>
       <c r="D234" t="n">
         <v>368.5</v>
@@ -23519,7 +23519,7 @@
         <v>388.79</v>
       </c>
       <c r="AD234" t="n">
-        <v>388.68</v>
+        <v>389.11</v>
       </c>
       <c r="AE234" t="n">
         <v>387.17</v>
@@ -23546,7 +23546,7 @@
         <v>373.53</v>
       </c>
       <c r="C235" t="n">
-        <v>368.52</v>
+        <v>368.16</v>
       </c>
       <c r="D235" t="n">
         <v>361.35</v>
@@ -23627,7 +23627,7 @@
         <v>393.05</v>
       </c>
       <c r="AD235" t="n">
-        <v>392.67</v>
+        <v>392.92</v>
       </c>
       <c r="AE235" t="n">
         <v>388.71</v>
@@ -23654,7 +23654,7 @@
         <v>402.01</v>
       </c>
       <c r="C236" t="n">
-        <v>397.87</v>
+        <v>398</v>
       </c>
       <c r="D236" t="n">
         <v>360.35</v>
@@ -23723,7 +23723,7 @@
         <v>380.43</v>
       </c>
       <c r="AD236" t="n">
-        <v>383.31</v>
+        <v>383.22</v>
       </c>
       <c r="AE236" t="n">
         <v>387.27</v>
@@ -23750,7 +23750,7 @@
         <v>372.63</v>
       </c>
       <c r="C237" t="n">
-        <v>367.32</v>
+        <v>366.38</v>
       </c>
       <c r="D237" t="n">
         <v>354.99</v>
@@ -23821,7 +23821,7 @@
         <v>383.76</v>
       </c>
       <c r="AD237" t="n">
-        <v>377.22</v>
+        <v>377.87</v>
       </c>
       <c r="AE237" t="n">
         <v>384.67</v>
@@ -23848,7 +23848,7 @@
         <v>391.06</v>
       </c>
       <c r="C238" t="n">
-        <v>379.3</v>
+        <v>378.77</v>
       </c>
       <c r="D238" t="n">
         <v>359.19</v>
@@ -23929,7 +23929,7 @@
         <v>392.57</v>
       </c>
       <c r="AD238" t="n">
-        <v>390.57</v>
+        <v>390.93</v>
       </c>
       <c r="AE238" t="n">
         <v>392.25</v>
@@ -23956,7 +23956,7 @@
         <v>383.37</v>
       </c>
       <c r="C239" t="n">
-        <v>377.7</v>
+        <v>376.6</v>
       </c>
       <c r="D239" t="n">
         <v>353.51</v>
@@ -24037,7 +24037,7 @@
         <v>387.45</v>
       </c>
       <c r="AD239" t="n">
-        <v>385.24</v>
+        <v>386</v>
       </c>
       <c r="AE239" t="n">
         <v>386.82</v>
@@ -24064,7 +24064,7 @@
         <v>380.91</v>
       </c>
       <c r="C240" t="n">
-        <v>373.63</v>
+        <v>374.03</v>
       </c>
       <c r="D240" t="n">
         <v>356.42</v>
@@ -24143,7 +24143,7 @@
         <v>382.15</v>
       </c>
       <c r="AD240" t="n">
-        <v>380.3</v>
+        <v>380.03</v>
       </c>
       <c r="AE240" t="n">
         <v>373.7</v>
@@ -24170,7 +24170,7 @@
         <v>400.55</v>
       </c>
       <c r="C241" t="n">
-        <v>377.83</v>
+        <v>377.5</v>
       </c>
       <c r="D241" t="n">
         <v>361.59</v>
@@ -24251,7 +24251,7 @@
         <v>393.23</v>
       </c>
       <c r="AD241" t="n">
-        <v>389.8</v>
+        <v>390.02</v>
       </c>
       <c r="AE241" t="n">
         <v>385</v>
@@ -24278,7 +24278,7 @@
         <v>400.62</v>
       </c>
       <c r="C242" t="n">
-        <v>385.2</v>
+        <v>384.94</v>
       </c>
       <c r="D242" t="n">
         <v>372.61</v>
@@ -24359,7 +24359,7 @@
         <v>397.64</v>
       </c>
       <c r="AD242" t="n">
-        <v>394.29</v>
+        <v>394.47</v>
       </c>
       <c r="AE242" t="n">
         <v>388.59</v>
@@ -24386,7 +24386,7 @@
         <v>376</v>
       </c>
       <c r="C243" t="n">
-        <v>370.27</v>
+        <v>370.91</v>
       </c>
       <c r="D243" t="n">
         <v>362.25</v>
@@ -24467,7 +24467,7 @@
         <v>398.75</v>
       </c>
       <c r="AD243" t="n">
-        <v>395.04</v>
+        <v>394.6</v>
       </c>
       <c r="AE243" t="n">
         <v>385.48</v>
@@ -24494,7 +24494,7 @@
         <v>383.57</v>
       </c>
       <c r="C244" t="n">
-        <v>373.58</v>
+        <v>372.84</v>
       </c>
       <c r="D244" t="n">
         <v>370.44</v>
@@ -24573,7 +24573,7 @@
         <v>394.74</v>
       </c>
       <c r="AD244" t="n">
-        <v>391.15</v>
+        <v>391.66</v>
       </c>
       <c r="AE244" t="n">
         <v>391.05</v>
@@ -24653,7 +24653,7 @@
         <v>397.04</v>
       </c>
       <c r="AD245" t="n">
-        <v>391.26</v>
+        <v>391.35</v>
       </c>
       <c r="AE245" t="n">
         <v>386.55</v>
@@ -24680,7 +24680,7 @@
         <v>378.01</v>
       </c>
       <c r="C246" t="n">
-        <v>365.74</v>
+        <v>366.47</v>
       </c>
       <c r="D246" t="n">
         <v>371.93</v>
@@ -24761,7 +24761,7 @@
         <v>391.68</v>
       </c>
       <c r="AD246" t="n">
-        <v>383.47</v>
+        <v>382.97</v>
       </c>
       <c r="AE246" t="n">
         <v>386.22</v>
@@ -24788,7 +24788,7 @@
         <v>388.2</v>
       </c>
       <c r="C247" t="n">
-        <v>383.43</v>
+        <v>383.82</v>
       </c>
       <c r="D247" t="n">
         <v>377.55</v>
@@ -24869,7 +24869,7 @@
         <v>389.48</v>
       </c>
       <c r="AD247" t="n">
-        <v>386.35</v>
+        <v>386.09</v>
       </c>
       <c r="AE247" t="n">
         <v>383.15</v>
@@ -24896,7 +24896,7 @@
         <v>379.82</v>
       </c>
       <c r="C248" t="n">
-        <v>371.47</v>
+        <v>371.97</v>
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr"/>
@@ -24963,7 +24963,7 @@
         <v>391.72</v>
       </c>
       <c r="AD248" t="n">
-        <v>395.84</v>
+        <v>395.5</v>
       </c>
       <c r="AE248" t="n">
         <v>384.71</v>
@@ -24988,7 +24988,7 @@
         <v>380.34</v>
       </c>
       <c r="C249" t="n">
-        <v>372.92</v>
+        <v>372.05</v>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>
@@ -25029,7 +25029,7 @@
         <v>387.51</v>
       </c>
       <c r="AD249" t="n">
-        <v>390.42</v>
+        <v>391.02</v>
       </c>
       <c r="AE249" t="n">
         <v>386.35</v>
@@ -25056,7 +25056,7 @@
         <v>378.37</v>
       </c>
       <c r="C250" t="n">
-        <v>369.77</v>
+        <v>370.36</v>
       </c>
       <c r="D250" t="n">
         <v>372.86</v>
@@ -25137,7 +25137,7 @@
         <v>390.52</v>
       </c>
       <c r="AD250" t="n">
-        <v>388.63</v>
+        <v>388.23</v>
       </c>
       <c r="AE250" t="n">
         <v>378.84</v>
@@ -25162,7 +25162,7 @@
         <v>393.89</v>
       </c>
       <c r="C251" t="n">
-        <v>382.79</v>
+        <v>382.35</v>
       </c>
       <c r="D251" t="n">
         <v>386.84</v>
@@ -25243,7 +25243,7 @@
         <v>399.57</v>
       </c>
       <c r="AD251" t="n">
-        <v>397.75</v>
+        <v>398.05</v>
       </c>
       <c r="AE251" t="n">
         <v>392.1</v>
@@ -25270,7 +25270,7 @@
         <v>375.52</v>
       </c>
       <c r="C252" t="n">
-        <v>369.55</v>
+        <v>369.19</v>
       </c>
       <c r="D252" t="n">
         <v>371.76</v>
@@ -25351,7 +25351,7 @@
         <v>394.26</v>
       </c>
       <c r="AD252" t="n">
-        <v>389.87</v>
+        <v>390.11</v>
       </c>
       <c r="AE252" t="n">
         <v>386.27</v>
@@ -25378,7 +25378,7 @@
         <v>386.6</v>
       </c>
       <c r="C253" t="n">
-        <v>373.45</v>
+        <v>373.85</v>
       </c>
       <c r="D253" t="n">
         <v>367.63</v>
@@ -25459,7 +25459,7 @@
         <v>391.96</v>
       </c>
       <c r="AD253" t="n">
-        <v>390.67</v>
+        <v>390.4</v>
       </c>
       <c r="AE253" t="n">
         <v>388.03</v>
@@ -25486,7 +25486,7 @@
         <v>382.3</v>
       </c>
       <c r="C254" t="n">
-        <v>374.68</v>
+        <v>374.09</v>
       </c>
       <c r="D254" t="n">
         <v>362.82</v>
@@ -25565,7 +25565,7 @@
         <v>399.32</v>
       </c>
       <c r="AD254" t="n">
-        <v>396.28</v>
+        <v>396.68</v>
       </c>
       <c r="AE254" t="n">
         <v>391.26</v>
@@ -25592,7 +25592,7 @@
         <v>373.14</v>
       </c>
       <c r="C255" t="n">
-        <v>367.41</v>
+        <v>367.45</v>
       </c>
       <c r="D255" t="n">
         <v>364.77</v>
@@ -25673,7 +25673,7 @@
         <v>390.89</v>
       </c>
       <c r="AD255" t="n">
-        <v>391.29</v>
+        <v>391.26</v>
       </c>
       <c r="AE255" t="n">
         <v>388.59</v>
@@ -25700,7 +25700,7 @@
         <v>373.24</v>
       </c>
       <c r="C256" t="n">
-        <v>366.3</v>
+        <v>365.96</v>
       </c>
       <c r="D256" t="n">
         <v>354.72</v>
@@ -25781,7 +25781,7 @@
         <v>398.17</v>
       </c>
       <c r="AD256" t="n">
-        <v>395.2</v>
+        <v>395.44</v>
       </c>
       <c r="AE256" t="n">
         <v>390.6</v>
@@ -25808,7 +25808,7 @@
         <v>379.12</v>
       </c>
       <c r="C257" t="n">
-        <v>368.81</v>
+        <v>369.48</v>
       </c>
       <c r="D257" t="n">
         <v>369.31</v>
@@ -25889,7 +25889,7 @@
         <v>379.94</v>
       </c>
       <c r="AD257" t="n">
-        <v>383.66</v>
+        <v>383.2</v>
       </c>
       <c r="AE257" t="n">
         <v>380.74</v>
@@ -25916,7 +25916,7 @@
         <v>376.45</v>
       </c>
       <c r="C258" t="n">
-        <v>369.05</v>
+        <v>369.25</v>
       </c>
       <c r="D258" t="n">
         <v>363.42</v>
@@ -25997,7 +25997,7 @@
         <v>391.1</v>
       </c>
       <c r="AD258" t="n">
-        <v>386.16</v>
+        <v>386.02</v>
       </c>
       <c r="AE258" t="n">
         <v>384.42</v>
@@ -26024,7 +26024,7 @@
         <v>373.84</v>
       </c>
       <c r="C259" t="n">
-        <v>372.96</v>
+        <v>372.72</v>
       </c>
       <c r="D259" t="n">
         <v>360.35</v>
@@ -26105,7 +26105,7 @@
         <v>382.21</v>
       </c>
       <c r="AD259" t="n">
-        <v>386.79</v>
+        <v>386.95</v>
       </c>
       <c r="AE259" t="n">
         <v>381.38</v>
@@ -26132,7 +26132,7 @@
         <v>371.6</v>
       </c>
       <c r="C260" t="n">
-        <v>373.01</v>
+        <v>373.61</v>
       </c>
       <c r="D260" t="n">
         <v>366.56</v>
@@ -26213,7 +26213,7 @@
         <v>378.05</v>
       </c>
       <c r="AD260" t="n">
-        <v>378.66</v>
+        <v>378.25</v>
       </c>
       <c r="AE260" t="n">
         <v>374.44</v>
@@ -26240,7 +26240,7 @@
         <v>379.31</v>
       </c>
       <c r="C261" t="n">
-        <v>375.17</v>
+        <v>374.83</v>
       </c>
       <c r="D261" t="n">
         <v>364.94</v>
@@ -26321,7 +26321,7 @@
         <v>387.66</v>
       </c>
       <c r="AD261" t="n">
-        <v>383.44</v>
+        <v>383.68</v>
       </c>
       <c r="AE261" t="n">
         <v>384.11</v>
@@ -29278,7 +29278,7 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2697520811385563</v>
+        <v>-0.2656712953307553</v>
       </c>
       <c r="J3" t="n">
         <v>260</v>
@@ -29287,19 +29287,19 @@
         <v>209</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04124405571488043</v>
+        <v>0.0397977713235218</v>
       </c>
       <c r="M3" t="n">
-        <v>7.775437493302887</v>
+        <v>7.794125508179091</v>
       </c>
       <c r="N3" t="n">
-        <v>93.29241069565221</v>
+        <v>93.92111219075819</v>
       </c>
       <c r="O3" t="n">
-        <v>9.658799650870298</v>
+        <v>9.691290532780357</v>
       </c>
       <c r="P3" t="n">
-        <v>374.7968910662142</v>
+        <v>374.6888420850068</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31396,7 +31396,7 @@
         <v>0.1127</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2037591876093722</v>
+        <v>0.2026324204890601</v>
       </c>
       <c r="J30" t="n">
         <v>260</v>
@@ -31405,19 +31405,19 @@
         <v>238</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03344913579550435</v>
+        <v>0.03320803510310888</v>
       </c>
       <c r="M30" t="n">
-        <v>6.522648006342571</v>
+        <v>6.52741815995562</v>
       </c>
       <c r="N30" t="n">
-        <v>66.02294538429</v>
+        <v>65.78523032248756</v>
       </c>
       <c r="O30" t="n">
-        <v>8.125450472699344</v>
+        <v>8.110809473935852</v>
       </c>
       <c r="P30" t="n">
-        <v>384.8026676886384</v>
+        <v>384.8443984843419</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -31878,7 +31878,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-36.589077626957426,175.5239942561475</t>
+          <t>-36.589074449660274,175.52399029631795</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -31993,7 +31993,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-36.603540934595365,175.53537444867274</t>
+          <t>-36.603537978363114,175.5353754437607</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -32030,7 +32030,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-36.58918934063266,175.52413348396095</t>
+          <t>-36.58919258147038,175.52413752299907</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -32165,7 +32165,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-36.60336086525967,175.53543506110978</t>
+          <t>-36.60336390844034,175.53543403675883</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -32202,7 +32202,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-36.58923452170952,175.52418979293472</t>
+          <t>-36.589238779277814,175.52419509912832</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -32337,7 +32337,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-36.6033918187542,175.5354246419937</t>
+          <t>-36.603395818363,175.53542329570288</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -32374,7 +32374,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-36.589214314142914,175.52416460832228</t>
+          <t>-36.58921062848548,175.52416001490383</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -32509,7 +32509,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-36.603469289435324,175.53539856490275</t>
+          <t>-36.603465811514845,175.5353997355925</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -32598,7 +32598,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-36.589178792022565,175.52412033729016</t>
+          <t>-36.589181206764785,175.5241233467687</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -32733,7 +32733,7 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-36.603328520596065,175.53544594849257</t>
+          <t>-36.60333086819264,175.5354451582796</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -32869,7 +32869,7 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-36.60331904326168,175.53544913861123</t>
+          <t>-36.60332017358596,175.5354487581384</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -33013,7 +33013,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-36.603456855869524,175.5354027501181</t>
+          <t>-36.60345598638939,175.53540304279045</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -33050,7 +33050,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-36.58908989132308,175.5240095410926</t>
+          <t>-36.58908264708663,175.52400051267884</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -33169,7 +33169,7 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-36.60338260226434,175.53542774431557</t>
+          <t>-36.603375733370896,175.53543005642297</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -33202,7 +33202,7 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-36.58911893180716,175.52404573396117</t>
+          <t>-36.58912013917931,175.52404723869807</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -33333,7 +33333,7 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-36.603352170457704,175.5354379878264</t>
+          <t>-36.603353300781976,175.5354376073533</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -33370,7 +33370,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-36.58908607856715,175.52400478929567</t>
+          <t>-36.58908290127039,175.52400082946525</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -33505,7 +33505,7 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-36.60337695064315,175.53542964668245</t>
+          <t>-36.60337390746251,175.53543067103374</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -33542,7 +33542,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-36.58914225314988,175.524074799151</t>
+          <t>-36.589139838406304,175.52407178967547</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -33617,7 +33617,7 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-36.60329321969884,175.53545783094918</t>
+          <t>-36.60329087210219,175.5354586211615</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -33654,7 +33654,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-36.589168561140156,175.52410758660685</t>
+          <t>-36.58917103942858,175.52411067528138</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -33789,7 +33789,7 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>-36.60325035432236,175.53547225963317</t>
+          <t>-36.603252614971055,175.53547149868874</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -33826,7 +33826,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-36.58911041665552,175.5240351216074</t>
+          <t>-36.58910323596715,175.5240261723855</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -33889,7 +33889,7 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>-36.60343729256646,175.53540933524468</t>
+          <t>-36.60343051062132,175.5354116180878</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
@@ -34009,7 +34009,7 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>-36.603587451778495,175.5353587906616</t>
+          <t>-36.60359266865871,175.5353570346219</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
@@ -34046,7 +34046,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-36.589253331263066,175.52421323522728</t>
+          <t>-36.58924932787878,175.52420824581947</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -34181,7 +34181,7 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>-36.60334078026705,175.53544182182426</t>
+          <t>-36.60333704150215,175.5354430803119</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
@@ -34218,7 +34218,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-36.58917822010993,175.52411962451896</t>
+          <t>-36.58917612309687,175.5241170110246</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -34353,7 +34353,7 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>-36.6033504314973,175.53543857316967</t>
+          <t>-36.603348431692844,175.53543924631438</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
@@ -34473,7 +34473,7 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>-36.60340694770913,175.53541954950157</t>
+          <t>-36.603410860369856,175.53541823247747</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
@@ -34597,7 +34597,7 @@
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>-36.60327487366567,175.53546400631066</t>
+          <t>-36.60327626483407,175.5354635380369</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
@@ -34634,7 +34634,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-36.589123888387455,175.5240519113025</t>
+          <t>-36.58912706568235,175.5240558711371</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -34769,7 +34769,7 @@
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>-36.60339103622205,175.53542490539843</t>
+          <t>-36.60339407940265,175.5354238810467</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
@@ -34886,7 +34886,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-36.58916093563676,175.5240980829942</t>
+          <t>-36.58915928344424,175.52409602387834</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -35021,7 +35021,7 @@
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>-36.603321825598385,175.53544820206272</t>
+          <t>-36.603320260534,175.53544872887127</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
@@ -35058,7 +35058,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-36.58915559778388,175.52409143046643</t>
+          <t>-36.58915477168756,175.52409040090862</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -35193,7 +35193,7 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>-36.6033302595565,175.53544536314962</t>
+          <t>-36.6033294770243,175.53544562655395</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
@@ -35230,7 +35230,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-36.58922403665212,175.5241767254455</t>
+          <t>-36.589221558365594,175.52417363676676</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -35365,7 +35365,7 @@
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>-36.60328582911678,175.5354603186544</t>
+          <t>-36.60328356846816,175.5354610795994</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
@@ -35402,7 +35402,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-36.58924176593006,175.5241988213839</t>
+          <t>-36.58924367230377,175.52420119729183</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -35537,7 +35537,7 @@
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>-36.60328982872591,175.53545897236694</t>
+          <t>-36.603291567686384,175.53545838702453</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
@@ -35574,7 +35574,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-36.589185591428055,175.52412881134862</t>
+          <t>-36.589179808756136,175.524121604439</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -35701,7 +35701,7 @@
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>-36.60339486193481,175.53542361764198</t>
+          <t>-36.60338947115774,175.53542543220783</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
@@ -35738,7 +35738,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-36.58929762265782,175.52426843553553</t>
+          <t>-36.58929336509312,175.52426312933383</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -35873,7 +35873,7 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>-36.603259049125,175.53546933292358</t>
+          <t>-36.603255049515795,175.53547067921008</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
@@ -35910,7 +35910,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-36.58928300713613,175.5242502202188</t>
+          <t>-36.58928599378646,175.5242539424786</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -36045,7 +36045,7 @@
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>-36.6032267914069,175.535480191013</t>
+          <t>-36.603229573743796,175.53547925446654</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
@@ -36082,7 +36082,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-36.589214568326184,175.52416492510977</t>
+          <t>-36.58921520378434,175.52416571707852</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -36217,7 +36217,7 @@
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>-36.60337651590307,175.53542979301835</t>
+          <t>-36.6033771245392,175.53542958814808</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
@@ -36254,7 +36254,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-36.5891899125452,175.52413419673232</t>
+          <t>-36.589190293820245,175.5241346719133</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -36389,7 +36389,7 @@
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>-36.60327104795256,175.53546529406344</t>
+          <t>-36.60327139574466,175.535465176995</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
@@ -36426,7 +36426,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-36.58917275516667,175.52411281359463</t>
+          <t>-36.58917034042417,175.52410980411676</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -36561,7 +36561,7 @@
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>-36.603295306451415,175.53545712853824</t>
+          <t>-36.60329295885478,175.53545791875058</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
@@ -36677,7 +36677,7 @@
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>-36.603401122192025,175.53542151040395</t>
+          <t>-36.60340364368451,175.5354206616552</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
@@ -36714,7 +36714,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-36.58923820736568,175.52419438635602</t>
+          <t>-36.58923566553385,175.5241912184792</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -36849,7 +36849,7 @@
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>-36.60332956397232,175.5354455972868</t>
+          <t>-36.603327216375746,175.53544638749977</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
@@ -36886,7 +36886,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-36.58920325717002,175.52415082806823</t>
+          <t>-36.589202176890964,175.52414948172176</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -37021,7 +37021,7 @@
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>-36.60338077635595,175.53542835892645</t>
+          <t>-36.60337973297973,175.53542871013263</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
@@ -37058,7 +37058,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-36.58923344143094,175.52418844658717</t>
+          <t>-36.58923833445727,175.52419454474986</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -37193,7 +37193,7 @@
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>-36.60318914291008,175.5354928636513</t>
+          <t>-36.60319375115571,175.53549131249758</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
@@ -37230,7 +37230,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-36.58926654878411,175.52422970819643</t>
+          <t>-36.58926190994288,175.5242239268172</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -37357,7 +37357,7 @@
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>-36.603310783199554,175.53545191898925</t>
+          <t>-36.603306435798416,175.5354533823459</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
@@ -37394,7 +37394,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-36.58912357065796,175.52405151531906</t>
+          <t>-36.58912331647437,175.52405119853233</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -37529,7 +37529,7 @@
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>-36.603444422303625,175.53540693533222</t>
+          <t>-36.60344416145958,175.5354070231339</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
@@ -37566,7 +37566,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-36.58919842768705,175.5241448091079</t>
+          <t>-36.58919969860365,175.52414639304476</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -37701,7 +37701,7 @@
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>-36.6033270424797,175.5354464460341</t>
+          <t>-36.603328259752004,175.53544603629402</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
@@ -37738,7 +37738,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-36.58911429295603,175.52403995260397</t>
+          <t>-36.589110226017795,175.5240348840174</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -37873,7 +37873,7 @@
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>-36.6033144350165,175.53545068976956</t>
+          <t>-36.6033106093035,175.53545197752354</t>
         </is>
       </c>
       <c r="AE40" t="inlineStr">
@@ -37910,7 +37910,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-36.58922352828565,175.52417609187034</t>
+          <t>-36.589226642030155,175.52417997251823</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -38045,7 +38045,7 @@
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>-36.60322105283701,175.5354821226399</t>
+          <t>-36.60322392212197,175.53548115682648</t>
         </is>
       </c>
       <c r="AE41" t="inlineStr">
@@ -38082,7 +38082,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-36.58918438405704,175.52412730660916</t>
+          <t>-36.5891808254897,175.52412287158785</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -38217,7 +38217,7 @@
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>-36.603248702309855,175.53547281570792</t>
+          <t>-36.60324539828481,175.5354739278573</t>
         </is>
       </c>
       <c r="AE42" t="inlineStr">
@@ -38254,7 +38254,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-36.58913958422278,175.5240714728886</t>
+          <t>-36.58914028322749,175.52407234405254</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -38389,7 +38389,7 @@
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>-36.603312174367915,175.5354514507151</t>
+          <t>-36.6033128699521,175.53545121657802</t>
         </is>
       </c>
       <c r="AE43" t="inlineStr">
@@ -38426,7 +38426,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-36.58918705298241,175.5241306328754</t>
+          <t>-36.589184574694556,175.52412754419962</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -38574,7 +38574,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-36.589137169479116,175.5240684634133</t>
+          <t>-36.5891381862133,175.52406973056077</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -38709,7 +38709,7 @@
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>-36.6033071313826,175.53545314820886</t>
+          <t>-36.603308087810845,175.5354528262704</t>
         </is>
       </c>
       <c r="AE45" t="inlineStr">
@@ -38746,7 +38746,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-36.589179745210295,175.52412152524218</t>
+          <t>-36.58917491572568,175.5241155062855</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -38881,7 +38881,7 @@
       </c>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>-36.60344485704369,175.5354067889961</t>
+          <t>-36.60344042269497,175.53540828162463</t>
         </is>
       </c>
       <c r="AE46" t="inlineStr">
@@ -38918,7 +38918,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-36.58922403665212,175.5241767254455</t>
+          <t>-36.58922429083535,175.52417704223305</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -39053,7 +39053,7 @@
       </c>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>-36.603279308014955,175.535462513688</t>
+          <t>-36.603279568859016,175.53546242588666</t>
         </is>
       </c>
       <c r="AE47" t="inlineStr">
@@ -39090,7 +39090,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-36.589185845611425,175.52412912813588</t>
+          <t>-36.589182604773384,175.52412508909845</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -39225,7 +39225,7 @@
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>-36.60334173669527,175.53544149988556</t>
+          <t>-36.603338693514544,175.53544252423598</t>
         </is>
       </c>
       <c r="AE48" t="inlineStr">
@@ -39262,7 +39262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-36.5891752970008,175.52411598146628</t>
+          <t>-36.58916995914902,175.52410932893605</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -39389,7 +39389,7 @@
       </c>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>-36.603423554780136,175.53541395946505</t>
+          <t>-36.60341859874326,175.5354156276961</t>
         </is>
       </c>
       <c r="AE49" t="inlineStr">
@@ -39426,7 +39426,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-36.589182223498305,175.5241246139176</t>
+          <t>-36.589185591428055,175.52412881134862</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -39561,7 +39561,7 @@
       </c>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>-36.603366429932905,175.53543318801084</t>
+          <t>-36.603369560061594,175.53543213439255</t>
         </is>
       </c>
       <c r="AE50" t="inlineStr">
@@ -39713,7 +39713,7 @@
       </c>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>-36.603347040524525,175.53543971458893</t>
+          <t>-36.60334921422503,175.53543898290994</t>
         </is>
       </c>
       <c r="AE51" t="inlineStr">
@@ -39746,7 +39746,7 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-36.589143015700465,175.52407574951172</t>
+          <t>-36.5891458117192,175.52407923416789</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -39877,7 +39877,7 @@
       </c>
       <c r="AD52" t="inlineStr">
         <is>
-          <t>-36.603373820514484,175.5354307003009</t>
+          <t>-36.60337651590307,175.53542979301835</t>
         </is>
       </c>
       <c r="AE52" t="inlineStr">
@@ -39914,7 +39914,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-36.5891959493996,175.5241417204312</t>
+          <t>-36.589191564736986,175.5241362558498</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -40041,7 +40041,7 @@
       </c>
       <c r="AD53" t="inlineStr">
         <is>
-          <t>-36.60324618081707,175.53547366445352</t>
+          <t>-36.60324209425979,175.53547504000667</t>
         </is>
       </c>
       <c r="AE53" t="inlineStr">
@@ -40078,7 +40078,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-36.58910221923246,175.52402490523917</t>
+          <t>-36.58910717581397,175.52403108257784</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -40209,7 +40209,7 @@
       </c>
       <c r="AD54" t="inlineStr">
         <is>
-          <t>-36.60337216850214,175.53543125637728</t>
+          <t>-36.60337686369514,175.53542967594962</t>
         </is>
       </c>
       <c r="AE54" t="inlineStr">
@@ -40246,7 +40246,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-36.58912782823309,175.52405682149745</t>
+          <t>-36.58912935333458,175.52405872221823</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -40377,7 +40377,7 @@
       </c>
       <c r="AD55" t="inlineStr">
         <is>
-          <t>-36.603380167719834,175.53542856379673</t>
+          <t>-36.603381645836144,175.5354280662546</t>
         </is>
       </c>
       <c r="AE55" t="inlineStr">
@@ -40414,7 +40414,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-36.589169323690456,175.5241085369682</t>
+          <t>-36.589167353768836,175.52410608186807</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -40549,7 +40549,7 @@
       </c>
       <c r="AD56" t="inlineStr">
         <is>
-          <t>-36.60338408038066,175.53542724677345</t>
+          <t>-36.603382254472265,175.5354278613843</t>
         </is>
       </c>
       <c r="AE56" t="inlineStr">
@@ -40586,7 +40586,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-36.58921850816665,175.52416983531626</t>
+          <t>-36.589222066732056,175.52417427034183</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -40721,7 +40721,7 @@
       </c>
       <c r="AD57" t="inlineStr">
         <is>
-          <t>-36.603366429932905,175.53543318801084</t>
+          <t>-36.60336973395762,175.5354320758582</t>
         </is>
       </c>
       <c r="AE57" t="inlineStr">
@@ -40758,7 +40758,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-36.58915191212331,175.5240868370549</t>
+          <t>-36.58915508941692,175.52409079689238</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -40842,7 +40842,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-36.58915070475172,175.52408533231676</t>
+          <t>-36.58915153084808,175.52408636187442</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -40977,7 +40977,7 @@
       </c>
       <c r="AD59" t="inlineStr">
         <is>
-          <t>-36.60336164779184,175.53543479770525</t>
+          <t>-36.603362430324026,175.53543453430072</t>
         </is>
       </c>
       <c r="AE59" t="inlineStr">
@@ -41014,7 +41014,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-36.58922594302631,175.52417910135236</t>
+          <t>-36.58922378246888,175.52417640865792</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -41149,7 +41149,7 @@
       </c>
       <c r="AD60" t="inlineStr">
         <is>
-          <t>-36.603342693123494,175.53544117794686</t>
+          <t>-36.603340606371,175.5354418803586</t>
         </is>
       </c>
       <c r="AE60" t="inlineStr">
@@ -41186,7 +41186,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-36.58914174478281,175.5240741655772</t>
+          <t>-36.58913596210724,175.52406695867575</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -41305,7 +41305,7 @@
       </c>
       <c r="AD61" t="inlineStr">
         <is>
-          <t>-36.60342738049279,175.53541267170763</t>
+          <t>-36.60342198971586,175.53541448627487</t>
         </is>
       </c>
       <c r="AE61" t="inlineStr">
@@ -41457,7 +41457,7 @@
       </c>
       <c r="AD62" t="inlineStr">
         <is>
-          <t>-36.603435031918096,175.53541009619244</t>
+          <t>-36.6034308584134,175.53541150101896</t>
         </is>
       </c>
       <c r="AE62" t="inlineStr">
@@ -41494,7 +41494,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-36.589337529370866,175.52431817130488</t>
+          <t>-36.589342740118326,175.52432466546963</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -41581,7 +41581,7 @@
       </c>
       <c r="AD63" t="inlineStr">
         <is>
-          <t>-36.60334877948492,175.53543912924573</t>
+          <t>-36.60335364857404,175.53543749028464</t>
         </is>
       </c>
       <c r="AE63" t="inlineStr">
@@ -41618,7 +41618,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-36.589257016918225,175.52421782865082</t>
+          <t>-36.58925822428797,175.5242193333931</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -41753,7 +41753,7 @@
       </c>
       <c r="AD64" t="inlineStr">
         <is>
-          <t>-36.60327591704197,175.53546365510533</t>
+          <t>-36.603277047366305,175.5354632746329</t>
         </is>
       </c>
       <c r="AE64" t="inlineStr">
@@ -41790,7 +41790,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-36.58920815019848,175.52415692622614</t>
+          <t>-36.58920408326576,175.5241518576273</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -41922,7 +41922,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-36.58916271492095,175.52410030050365</t>
+          <t>-36.58916570157648,175.52410402275189</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -42057,7 +42057,7 @@
       </c>
       <c r="AD66" t="inlineStr">
         <is>
-          <t>-36.603311044043615,175.53545183118786</t>
+          <t>-36.603313826380344,175.53545089463952</t>
         </is>
       </c>
       <c r="AE66" t="inlineStr">
@@ -42169,7 +42169,7 @@
       </c>
       <c r="AD67" t="inlineStr">
         <is>
-          <t>-36.60340738244921,175.53541940316558</t>
+          <t>-36.60340486095673,175.53542025191442</t>
         </is>
       </c>
       <c r="AE67" t="inlineStr">
@@ -42285,7 +42285,7 @@
       </c>
       <c r="AD68" t="inlineStr">
         <is>
-          <t>-36.603275830093956,175.53546368437247</t>
+          <t>-36.603279568859016,175.53546242588666</t>
         </is>
       </c>
       <c r="AE68" t="inlineStr">
@@ -42322,7 +42322,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-36.58922943804552,175.52418345718195</t>
+          <t>-36.58922346473984,175.52417601267345</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -42453,7 +42453,7 @@
       </c>
       <c r="AD69" t="inlineStr">
         <is>
-          <t>-36.60322453075816,175.53548095195697</t>
+          <t>-36.60321887913629,175.53548285431668</t>
         </is>
       </c>
       <c r="AE69" t="inlineStr">
@@ -42490,7 +42490,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-36.58919372529541,175.524138948542</t>
+          <t>-36.58919499621211,175.52414053247864</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -42625,7 +42625,7 @@
       </c>
       <c r="AD70" t="inlineStr">
         <is>
-          <t>-36.603291306842316,175.53545847482587</t>
+          <t>-36.60329252411465,175.53545806508617</t>
         </is>
       </c>
       <c r="AE70" t="inlineStr">
@@ -42662,7 +42662,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-36.589197919320405,175.5241441755332</t>
+          <t>-36.58919429720792,175.5241396613135</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -42814,7 +42814,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-36.58912350711206,175.52405143612236</t>
+          <t>-36.58912357065796,175.52405151531906</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -42949,7 +42949,7 @@
       </c>
       <c r="AD72" t="inlineStr">
         <is>
-          <t>-36.60342894555706,175.53541214489775</t>
+          <t>-36.60342903250508,175.53541211563052</t>
         </is>
       </c>
       <c r="AE72" t="inlineStr">
@@ -42982,7 +42982,7 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-36.58913164098672,175.52406157329952</t>
+          <t>-36.58913653402024,175.52406767144615</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -43105,7 +43105,7 @@
       </c>
       <c r="AD73" t="inlineStr">
         <is>
-          <t>-36.60334573630421,175.5354401535963</t>
+          <t>-36.60335034454929,175.5354386024368</t>
         </is>
       </c>
       <c r="AE73" t="inlineStr">
@@ -43142,7 +43142,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-36.589085887929336,175.52400455170584</t>
+          <t>-36.58908722239395,175.52400621483469</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -43273,7 +43273,7 @@
       </c>
       <c r="AD74" t="inlineStr">
         <is>
-          <t>-36.60346155106222,175.53540116968728</t>
+          <t>-36.60346285528241,175.5354007306787</t>
         </is>
       </c>
       <c r="AE74" t="inlineStr">
@@ -43409,7 +43409,7 @@
       </c>
       <c r="AD75" t="inlineStr">
         <is>
-          <t>-36.60340512180078,175.53542016411282</t>
+          <t>-36.60340286115235,175.53542092505998</t>
         </is>
       </c>
       <c r="AE75" t="inlineStr">
@@ -43537,7 +43537,7 @@
       </c>
       <c r="AD76" t="inlineStr">
         <is>
-          <t>-36.60339268823438,175.5354243493218</t>
+          <t>-36.603389036417646,175.5354255785438</t>
         </is>
       </c>
       <c r="AE76" t="inlineStr">
@@ -43570,7 +43570,7 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-36.58907267037381,175.52398807881355</t>
+          <t>-36.5890778811412,175.52399457293387</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -43689,7 +43689,7 @@
       </c>
       <c r="AD77" t="inlineStr">
         <is>
-          <t>-36.60336590824478,175.53543336361386</t>
+          <t>-36.60337077733385,175.5354317246521</t>
         </is>
       </c>
       <c r="AE77" t="inlineStr"/>
@@ -43722,7 +43722,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-36.58915991890291,175.52409681584595</t>
+          <t>-36.5891628420127,175.52410045889718</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -43857,7 +43857,7 @@
       </c>
       <c r="AD78" t="inlineStr">
         <is>
-          <t>-36.603442509447305,175.5354075792112</t>
+          <t>-36.60344529178376,175.53540664265995</t>
         </is>
       </c>
       <c r="AE78" t="inlineStr">
@@ -43894,7 +43894,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-36.589224354381145,175.52417712142997</t>
+          <t>-36.58921952489965,175.52417110246637</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -44017,7 +44017,7 @@
       </c>
       <c r="AD79" t="inlineStr">
         <is>
-          <t>-36.60331991274192,175.53544884593984</t>
+          <t>-36.603315478392766,175.53545033856395</t>
         </is>
       </c>
       <c r="AE79" t="inlineStr">
@@ -44174,7 +44174,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-36.589125477034926,175.52405389121975</t>
+          <t>-36.589119948541594,175.52404700110804</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -44309,7 +44309,7 @@
       </c>
       <c r="AD81" t="inlineStr">
         <is>
-          <t>-36.60341294712223,175.53541753006456</t>
+          <t>-36.60340773024128,175.53541928609678</t>
         </is>
       </c>
       <c r="AE81" t="inlineStr">
@@ -44346,7 +44346,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-36.589218952987345,175.5241703896944</t>
+          <t>-36.58922213027787,175.52417434953875</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -44481,7 +44481,7 @@
       </c>
       <c r="AD82" t="inlineStr">
         <is>
-          <t>-36.60333304189317,175.53544442660086</t>
+          <t>-36.60333608507391,175.53544340225056</t>
         </is>
       </c>
       <c r="AE82" t="inlineStr">
@@ -44518,7 +44518,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-36.589155915513224,175.5240918264502</t>
+          <t>-36.589156296788445,175.5240923016307</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -44653,7 +44653,7 @@
       </c>
       <c r="AD83" t="inlineStr">
         <is>
-          <t>-36.603454334377155,175.53540359886793</t>
+          <t>-36.60345468216921,175.535403481799</t>
         </is>
       </c>
       <c r="AE83" t="inlineStr">
@@ -44690,7 +44690,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-36.58913996549809,175.52407194806895</t>
+          <t>-36.5891376778462,175.52406909698703</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -44821,7 +44821,7 @@
       </c>
       <c r="AD84" t="inlineStr">
         <is>
-          <t>-36.6033302595565,175.53544536314962</t>
+          <t>-36.603328085855956,175.53544609482833</t>
         </is>
       </c>
       <c r="AE84" t="inlineStr">
@@ -44854,7 +44854,7 @@
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-36.58918247768169,175.52412493070486</t>
+          <t>-36.58918737071161,175.52413102885947</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -44985,7 +44985,7 @@
       </c>
       <c r="AD85" t="inlineStr">
         <is>
-          <t>-36.60333260715308,175.53544457293663</t>
+          <t>-36.603337215398184,175.5354430217776</t>
         </is>
       </c>
       <c r="AE85" t="inlineStr">
@@ -45121,7 +45121,7 @@
       </c>
       <c r="AD86" t="inlineStr">
         <is>
-          <t>-36.60347268040779,175.5353974234802</t>
+          <t>-36.603467898267134,175.53539903317866</t>
         </is>
       </c>
       <c r="AE86" t="inlineStr">
@@ -45150,7 +45150,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-36.589109209283194,175.52403361687087</t>
+          <t>-36.589103490150826,175.5240264891721</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -45281,7 +45281,7 @@
       </c>
       <c r="AD87" t="inlineStr">
         <is>
-          <t>-36.60342155497578,175.53541463261092</t>
+          <t>-36.603416164198826,175.5354164471779</t>
         </is>
       </c>
       <c r="AE87" t="inlineStr">
@@ -45318,7 +45318,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-36.58913418282236,175.5240647411678</t>
+          <t>-36.58913844039683,175.52407004734766</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -45445,7 +45445,7 @@
       </c>
       <c r="AD88" t="inlineStr">
         <is>
-          <t>-36.60325496256778,175.5354707084772</t>
+          <t>-36.60325896217697,175.5354693621907</t>
         </is>
       </c>
       <c r="AE88" t="inlineStr">
@@ -45478,7 +45478,7 @@
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-36.589115500328276,175.5240414573407</t>
+          <t>-36.589120711092434,175.52404795146822</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -45609,7 +45609,7 @@
       </c>
       <c r="AD89" t="inlineStr">
         <is>
-          <t>-36.60333321578921,175.53544436806655</t>
+          <t>-36.60333808487841,175.53544272910608</t>
         </is>
       </c>
       <c r="AE89" t="inlineStr">
@@ -45646,7 +45646,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-36.589102727599816,175.52402553881234</t>
+          <t>-36.58909745328837,175.5240189654912</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -45781,7 +45781,7 @@
       </c>
       <c r="AD90" t="inlineStr">
         <is>
-          <t>-36.603363473700256,175.5354341830947</t>
+          <t>-36.60335851766315,175.53543585132334</t>
         </is>
       </c>
       <c r="AE90" t="inlineStr">
@@ -45818,7 +45818,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-36.58913761430032,175.5240690177903</t>
+          <t>-36.58913977486043,175.52407171047878</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -45913,7 +45913,7 @@
       </c>
       <c r="AD91" t="inlineStr">
         <is>
-          <t>-36.60331313079616,175.5354511287766</t>
+          <t>-36.60331521754869,175.53545042636534</t>
         </is>
       </c>
       <c r="AE91" t="inlineStr">
@@ -45950,7 +45950,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-36.58906174047022,175.52397445700302</t>
+          <t>-36.58906390103269,175.52397714968617</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -46085,7 +46085,7 @@
       </c>
       <c r="AD92" t="inlineStr">
         <is>
-          <t>-36.60337277713827,175.53543105150703</t>
+          <t>-36.603374863890714,175.53543034909475</t>
         </is>
       </c>
       <c r="AE92" t="inlineStr">
@@ -46122,7 +46122,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-36.589121283005554,175.5240486642384</t>
+          <t>-36.58911607224143,175.52404217011076</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -46249,7 +46249,7 @@
       </c>
       <c r="AD93" t="inlineStr">
         <is>
-          <t>-36.60321009738536,175.5354858102905</t>
+          <t>-36.603205228295685,175.53548744924603</t>
         </is>
       </c>
       <c r="AE93" t="inlineStr">
@@ -46329,7 +46329,7 @@
       </c>
       <c r="AD94" t="inlineStr">
         <is>
-          <t>-36.603466941838995,175.53539935511833</t>
+          <t>-36.603470419759475,175.53539818442857</t>
         </is>
       </c>
       <c r="AE94" t="inlineStr"/>
@@ -46433,7 +46433,7 @@
       </c>
       <c r="AD95" t="inlineStr">
         <is>
-          <t>-36.60329539339944,175.53545709927113</t>
+          <t>-36.6032956542435,175.53545701146976</t>
         </is>
       </c>
       <c r="AE95" t="inlineStr">
@@ -46569,7 +46569,7 @@
       </c>
       <c r="AD96" t="inlineStr">
         <is>
-          <t>-36.603390427585914,175.53542511026873</t>
+          <t>-36.60339016674188,175.5354251980703</t>
         </is>
       </c>
       <c r="AE96" t="inlineStr">
@@ -46606,7 +46606,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-36.58910043994671,175.5240226877332</t>
+          <t>-36.589104252701844,175.52402743953186</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -46737,7 +46737,7 @@
       </c>
       <c r="AD97" t="inlineStr">
         <is>
-          <t>-36.60329521950339,175.53545715780538</t>
+          <t>-36.603298784372356,175.53545595785326</t>
         </is>
       </c>
       <c r="AE97" t="inlineStr">
@@ -46774,7 +46774,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-36.58911073438509,175.52403551759073</t>
+          <t>-36.58910901864545,175.5240333792809</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -46909,7 +46909,7 @@
       </c>
       <c r="AD98" t="inlineStr">
         <is>
-          <t>-36.60340903446152,175.53541884708875</t>
+          <t>-36.603407469397226,175.53541937389838</t>
         </is>
       </c>
       <c r="AE98" t="inlineStr">
@@ -47001,7 +47001,7 @@
       </c>
       <c r="AD99" t="inlineStr">
         <is>
-          <t>-36.60330487073399,175.53545390915428</t>
+          <t>-36.60330208839724,175.53545484570242</t>
         </is>
       </c>
       <c r="AE99" t="inlineStr">
@@ -47038,7 +47038,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-36.58910399851817,175.52402712274528</t>
+          <t>-36.58909948675789,175.52402149978357</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -47149,7 +47149,7 @@
       </c>
       <c r="AD100" t="inlineStr">
         <is>
-          <t>-36.60337625505901,175.53542988081986</t>
+          <t>-36.60337199460611,175.53543131491162</t>
         </is>
       </c>
       <c r="AE100" t="inlineStr">
@@ -47186,7 +47186,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-36.589070382719704,175.5239852277366</t>
+          <t>-36.58907235264408,175.52398768283064</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -47321,7 +47321,7 @@
       </c>
       <c r="AD101" t="inlineStr">
         <is>
-          <t>-36.60337990687578,175.53542865159827</t>
+          <t>-36.603381732784165,175.5354280369874</t>
         </is>
       </c>
       <c r="AE101" t="inlineStr">
@@ -47358,7 +47358,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-36.58918673525321,175.52413023689132</t>
+          <t>-36.589185845611425,175.52412912813588</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -47493,7 +47493,7 @@
       </c>
       <c r="AD102" t="inlineStr">
         <is>
-          <t>-36.603258701332905,175.535469449992</t>
+          <t>-36.60325791880067,175.53546971339588</t>
         </is>
       </c>
       <c r="AE102" t="inlineStr">
@@ -47530,7 +47530,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-36.58905684743141,175.52396835886816</t>
+          <t>-36.58905138247858,175.52396154796517</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -47653,7 +47653,7 @@
       </c>
       <c r="AD103" t="inlineStr">
         <is>
-          <t>-36.60344816106821,175.5354056768414</t>
+          <t>-36.603443031135384,175.53540740360788</t>
         </is>
       </c>
       <c r="AE103" t="inlineStr">
@@ -47690,7 +47690,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-36.58921711015878,175.52416809298487</t>
+          <t>-36.58921990617452,175.52417157764768</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -47825,7 +47825,7 @@
       </c>
       <c r="AD104" t="inlineStr">
         <is>
-          <t>-36.60323035627606,175.53547899106283</t>
+          <t>-36.60323305166492,175.53547808378337</t>
         </is>
       </c>
       <c r="AE104" t="inlineStr">
@@ -47862,7 +47862,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-36.589151848577444,175.52408675785816</t>
+          <t>-36.589156296788445,175.5240923016307</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -47997,7 +47997,7 @@
       </c>
       <c r="AD105" t="inlineStr">
         <is>
-          <t>-36.603340519422986,175.53544190962575</t>
+          <t>-36.60334469292796,175.53544050480224</t>
         </is>
       </c>
       <c r="AE105" t="inlineStr">
@@ -48034,7 +48034,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-36.589126811498765,175.52405555435033</t>
+          <t>-36.58912090173014,175.52404818905828</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -48165,7 +48165,7 @@
       </c>
       <c r="AD106" t="inlineStr">
         <is>
-          <t>-36.60339007979385,175.5354252273375</t>
+          <t>-36.60338460206875,175.53542707117035</t>
         </is>
       </c>
       <c r="AE106" t="inlineStr">
@@ -48202,7 +48202,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-36.58914873482958,175.52408287721778</t>
+          <t>-36.58915191212331,175.5240868370549</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -48337,7 +48337,7 @@
       </c>
       <c r="AD107" t="inlineStr">
         <is>
-          <t>-36.603336432866,175.53544328518197</t>
+          <t>-36.6033393890987,175.53544229009876</t>
         </is>
       </c>
       <c r="AE107" t="inlineStr">
@@ -48374,7 +48374,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-36.58906555322747,175.52397920879696</t>
+          <t>-36.58906434585436,175.52397770406216</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -48509,7 +48509,7 @@
       </c>
       <c r="AD108" t="inlineStr">
         <is>
-          <t>-36.603437814254555,175.53540915964135</t>
+          <t>-36.603436683930376,175.5354095401152</t>
         </is>
       </c>
       <c r="AE108" t="inlineStr">
@@ -48546,7 +48546,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-36.589120520454735,175.5240477138782</t>
+          <t>-36.589118232802214,175.5240448627977</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -48681,7 +48681,7 @@
       </c>
       <c r="AD109" t="inlineStr">
         <is>
-          <t>-36.60332260813058,175.53544793865842</t>
+          <t>-36.60332043443004,175.53544867033696</t>
         </is>
       </c>
       <c r="AE109" t="inlineStr">
@@ -48718,7 +48718,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-36.58909097160387,175.52401088743514</t>
+          <t>-36.58909344989508,175.52401397610348</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -48849,7 +48849,7 @@
       </c>
       <c r="AD110" t="inlineStr">
         <is>
-          <t>-36.603382341420286,175.53542783211714</t>
+          <t>-36.60338460206875,175.53542707117035</t>
         </is>
       </c>
       <c r="AE110" t="inlineStr">
@@ -48886,7 +48886,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-36.58913062425245,175.52406030615225</t>
+          <t>-36.58912744695773,175.52405634631728</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -49021,7 +49021,7 @@
       </c>
       <c r="AD111" t="inlineStr">
         <is>
-          <t>-36.60324452880456,175.53547422052822</t>
+          <t>-36.603241572571626,175.53547521560918</t>
         </is>
       </c>
       <c r="AE111" t="inlineStr">
@@ -49058,7 +49058,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-36.58905888090212,175.52397089315787</t>
+          <t>-36.58905799125869,175.5239697844061</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -49189,7 +49189,7 @@
       </c>
       <c r="AD112" t="inlineStr">
         <is>
-          <t>-36.60338460206875,175.53542707117035</t>
+          <t>-36.60338381953659,175.535427334575</t>
         </is>
       </c>
       <c r="AE112" t="inlineStr">
@@ -49226,7 +49226,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-36.58900925149051,175.52390904068739</t>
+          <t>-36.589004993908084,175.52390373452525</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -49349,7 +49349,7 @@
       </c>
       <c r="AD113" t="inlineStr">
         <is>
-          <t>-36.603444422303625,175.53540693533222</t>
+          <t>-36.60344042269497,175.53540828162463</t>
         </is>
       </c>
       <c r="AE113" t="inlineStr">
@@ -49445,7 +49445,7 @@
       </c>
       <c r="AD114" t="inlineStr">
         <is>
-          <t>-36.60341625114685,175.5354164179107</t>
+          <t>-36.60342112023571,175.53541477894697</t>
         </is>
       </c>
       <c r="AE114" t="inlineStr">
@@ -49482,7 +49482,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-36.58905843608041,175.523970338782</t>
+          <t>-36.58905716516121,175.5239687548509</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -49617,7 +49617,7 @@
       </c>
       <c r="AD115" t="inlineStr">
         <is>
-          <t>-36.60339790511541,175.5354225932902</t>
+          <t>-36.60339668784316,175.53542300303093</t>
         </is>
       </c>
       <c r="AE115" t="inlineStr">
@@ -49654,7 +49654,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-36.58907972397348,175.52399686963517</t>
+          <t>-36.58907616540076,175.52399243462585</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -49789,7 +49789,7 @@
       </c>
       <c r="AD116" t="inlineStr">
         <is>
-          <t>-36.60326870035587,175.5354660842753</t>
+          <t>-36.603265396330904,175.53546719642523</t>
         </is>
       </c>
       <c r="AE116" t="inlineStr">
@@ -49826,7 +49826,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-36.58906523549771,175.5239788128141</t>
+          <t>-36.589069874352134,175.52398459416398</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -49961,7 +49961,7 @@
       </c>
       <c r="AD117" t="inlineStr">
         <is>
-          <t>-36.603289915673926,175.5354589430998</t>
+          <t>-36.603294263075135,175.53545747974374</t>
         </is>
       </c>
       <c r="AE117" t="inlineStr">
@@ -49998,7 +49998,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-36.589100694130394,175.52402300451976</t>
+          <t>-36.589104252701844,175.52402743953186</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -50129,7 +50129,7 @@
       </c>
       <c r="AD118" t="inlineStr">
         <is>
-          <t>-36.60340607822897,175.5354198421736</t>
+          <t>-36.60340938225359,175.53541873001993</t>
         </is>
       </c>
       <c r="AE118" t="inlineStr">
@@ -50257,7 +50257,7 @@
       </c>
       <c r="AD119" t="inlineStr">
         <is>
-          <t>-36.60342294614403,175.53541416433552</t>
+          <t>-36.60342068549563,175.53541492528302</t>
         </is>
       </c>
       <c r="AE119" t="inlineStr">
@@ -50294,7 +50294,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-36.58917072169931,175.52411027929745</t>
+          <t>-36.589174089629594,175.52411447672722</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -50429,7 +50429,7 @@
       </c>
       <c r="AD120" t="inlineStr">
         <is>
-          <t>-36.60329947995654,175.53545572371624</t>
+          <t>-36.603302697033406,175.5354546408325</t>
         </is>
       </c>
       <c r="AE120" t="inlineStr">
@@ -50466,7 +50466,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-36.58906021536723,175.52397255628557</t>
+          <t>-36.58905430559294,175.52396519100617</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -50597,7 +50597,7 @@
       </c>
       <c r="AD121" t="inlineStr">
         <is>
-          <t>-36.60340190472417,175.53542124699916</t>
+          <t>-36.60339642699911,175.53542309083252</t>
         </is>
       </c>
       <c r="AE121" t="inlineStr">
@@ -50634,7 +50634,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-36.58910050349263,175.52402276692982</t>
+          <t>-36.58910342660491,175.52402640997545</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -50765,7 +50765,7 @@
       </c>
       <c r="AD122" t="inlineStr">
         <is>
-          <t>-36.60334538851214,175.53544027066496</t>
+          <t>-36.603348170848776,175.53543933411586</t>
         </is>
       </c>
       <c r="AE122" t="inlineStr">
@@ -50957,7 +50957,7 @@
       </c>
       <c r="AD124" t="inlineStr">
         <is>
-          <t>-36.603308696447,175.53545262140048</t>
+          <t>-36.603306435798416,175.5354533823459</t>
         </is>
       </c>
       <c r="AE124" t="inlineStr">
@@ -51101,7 +51101,7 @@
       </c>
       <c r="AD125" t="inlineStr">
         <is>
-          <t>-36.603361213051755,175.5354349440411</t>
+          <t>-36.60336129999976,175.53543491477396</t>
         </is>
       </c>
       <c r="AE125" t="inlineStr">
@@ -51138,7 +51138,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-36.589157567705826,175.52409388556583</t>
+          <t>-36.589158012526894,175.52409443994313</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -51273,7 +51273,7 @@
       </c>
       <c r="AD126" t="inlineStr">
         <is>
-          <t>-36.603352431301765,175.53543790002493</t>
+          <t>-36.60335286604187,175.5354377536891</t>
         </is>
       </c>
       <c r="AE126" t="inlineStr">
@@ -51310,7 +51310,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-36.589149116104835,175.5240833523982</t>
+          <t>-36.589144858531,175.52407804621689</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -51445,7 +51445,7 @@
       </c>
       <c r="AD127" t="inlineStr">
         <is>
-          <t>-36.60338190668019,175.53542797845304</t>
+          <t>-36.60337790707136,175.53542932474346</t>
         </is>
       </c>
       <c r="AE127" t="inlineStr">
@@ -51482,7 +51482,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-36.5891514673022,175.5240862826777</t>
+          <t>-36.589155915513224,175.5240918264502</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -51617,7 +51617,7 @@
       </c>
       <c r="AD128" t="inlineStr">
         <is>
-          <t>-36.603380341615875,175.53542850526236</t>
+          <t>-36.60338460206875,175.53542707117035</t>
         </is>
       </c>
       <c r="AE128" t="inlineStr">
@@ -51654,7 +51654,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-36.589101011859995,175.52402340050295</t>
+          <t>-36.589103363058996,175.52402633077878</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -51789,7 +51789,7 @@
       </c>
       <c r="AD129" t="inlineStr">
         <is>
-          <t>-36.603463811710554,175.53540040873904</t>
+          <t>-36.603466072358884,175.53539964779077</t>
         </is>
       </c>
       <c r="AE129" t="inlineStr">
@@ -51826,7 +51826,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-36.58914822646256,175.52408224364385</t>
+          <t>-36.58914848064607,175.52408256043083</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -52081,7 +52081,7 @@
       </c>
       <c r="AD131" t="inlineStr">
         <is>
-          <t>-36.603310870147574,175.53545188972214</t>
+          <t>-36.60331147878372,175.5354516848522</t>
         </is>
       </c>
       <c r="AE131" t="inlineStr">
@@ -52221,7 +52221,7 @@
       </c>
       <c r="AD132" t="inlineStr">
         <is>
-          <t>-36.60343998795491,175.53540842796073</t>
+          <t>-36.60344520483574,175.53540667192718</t>
         </is>
       </c>
       <c r="AE132" t="inlineStr">
@@ -52333,7 +52333,7 @@
       </c>
       <c r="AD133" t="inlineStr">
         <is>
-          <t>-36.60339425329868,175.53542382251234</t>
+          <t>-36.60338938420971,175.53542546147503</t>
         </is>
       </c>
       <c r="AE133" t="inlineStr">
@@ -52370,7 +52370,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-36.589100821222225,175.52402316291304</t>
+          <t>-36.58910355369675,175.52402656836875</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -52505,7 +52505,7 @@
       </c>
       <c r="AD134" t="inlineStr">
         <is>
-          <t>-36.60334512766807,175.53544035846645</t>
+          <t>-36.60334764916066,175.53543950971883</t>
         </is>
       </c>
       <c r="AE134" t="inlineStr">
@@ -52542,7 +52542,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-36.58919118346196,175.52413578066884</t>
+          <t>-36.58919220019535,175.52413704781807</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -52677,7 +52677,7 @@
       </c>
       <c r="AD135" t="inlineStr">
         <is>
-          <t>-36.60325348445132,175.53547120601777</t>
+          <t>-36.60325435393159,175.53547091334684</t>
         </is>
       </c>
       <c r="AE135" t="inlineStr">
@@ -52714,7 +52714,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-36.58908035943285,175.5239976616012</t>
+          <t>-36.58907654667641,175.5239929098054</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -52849,7 +52849,7 @@
       </c>
       <c r="AD136" t="inlineStr">
         <is>
-          <t>-36.603406599917065,175.5354196665704</t>
+          <t>-36.60340303504839,175.53542086652558</t>
         </is>
       </c>
       <c r="AE136" t="inlineStr">
@@ -52886,7 +52886,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-36.589169323690456,175.5241085369682</t>
+          <t>-36.58917370835447,175.52411400154648</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -53017,7 +53017,7 @@
       </c>
       <c r="AD137" t="inlineStr">
         <is>
-          <t>-36.603340519422986,175.53544190962575</t>
+          <t>-36.60334460597995,175.53544053406938</t>
         </is>
       </c>
       <c r="AE137" t="inlineStr">
@@ -53054,7 +53054,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-36.58916017308637,175.52409713263302</t>
+          <t>-36.589159156352515,175.5240958654848</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -53185,7 +53185,7 @@
       </c>
       <c r="AD138" t="inlineStr">
         <is>
-          <t>-36.603316087028915,175.53545013369396</t>
+          <t>-36.603315130600684,175.53545045563246</t>
         </is>
       </c>
       <c r="AE138" t="inlineStr">
@@ -53222,7 +53222,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-36.589197792228745,175.5241440171395</t>
+          <t>-36.58919334402041,175.524138473361</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -53309,7 +53309,7 @@
       </c>
       <c r="AD139" t="inlineStr">
         <is>
-          <t>-36.60325844048882,175.5354695377933</t>
+          <t>-36.60325426698355,175.53547094261396</t>
         </is>
       </c>
       <c r="AE139" t="inlineStr">
@@ -53346,7 +53346,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-36.58909516563509,175.52401611441243</t>
+          <t>-36.589097834563894,175.52401944067103</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -53465,7 +53465,7 @@
       </c>
       <c r="AD140" t="inlineStr">
         <is>
-          <t>-36.60330634885039,175.53545341161305</t>
+          <t>-36.60330887034304,175.53545256286623</t>
         </is>
       </c>
       <c r="AE140" t="inlineStr">
@@ -53494,7 +53494,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-36.58918393923613,175.52412675223147</t>
+          <t>-36.589177584651424,175.52411883255095</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -53621,7 +53621,7 @@
       </c>
       <c r="AD141" t="inlineStr">
         <is>
-          <t>-36.60319757686906,175.5354900247472</t>
+          <t>-36.60319166440299,175.53549201490682</t>
         </is>
       </c>
       <c r="AE141" t="inlineStr">
@@ -53658,7 +53658,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-36.58928898043667,175.52425766473868</t>
+          <t>-36.58928300713613,175.5242502202188</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -53781,7 +53781,7 @@
       </c>
       <c r="AD142" t="inlineStr">
         <is>
-          <t>-36.603202967646915,175.53548821018958</t>
+          <t>-36.60319731602497,175.53549011254836</t>
         </is>
       </c>
       <c r="AE142" t="inlineStr">
@@ -53818,7 +53818,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-36.58911314912968,175.52403852706394</t>
+          <t>-36.589115754511894,175.52404177412743</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -53950,7 +53950,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-36.58916957787388,175.52410885375537</t>
+          <t>-36.58917078524516,175.52411035849426</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -54085,7 +54085,7 @@
       </c>
       <c r="AD144" t="inlineStr">
         <is>
-          <t>-36.60328348152013,175.53546110886654</t>
+          <t>-36.603284611844444,175.535460728394</t>
         </is>
       </c>
       <c r="AE144" t="inlineStr">
@@ -54118,7 +54118,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-36.58910380788043,175.52402688515534</t>
+          <t>-36.5890980887476,175.52401975745755</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -54253,7 +54253,7 @@
       </c>
       <c r="AD145" t="inlineStr">
         <is>
-          <t>-36.60340346978847,175.5354207201896</t>
+          <t>-36.603398079011434,175.5354225347558</t>
         </is>
       </c>
       <c r="AE145" t="inlineStr">
@@ -54290,7 +54290,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-36.58919849123288,175.52414488830476</t>
+          <t>-36.589202875895054,175.52415035288712</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -54425,7 +54425,7 @@
       </c>
       <c r="AD146" t="inlineStr">
         <is>
-          <t>-36.60330939203119,175.53545238726343</t>
+          <t>-36.60331347858825,175.5354510117081</t>
         </is>
       </c>
       <c r="AE146" t="inlineStr">
@@ -54462,7 +54462,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-36.58907730922772,175.52399386016452</t>
+          <t>-36.58907451320622,175.52399037551453</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -54586,7 +54586,7 @@
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-36.58901541545265,175.5239167227441</t>
+          <t>-36.589019291758476,175.5239215537288</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -54713,7 +54713,7 @@
       </c>
       <c r="AD148" t="inlineStr">
         <is>
-          <t>-36.60348920052996,175.53539186270217</t>
+          <t>-36.603492852346406,175.53539063347725</t>
         </is>
       </c>
       <c r="AE148" t="inlineStr">
@@ -54750,7 +54750,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-36.58915413622885,175.5240896089411</t>
+          <t>-36.58915731352234,175.5240935687788</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -54885,7 +54885,7 @@
       </c>
       <c r="AD149" t="inlineStr">
         <is>
-          <t>-36.60331565228881,175.53545028002964</t>
+          <t>-36.60331869546959,175.5354492556798</t>
         </is>
       </c>
       <c r="AE149" t="inlineStr">
@@ -54922,7 +54922,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-36.589167480860574,175.52410624026163</t>
+          <t>-36.589170403970016,175.52410988331354</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -55053,7 +55053,7 @@
       </c>
       <c r="AD150" t="inlineStr">
         <is>
-          <t>-36.603290524310104,175.53545873822998</t>
+          <t>-36.60329330664687,175.5354578016821</t>
         </is>
       </c>
       <c r="AE150" t="inlineStr">
@@ -55090,7 +55090,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-36.58906860343314,175.52398301023243</t>
+          <t>-36.58906580741129,175.52397952558323</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -55225,7 +55225,7 @@
       </c>
       <c r="AD151" t="inlineStr">
         <is>
-          <t>-36.60341355575835,175.53541732519412</t>
+          <t>-36.60341094731787,175.53541820321027</t>
         </is>
       </c>
       <c r="AE151" t="inlineStr">
@@ -55262,7 +55262,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-36.58923979601052,175.5241963662791</t>
+          <t>-36.58924462549061,175.52420238524584</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -55414,7 +55414,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-36.58908379091349,175.52400193821774</t>
+          <t>-36.58907934269783,175.5239963944556</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
@@ -55545,7 +55545,7 @@
       </c>
       <c r="AD153" t="inlineStr">
         <is>
-          <t>-36.60328156866359,175.53546175274306</t>
+          <t>-36.6032773951584,175.53546315756446</t>
         </is>
       </c>
       <c r="AE153" t="inlineStr">
@@ -55701,7 +55701,7 @@
       </c>
       <c r="AD154" t="inlineStr">
         <is>
-          <t>-36.60342007685953,175.53541513015352</t>
+          <t>-36.603414946926605,175.53541685691883</t>
         </is>
       </c>
       <c r="AE154" t="inlineStr">
@@ -55734,7 +55734,7 @@
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-36.58912560412673,175.52405404961314</t>
+          <t>-36.58912515930543,175.5240534952363</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
@@ -55865,7 +55865,7 @@
       </c>
       <c r="AD155" t="inlineStr">
         <is>
-          <t>-36.603294263075135,175.53545747974374</t>
+          <t>-36.60329382833501,175.53545762607934</t>
         </is>
       </c>
       <c r="AE155" t="inlineStr">
@@ -55902,7 +55902,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-36.58919169182867,175.52413641424346</t>
+          <t>-36.5891953774871,175.52414100765967</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -56033,7 +56033,7 @@
       </c>
       <c r="AD156" t="inlineStr">
         <is>
-          <t>-36.60330826170689,175.53545276773613</t>
+          <t>-36.60331173962779,175.5354515970508</t>
         </is>
       </c>
       <c r="AE156" t="inlineStr">
@@ -56170,7 +56170,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-36.58914047386514,175.5240725816427</t>
+          <t>-36.589144286618094,175.52407733344631</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -56301,7 +56301,7 @@
       </c>
       <c r="AD158" t="inlineStr">
         <is>
-          <t>-36.60338721050929,175.53542619315473</t>
+          <t>-36.603390775378,175.5354249932</t>
         </is>
       </c>
       <c r="AE158" t="inlineStr">
@@ -56338,7 +56338,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-36.589253521900396,175.52421347281813</t>
+          <t>-36.58925549181955,175.52421592792376</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -56465,7 +56465,7 @@
       </c>
       <c r="AD159" t="inlineStr">
         <is>
-          <t>-36.60320140258238,175.53548873699668</t>
+          <t>-36.60320322849101,175.53548812238841</t>
         </is>
       </c>
       <c r="AE159" t="inlineStr">
@@ -56502,7 +56502,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-36.58921297968076,175.52416294518798</t>
+          <t>-36.589217618525275,175.5241687265599</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -56629,7 +56629,7 @@
       </c>
       <c r="AD160" t="inlineStr">
         <is>
-          <t>-36.603169231810874,175.53549956580417</t>
+          <t>-36.60317357921248,175.5354981024523</t>
         </is>
       </c>
       <c r="AE160" t="inlineStr">
@@ -56666,7 +56666,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-36.58917942748105,175.52412112925816</t>
+          <t>-36.58917745755973,175.52411867415736</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -56801,7 +56801,7 @@
       </c>
       <c r="AD161" t="inlineStr">
         <is>
-          <t>-36.603320260534,175.53544872887127</t>
+          <t>-36.603318434625535,175.5354493434812</t>
         </is>
       </c>
       <c r="AE161" t="inlineStr">
@@ -56838,7 +56838,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-36.58918972190769,175.52413395914186</t>
+          <t>-36.58918527369884,175.52412841536454</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -56970,7 +56970,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-36.58918146094817,175.5241236635559</t>
+          <t>-36.589176631463666,175.524117644599</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -57105,7 +57105,7 @@
       </c>
       <c r="AD163" t="inlineStr">
         <is>
-          <t>-36.6032261827707,175.53548039588253</t>
+          <t>-36.603221748421255,175.53548188850334</t>
         </is>
       </c>
       <c r="AE163" t="inlineStr">
@@ -57142,7 +57142,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-36.589086269204955,175.5240050268855</t>
+          <t>-36.58909001841493,175.52400969948582</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -57277,7 +57277,7 @@
       </c>
       <c r="AD164" t="inlineStr">
         <is>
-          <t>-36.603331563776806,175.5354449241424</t>
+          <t>-36.603335041697676,175.5354437534564</t>
         </is>
       </c>
       <c r="AE164" t="inlineStr">
@@ -57314,7 +57314,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-36.58916601930577,175.52410441873576</t>
+          <t>-36.58916849759429,175.52410750741006</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -57449,7 +57449,7 @@
       </c>
       <c r="AD165" t="inlineStr">
         <is>
-          <t>-36.60328600301284,175.53546026012015</t>
+          <t>-36.60328826366146,175.5354594991751</t>
         </is>
       </c>
       <c r="AE165" t="inlineStr">
@@ -57654,7 +57654,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-36.58915636033432,175.52409238082745</t>
+          <t>-36.58915534360039,175.5240911136794</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -57789,7 +57789,7 @@
       </c>
       <c r="AD167" t="inlineStr">
         <is>
-          <t>-36.60327148269268,175.53546514772788</t>
+          <t>-36.60327052626442,175.53546546966606</t>
         </is>
       </c>
       <c r="AE167" t="inlineStr">
@@ -57826,7 +57826,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-36.58913056070654,175.52406022695556</t>
+          <t>-36.58912738341183,175.52405626712059</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -57961,7 +57961,7 @@
       </c>
       <c r="AD168" t="inlineStr">
         <is>
-          <t>-36.60340877361747,175.53541893489034</t>
+          <t>-36.603405730436904,175.5354199592424</t>
         </is>
       </c>
       <c r="AE168" t="inlineStr">
@@ -58077,7 +58077,7 @@
       </c>
       <c r="AD169" t="inlineStr">
         <is>
-          <t>-36.60313853915518,175.5355098970642</t>
+          <t>-36.603142364868674,175.53550860931549</t>
         </is>
       </c>
       <c r="AE169" t="inlineStr">
@@ -58110,7 +58110,7 @@
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-36.589124206116956,175.52405230728596</t>
+          <t>-36.58912255392358,175.52405024817207</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
@@ -58237,7 +58237,7 @@
       </c>
       <c r="AD170" t="inlineStr">
         <is>
-          <t>-36.603337824034334,175.53544281690753</t>
+          <t>-36.60333625896995,175.53544334371628</t>
         </is>
       </c>
       <c r="AE170" t="inlineStr">
@@ -58453,7 +58453,7 @@
       </c>
       <c r="AD172" t="inlineStr">
         <is>
-          <t>-36.60331026151142,175.5354520945921</t>
+          <t>-36.6033067835905,175.5354532652774</t>
         </is>
       </c>
       <c r="AE172" t="inlineStr">
@@ -58490,7 +58490,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-36.58926928125209,175.52423311366672</t>
+          <t>-36.58926521432297,175.52422804505989</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -58625,7 +58625,7 @@
       </c>
       <c r="AD173" t="inlineStr">
         <is>
-          <t>-36.60328678554505,175.5354599967161</t>
+          <t>-36.603282959831986,175.5354612844692</t>
         </is>
       </c>
       <c r="AE173" t="inlineStr">
@@ -58745,7 +58745,7 @@
       </c>
       <c r="AD174" t="inlineStr">
         <is>
-          <t>-36.6034005135559,175.5354217152743</t>
+          <t>-36.603396513947125,175.53542306156533</t>
         </is>
       </c>
       <c r="AE174" t="inlineStr">
@@ -58782,7 +58782,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-36.58927392009284,175.5242388950471</t>
+          <t>-36.58927627128596,175.524241825336</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -58917,7 +58917,7 @@
       </c>
       <c r="AD175" t="inlineStr">
         <is>
-          <t>-36.603214096994705,175.53548446400546</t>
+          <t>-36.60321635764346,175.53548370306171</t>
         </is>
       </c>
       <c r="AE175" t="inlineStr">
@@ -58954,7 +58954,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-36.58925949520348,175.5242209173324</t>
+          <t>-36.58925523763645,175.52421561113596</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -59085,7 +59085,7 @@
       </c>
       <c r="AD176" t="inlineStr">
         <is>
-          <t>-36.60339729647928,175.53542279816057</t>
+          <t>-36.60339329687049,175.53542414445144</t>
         </is>
       </c>
       <c r="AE176" t="inlineStr">
@@ -59122,7 +59122,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-36.58921361513894,175.52416373715667</t>
+          <t>-36.58921806334597,175.52416928093805</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -59257,7 +59257,7 @@
       </c>
       <c r="AD177" t="inlineStr">
         <is>
-          <t>-36.60318705615735,175.5354935660605</t>
+          <t>-36.60319122966283,175.5354921612421</t>
         </is>
       </c>
       <c r="AE177" t="inlineStr">
@@ -59294,7 +59294,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-36.589227277488206,175.52418076448726</t>
+          <t>-36.58922479920178,175.52417767580823</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -59429,7 +59429,7 @@
       </c>
       <c r="AD178" t="inlineStr">
         <is>
-          <t>-36.60326365737039,175.5354677817673</t>
+          <t>-36.60326139672171,175.53546854271193</t>
         </is>
       </c>
       <c r="AE178" t="inlineStr">
@@ -59466,7 +59466,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-36.58919080218694,175.52413530548787</t>
+          <t>-36.58919150119116,175.52413617665297</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -59601,7 +59601,7 @@
       </c>
       <c r="AD179" t="inlineStr">
         <is>
-          <t>-36.603298871320376,175.53545592858615</t>
+          <t>-36.60329956690457,175.53545569444913</t>
         </is>
       </c>
       <c r="AE179" t="inlineStr">
@@ -59638,7 +59638,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-36.58924011373949,175.52419676226376</t>
+          <t>-36.58923591971705,175.52419153526688</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -59773,7 +59773,7 @@
       </c>
       <c r="AD180" t="inlineStr">
         <is>
-          <t>-36.60326287483816,175.5354680451712</t>
+          <t>-36.60325896217697,175.5354693621907</t>
         </is>
       </c>
       <c r="AE180" t="inlineStr">
@@ -59810,7 +59810,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-36.589089192317836,175.5240086699298</t>
+          <t>-36.5890916706091,175.524011758598</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -59933,7 +59933,7 @@
       </c>
       <c r="AD181" t="inlineStr">
         <is>
-          <t>-36.60317305752429,175.53549827805452</t>
+          <t>-36.603175318173115,175.5354975171115</t>
         </is>
       </c>
       <c r="AE181" t="inlineStr">
@@ -59970,7 +59970,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-36.5891628420127,175.52410045889718</t>
+          <t>-36.5891589657149,175.52409562789452</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
@@ -60097,7 +60097,7 @@
       </c>
       <c r="AD182" t="inlineStr">
         <is>
-          <t>-36.60331652176904,175.53544998735825</t>
+          <t>-36.6033128699521,175.53545121657802</t>
         </is>
       </c>
       <c r="AE182" t="inlineStr">
@@ -60134,7 +60134,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-36.589213360955675,175.5241634203692</t>
+          <t>-36.589216538246454,175.52416738021296</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -60221,7 +60221,7 @@
       </c>
       <c r="AD183" t="inlineStr">
         <is>
-          <t>-36.60336260422006,175.53543447576638</t>
+          <t>-36.6033655604527,175.53543348068254</t>
         </is>
       </c>
       <c r="AE183" t="inlineStr"/>
@@ -60313,7 +60313,7 @@
       </c>
       <c r="AD184" t="inlineStr">
         <is>
-          <t>-36.60329478476327,175.535457304141</t>
+          <t>-36.603290524310104,175.53545873822998</t>
         </is>
       </c>
       <c r="AE184" t="inlineStr">
@@ -60346,7 +60346,7 @@
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-36.58904248604281,175.52395046045078</t>
+          <t>-36.589044646605885,175.52395315313262</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -60477,7 +60477,7 @@
       </c>
       <c r="AD185" t="inlineStr">
         <is>
-          <t>-36.603338432670476,175.53544261203746</t>
+          <t>-36.603340519422986,175.53544190962575</t>
         </is>
       </c>
       <c r="AE185" t="inlineStr">
@@ -60514,7 +60514,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-36.58914682845326,175.52408050131564</t>
+          <t>-36.589151657939816,175.52408652026793</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -60649,7 +60649,7 @@
       </c>
       <c r="AD186" t="inlineStr">
         <is>
-          <t>-36.6032075758925,175.53548665903537</t>
+          <t>-36.603212097190024,175.53548513714802</t>
         </is>
       </c>
       <c r="AE186" t="inlineStr">
@@ -60686,7 +60686,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-36.589175424092495,175.52411613985987</t>
+          <t>-36.58917402608374,175.52411439753044</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -60821,7 +60821,7 @@
       </c>
       <c r="AD187" t="inlineStr">
         <is>
-          <t>-36.60326139672171,175.53546854271193</t>
+          <t>-36.60326009250132,175.53546898171842</t>
         </is>
       </c>
       <c r="AE187" t="inlineStr">
@@ -60893,7 +60893,7 @@
       </c>
       <c r="AD188" t="inlineStr">
         <is>
-          <t>-36.603297914892124,175.53545625052453</t>
+          <t>-36.60329661067176,175.5354566895314</t>
         </is>
       </c>
       <c r="AE188" t="inlineStr">
@@ -60930,7 +60930,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-36.58923223406076,175.52418694184587</t>
+          <t>-36.58923522071328,175.5241906641008</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -61065,7 +61065,7 @@
       </c>
       <c r="AD189" t="inlineStr">
         <is>
-          <t>-36.603180622003045,175.53549573182192</t>
+          <t>-36.60318340434004,175.5354947952765</t>
         </is>
       </c>
       <c r="AE189" t="inlineStr">
@@ -61229,7 +61229,7 @@
       </c>
       <c r="AD190" t="inlineStr">
         <is>
-          <t>-36.60331295690011,175.53545118731088</t>
+          <t>-36.603315739236834,175.53545025076252</t>
         </is>
       </c>
       <c r="AE190" t="inlineStr">
@@ -61266,7 +61266,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-36.58922556175146,175.52417862617096</t>
+          <t>-36.589222765735954,175.52417514150764</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -61401,7 +61401,7 @@
       </c>
       <c r="AD191" t="inlineStr">
         <is>
-          <t>-36.60327017847231,175.5354655867345</t>
+          <t>-36.60326757003154,175.53546646474766</t>
         </is>
       </c>
       <c r="AE191" t="inlineStr">
@@ -61438,7 +61438,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-36.58914276151694,175.52407543272483</t>
+          <t>-36.589146129448594,175.52407963015153</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -61565,7 +61565,7 @@
       </c>
       <c r="AD192" t="inlineStr">
         <is>
-          <t>-36.60332199949443,175.5354481435284</t>
+          <t>-36.603325129623215,175.53544708991126</t>
         </is>
       </c>
       <c r="AE192" t="inlineStr">
@@ -61602,7 +61602,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-36.58914778164142,175.5240816892667</t>
+          <t>-36.58914155414517,175.52407392798702</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -61729,7 +61729,7 @@
       </c>
       <c r="AD193" t="inlineStr">
         <is>
-          <t>-36.60337460304666,175.5354304368963</t>
+          <t>-36.60336869058139,175.53543242706434</t>
         </is>
       </c>
       <c r="AE193" t="inlineStr">
@@ -61766,7 +61766,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-36.58919849123288,175.52414488830476</t>
+          <t>-36.58919785577457,175.52414409633633</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -61897,7 +61897,7 @@
       </c>
       <c r="AD194" t="inlineStr">
         <is>
-          <t>-36.60328661164901,175.53546005525033</t>
+          <t>-36.60328600301284,175.53546026012015</t>
         </is>
       </c>
       <c r="AE194" t="inlineStr">
@@ -62021,7 +62021,7 @@
       </c>
       <c r="AD195" t="inlineStr">
         <is>
-          <t>-36.60324296374007,175.53547474733583</t>
+          <t>-36.60324261594796,175.53547486440414</t>
         </is>
       </c>
       <c r="AE195" t="inlineStr">
@@ -62054,7 +62054,7 @@
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-36.58906834924933,175.52398269344613</t>
+          <t>-36.58907317874137,175.52398871238623</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
@@ -62173,7 +62173,7 @@
       </c>
       <c r="AD196" t="inlineStr">
         <is>
-          <t>-36.6034968519549,175.5353892871832</t>
+          <t>-36.6035012863034,175.53538779455266</t>
         </is>
       </c>
       <c r="AE196" t="inlineStr"/>
@@ -62282,7 +62282,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-36.58914949738009,175.52408382757866</t>
+          <t>-36.58914466789337,175.5240778086267</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -62417,7 +62417,7 @@
       </c>
       <c r="AD198" t="inlineStr">
         <is>
-          <t>-36.6032844379484,175.53546078692824</t>
+          <t>-36.603280003599146,175.5354622795511</t>
         </is>
       </c>
       <c r="AE198" t="inlineStr">
@@ -62454,7 +62454,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-36.58918006293953,175.5241219212262</t>
+          <t>-36.58918349441521,175.52412619785378</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -62589,7 +62589,7 @@
       </c>
       <c r="AD199" t="inlineStr">
         <is>
-          <t>-36.60326670055129,175.5354667574187</t>
+          <t>-36.60327000457626,175.5354656452687</t>
         </is>
       </c>
       <c r="AE199" t="inlineStr">
@@ -62626,7 +62626,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-36.58907889787624,175.5239958400794</t>
+          <t>-36.5890820751732,175.5239997999094</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -62757,7 +62757,7 @@
       </c>
       <c r="AD200" t="inlineStr">
         <is>
-          <t>-36.60345520385729,175.5354033061956</t>
+          <t>-36.603458160089716,175.53540231110958</t>
         </is>
       </c>
       <c r="AE200" t="inlineStr">
@@ -62913,7 +62913,7 @@
       </c>
       <c r="AD201" t="inlineStr">
         <is>
-          <t>-36.603386080185054,175.53542657362814</t>
+          <t>-36.603387036613235,175.5354262516891</t>
         </is>
       </c>
       <c r="AE201" t="inlineStr">
@@ -62950,7 +62950,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-36.589152547582046,175.52408762902238</t>
+          <t>-36.589150450568205,175.52408501552978</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -63085,7 +63085,7 @@
       </c>
       <c r="AD202" t="inlineStr">
         <is>
-          <t>-36.60328643775297,175.53546011378455</t>
+          <t>-36.6032844379484,175.53546078692824</t>
         </is>
       </c>
       <c r="AE202" t="inlineStr">
@@ -63122,7 +63122,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-36.58909904193644,175.52402094540713</t>
+          <t>-36.58910152022735,175.5240240340761</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -63253,7 +63253,7 @@
       </c>
       <c r="AD203" t="inlineStr">
         <is>
-          <t>-36.60343059756936,175.5354115888206</t>
+          <t>-36.603432858217744,175.53541082787294</t>
         </is>
       </c>
       <c r="AE203" t="inlineStr">
@@ -63290,7 +63290,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-36.589093259257304,175.5240137385136</t>
+          <t>-36.58909433953806,175.52401508485625</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -63425,7 +63425,7 @@
       </c>
       <c r="AD204" t="inlineStr">
         <is>
-          <t>-36.60332878144014,175.53544586069114</t>
+          <t>-36.60332982481638,175.53544550948538</t>
         </is>
       </c>
       <c r="AE204" t="inlineStr">
@@ -63462,7 +63462,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-36.58907737277366,175.5239939393611</t>
+          <t>-36.58908131262194,175.52399884955017</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -63597,7 +63597,7 @@
       </c>
       <c r="AD205" t="inlineStr">
         <is>
-          <t>-36.60337042954176,175.53543184172082</t>
+          <t>-36.60337416830657,175.5354305832322</t>
         </is>
       </c>
       <c r="AE205" t="inlineStr">
@@ -63630,7 +63630,7 @@
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-36.58903714818079,175.52394380794337</t>
+          <t>-36.58903651272101,175.52394301597826</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
@@ -63714,7 +63714,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-36.58912668440696,175.52405539595694</t>
+          <t>-36.5891261124939,175.5240546831867</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -63849,7 +63849,7 @@
       </c>
       <c r="AD207" t="inlineStr">
         <is>
-          <t>-36.60326322263026,175.5354679281028</t>
+          <t>-36.6032627009421,175.5354681037054</t>
         </is>
       </c>
       <c r="AE207" t="inlineStr">
@@ -63937,7 +63937,7 @@
       </c>
       <c r="AD208" t="inlineStr">
         <is>
-          <t>-36.60340399147657,175.5354205445864</t>
+          <t>-36.60340799108532,175.53541919829516</t>
         </is>
       </c>
       <c r="AE208" t="inlineStr">
@@ -64065,7 +64065,7 @@
       </c>
       <c r="AD209" t="inlineStr">
         <is>
-          <t>-36.60330765307072,175.53545297260607</t>
+          <t>-36.60330608800632,175.53545349941444</t>
         </is>
       </c>
       <c r="AE209" t="inlineStr">
@@ -64210,7 +64210,7 @@
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-36.58900111760147,175.52389890354232</t>
+          <t>-36.58900518454611,175.5239039721146</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -64314,7 +64314,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-36.58913678820379,175.524067988233</t>
+          <t>-36.58914168123694,175.52407408638047</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
@@ -64377,7 +64377,7 @@
       </c>
       <c r="AD212" t="inlineStr">
         <is>
-          <t>-36.603374342202606,175.53543052469783</t>
+          <t>-36.60337895044758,175.53542897353728</t>
         </is>
       </c>
       <c r="AE212" t="inlineStr">
@@ -64410,7 +64410,7 @@
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-36.58902100750032,175.52392369203366</t>
+          <t>-36.5890190375745,175.5239212369429</t>
         </is>
       </c>
       <c r="D213" t="inlineStr"/>
@@ -64501,7 +64501,7 @@
       </c>
       <c r="AD213" t="inlineStr">
         <is>
-          <t>-36.60338147194011,175.53542812478898</t>
+          <t>-36.603379646031726,175.5354287393998</t>
         </is>
       </c>
       <c r="AE213" t="inlineStr">
@@ -64534,7 +64534,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-36.589205290636436,175.5241533623675</t>
+          <t>-36.589209357569075,175.52415843096654</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -64665,7 +64665,7 @@
       </c>
       <c r="AD214" t="inlineStr">
         <is>
-          <t>-36.60320488050358,175.5354875663143</t>
+          <t>-36.603208706216876,175.53548627856355</t>
         </is>
       </c>
       <c r="AE214" t="inlineStr">
@@ -64702,7 +64702,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-36.589196140037096,175.52414195802172</t>
+          <t>-36.58919969860365,175.52414639304476</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -64757,7 +64757,7 @@
       </c>
       <c r="AD215" t="inlineStr">
         <is>
-          <t>-36.60334756221263,175.535439538986</t>
+          <t>-36.603350866237406,175.53543842683385</t>
         </is>
       </c>
       <c r="AE215" t="inlineStr">
@@ -64794,7 +64794,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-36.58906777733577,175.52398198067695</t>
+          <t>-36.58907057335755,175.52398546532635</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -64917,7 +64917,7 @@
       </c>
       <c r="AD216" t="inlineStr">
         <is>
-          <t>-36.603375733370896,175.53543005642297</t>
+          <t>-36.60337842875948,175.53542914914038</t>
         </is>
       </c>
       <c r="AE216" t="inlineStr">
@@ -64954,7 +64954,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-36.58903822846242,175.52394515428406</t>
+          <t>-36.58903117485854,175.52393636347188</t>
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
@@ -65073,7 +65073,7 @@
       </c>
       <c r="AD217" t="inlineStr">
         <is>
-          <t>-36.60343651003434,175.53540959864966</t>
+          <t>-36.603429901985244,175.53541182295837</t>
         </is>
       </c>
       <c r="AE217" t="inlineStr">
@@ -65106,7 +65106,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-36.58906580741129,175.52397952558323</t>
+          <t>-36.58906917534669,175.52398372300163</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -65241,7 +65241,7 @@
       </c>
       <c r="AD218" t="inlineStr">
         <is>
-          <t>-36.60340781718929,175.53541925682958</t>
+          <t>-36.60341103426589,175.53541817394304</t>
         </is>
       </c>
       <c r="AE218" t="inlineStr">
@@ -65278,7 +65278,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-36.58905347949541,175.5239641614511</t>
+          <t>-36.58905373367927,175.52396447823727</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -65413,7 +65413,7 @@
       </c>
       <c r="AD219" t="inlineStr">
         <is>
-          <t>-36.603343127863596,175.53544103161107</t>
+          <t>-36.603343388707664,175.5354409438096</t>
         </is>
       </c>
       <c r="AE219" t="inlineStr">
@@ -65450,7 +65450,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-36.589097707472064,175.52401928227775</t>
+          <t>-36.58909561045657,175.52401666878885</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -65585,7 +65585,7 @@
       </c>
       <c r="AD220" t="inlineStr">
         <is>
-          <t>-36.60330913118712,175.53545247506483</t>
+          <t>-36.603307218330606,175.53545311894175</t>
         </is>
       </c>
       <c r="AE220" t="inlineStr">
@@ -65622,7 +65622,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-36.58906625223295,175.52398007995924</t>
+          <t>-36.589063646848864,175.5239768328999</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -65757,7 +65757,7 @@
       </c>
       <c r="AD221" t="inlineStr">
         <is>
-          <t>-36.60331304384814,175.53545115804374</t>
+          <t>-36.6033106093035,175.53545197752354</t>
         </is>
       </c>
       <c r="AE221" t="inlineStr">
@@ -65890,7 +65890,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-36.58910107540591,175.5240234796996</t>
+          <t>-36.58910291823757,175.52402577640228</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -66009,7 +66009,7 @@
       </c>
       <c r="AD223" t="inlineStr">
         <is>
-          <t>-36.6032687873039,175.5354660550082</t>
+          <t>-36.60327052626442,175.53546546966606</t>
         </is>
       </c>
       <c r="AE223" t="inlineStr">
@@ -66042,7 +66042,7 @@
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-36.58903930874404,175.52394650062485</t>
+          <t>-36.58903670335894,175.5239432535678</t>
         </is>
       </c>
       <c r="D224" t="inlineStr"/>
@@ -66154,7 +66154,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-36.58905303467367,175.5239636070753</t>
+          <t>-36.58904839581812,175.5239578257279</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -66289,7 +66289,7 @@
       </c>
       <c r="AD225" t="inlineStr">
         <is>
-          <t>-36.60338921031367,175.5354255200094</t>
+          <t>-36.603384862912804,175.53542698336878</t>
         </is>
       </c>
       <c r="AE225" t="inlineStr">
@@ -66421,7 +66421,7 @@
       </c>
       <c r="AD226" t="inlineStr">
         <is>
-          <t>-36.603374863890714,175.53543034909475</t>
+          <t>-36.60337295103431,175.53543099297266</t>
         </is>
       </c>
       <c r="AE226" t="inlineStr">
@@ -66549,7 +66549,7 @@
       </c>
       <c r="AD227" t="inlineStr">
         <is>
-          <t>-36.60337981992776,175.53542868086544</t>
+          <t>-36.60338338479651,175.53542748091093</t>
         </is>
       </c>
       <c r="AE227" t="inlineStr">
@@ -66673,7 +66673,7 @@
       </c>
       <c r="AD228" t="inlineStr">
         <is>
-          <t>-36.60334017163089,175.53544202669437</t>
+          <t>-36.6033393890987,175.53544229009876</t>
         </is>
       </c>
       <c r="AE228" t="inlineStr">
@@ -66797,7 +66797,7 @@
       </c>
       <c r="AD229" t="inlineStr">
         <is>
-          <t>-36.603341823643284,175.53544147061842</t>
+          <t>-36.60334164974725,175.53544152915273</t>
         </is>
       </c>
       <c r="AE229" t="inlineStr">
@@ -66925,7 +66925,7 @@
       </c>
       <c r="AD230" t="inlineStr">
         <is>
-          <t>-36.60322461770619,175.53548092268989</t>
+          <t>-36.603228356471405,175.5354796642056</t>
         </is>
       </c>
       <c r="AE230" t="inlineStr">
@@ -66962,7 +66962,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-36.58908607856715,175.52400478929567</t>
+          <t>-36.58908029588692,175.52399758240458</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -67093,7 +67093,7 @@
       </c>
       <c r="AD231" t="inlineStr">
         <is>
-          <t>-36.603260527241446,175.53546883538291</t>
+          <t>-36.60325513646382,175.53547064994297</t>
         </is>
       </c>
       <c r="AE231" t="inlineStr">
@@ -67225,7 +67225,7 @@
       </c>
       <c r="AD232" t="inlineStr">
         <is>
-          <t>-36.60328174255963,175.5354616942088</t>
+          <t>-36.60327826463865,175.53546286489333</t>
         </is>
       </c>
       <c r="AE232" t="inlineStr">
@@ -67258,7 +67258,7 @@
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-36.58902310451807,175.52392630551753</t>
+          <t>-36.5890190375745,175.5239212369429</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
@@ -67350,7 +67350,7 @@
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-36.589113339767394,175.52403876465397</t>
+          <t>-36.589109336375024,175.52403377526417</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -67449,7 +67449,7 @@
       </c>
       <c r="AD234" t="inlineStr">
         <is>
-          <t>-36.603331215984724,175.535445041211</t>
+          <t>-36.6033274772198,175.53544629969832</t>
         </is>
       </c>
       <c r="AE234" t="inlineStr">
@@ -67486,7 +67486,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-36.58913837685095,175.52406996815094</t>
+          <t>-36.589136089199016,175.52406711706914</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -67621,7 +67621,7 @@
       </c>
       <c r="AD235" t="inlineStr">
         <is>
-          <t>-36.60329652372375,175.5354567187985</t>
+          <t>-36.60329435002315,175.5354574504766</t>
         </is>
       </c>
       <c r="AE235" t="inlineStr">
@@ -67658,7 +67658,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-36.58932488377478,175.52430241107942</t>
+          <t>-36.58932570986907,175.52430344064175</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -67769,7 +67769,7 @@
       </c>
       <c r="AD236" t="inlineStr">
         <is>
-          <t>-36.60337790707136,175.53542932474346</t>
+          <t>-36.603378689603524,175.53542906133882</t>
         </is>
       </c>
       <c r="AE236" t="inlineStr">
@@ -67806,7 +67806,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-36.58913075134423,175.52406046454564</t>
+          <t>-36.58912477803004,175.52405302005616</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -67921,7 +67921,7 @@
       </c>
       <c r="AD237" t="inlineStr">
         <is>
-          <t>-36.6034308584134,175.53541150101896</t>
+          <t>-36.60342520679242,175.535413403388</t>
         </is>
       </c>
       <c r="AE237" t="inlineStr">
@@ -67958,7 +67958,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-36.589206879282024,175.52415534228894</t>
+          <t>-36.58920351135332,175.5241511448556</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -68093,7 +68093,7 @@
       </c>
       <c r="AD238" t="inlineStr">
         <is>
-          <t>-36.603314782808596,175.53545057270102</t>
+          <t>-36.60331165267978,175.53545162631792</t>
         </is>
       </c>
       <c r="AE238" t="inlineStr">
@@ -68130,7 +68130,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-36.589196711949604,175.52414267079325</t>
+          <t>-36.58918972190769,175.52413395914186</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -68265,7 +68265,7 @@
       </c>
       <c r="AD239" t="inlineStr">
         <is>
-          <t>-36.603361126103735,175.5354349733083</t>
+          <t>-36.60335451805424,175.535437197613</t>
         </is>
       </c>
       <c r="AE239" t="inlineStr">
@@ -68302,7 +68302,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-36.58917084879101,175.52411043769104</t>
+          <t>-36.589173390625206,175.52411360556252</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -68433,7 +68433,7 @@
       </c>
       <c r="AD240" t="inlineStr">
         <is>
-          <t>-36.60340407842458,175.5354205153192</t>
+          <t>-36.60340642602104,175.5354197251048</t>
         </is>
       </c>
       <c r="AE240" t="inlineStr">
@@ -68470,7 +68470,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-36.589197538045426,175.52414370035214</t>
+          <t>-36.58919544103293,175.5241410868565</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -68605,7 +68605,7 @@
       </c>
       <c r="AD241" t="inlineStr">
         <is>
-          <t>-36.6033214778063,175.53544831913126</t>
+          <t>-36.60331956494982,175.53544896300838</t>
         </is>
       </c>
       <c r="AE241" t="inlineStr">
@@ -68642,7 +68642,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-36.58924437130745,175.52420206845812</t>
+          <t>-36.58924271911692,175.52420000933785</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -68777,7 +68777,7 @@
       </c>
       <c r="AD242" t="inlineStr">
         <is>
-          <t>-36.60328243814383,175.5354614600719</t>
+          <t>-36.6032808730794,175.53546198687994</t>
         </is>
       </c>
       <c r="AE242" t="inlineStr">
@@ -68814,7 +68814,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-36.58914949738009,175.52408382757866</t>
+          <t>-36.589153564316,175.52408889617035</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -68949,7 +68949,7 @@
       </c>
       <c r="AD243" t="inlineStr">
         <is>
-          <t>-36.60327591704197,175.53546365510533</t>
+          <t>-36.603279742755056,175.53546236735244</t>
         </is>
       </c>
       <c r="AE243" t="inlineStr">
@@ -68986,7 +68986,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-36.58917053106173,175.5241100417071</t>
+          <t>-36.5891658286682,175.52410418114542</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -69117,7 +69117,7 @@
       </c>
       <c r="AD244" t="inlineStr">
         <is>
-          <t>-36.60330973982328,175.5354522701949</t>
+          <t>-36.603305305474116,175.5354537628186</t>
         </is>
       </c>
       <c r="AE244" t="inlineStr">
@@ -69233,7 +69233,7 @@
       </c>
       <c r="AD245" t="inlineStr">
         <is>
-          <t>-36.60330878339502,175.53545259213337</t>
+          <t>-36.603308000862825,175.53545285553753</t>
         </is>
       </c>
       <c r="AE245" t="inlineStr">
@@ -69270,7 +69270,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-36.589120711092434,175.52404795146822</t>
+          <t>-36.589125349943124,175.5240537328264</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -69405,7 +69405,7 @@
       </c>
       <c r="AD246" t="inlineStr">
         <is>
-          <t>-36.60337651590307,175.53542979301835</t>
+          <t>-36.603380863303975,175.53542832965925</t>
         </is>
       </c>
       <c r="AE246" t="inlineStr">
@@ -69442,7 +69442,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-36.589233123701945,175.52418805060262</t>
+          <t>-36.58923560198806,175.5241911392823</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -69577,7 +69577,7 @@
       </c>
       <c r="AD247" t="inlineStr">
         <is>
-          <t>-36.60335147487354,175.53543822196372</t>
+          <t>-36.60335373552207,175.53543746101747</t>
         </is>
       </c>
       <c r="AE247" t="inlineStr">
@@ -69614,7 +69614,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-36.58915712288474,175.52409333118854</t>
+          <t>-36.58916030017811,175.52409729102655</t>
         </is>
       </c>
       <c r="D248" t="inlineStr"/>
@@ -69721,7 +69721,7 @@
       </c>
       <c r="AD248" t="inlineStr">
         <is>
-          <t>-36.603268961199944,175.53546599647396</t>
+          <t>-36.60327191743282,175.53546500139234</t>
         </is>
       </c>
       <c r="AE248" t="inlineStr">
@@ -69754,7 +69754,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-36.58916633703508,175.52410481471964</t>
+          <t>-36.589160808545024,175.52409792460065</t>
         </is>
       </c>
       <c r="D249" t="inlineStr"/>
@@ -69809,7 +69809,7 @@
       </c>
       <c r="AD249" t="inlineStr">
         <is>
-          <t>-36.603316087028915,175.53545013369396</t>
+          <t>-36.603310870147574,175.53545188972214</t>
         </is>
       </c>
       <c r="AE249" t="inlineStr">
@@ -69846,7 +69846,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-36.589146320086236,175.52407986774173</t>
+          <t>-36.58915006929296,175.52408454034932</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -69981,7 +69981,7 @@
       </c>
       <c r="AD250" t="inlineStr">
         <is>
-          <t>-36.60333165072483,175.53544489487527</t>
+          <t>-36.603335128645675,175.53544372418924</t>
         </is>
       </c>
       <c r="AE250" t="inlineStr">
@@ -70014,7 +70014,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-36.589229056770705,175.5241829820005</t>
+          <t>-36.58922626075532,175.52417949733686</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -70149,7 +70149,7 @@
       </c>
       <c r="AD251" t="inlineStr">
         <is>
-          <t>-36.60325235412697,175.53547158649002</t>
+          <t>-36.60324974568618,175.5354724645028</t>
         </is>
       </c>
       <c r="AE251" t="inlineStr">
@@ -70186,7 +70186,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-36.58914492207689,175.5240781254136</t>
+          <t>-36.58914263442517,175.52407527433138</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -70321,7 +70321,7 @@
       </c>
       <c r="AD252" t="inlineStr">
         <is>
-          <t>-36.60332086917015,175.53544852400125</t>
+          <t>-36.60331878241762,175.53544922641262</t>
         </is>
       </c>
       <c r="AE252" t="inlineStr">
@@ -70358,7 +70358,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-36.58916970496559,175.52410901214893</t>
+          <t>-36.589172246799826,175.52411218002032</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -70493,7 +70493,7 @@
       </c>
       <c r="AD253" t="inlineStr">
         <is>
-          <t>-36.60331391332836,175.53545086537238</t>
+          <t>-36.60331626092496,175.53545007515967</t>
         </is>
       </c>
       <c r="AE253" t="inlineStr">
@@ -70530,7 +70530,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>-36.58917752110558,175.52411875335417</t>
+          <t>-36.58917377190034,175.52411408074326</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -70661,7 +70661,7 @@
       </c>
       <c r="AD254" t="inlineStr">
         <is>
-          <t>-36.60326513548682,175.53546728422657</t>
+          <t>-36.603261657565795,175.5354684549106</t>
         </is>
       </c>
       <c r="AE254" t="inlineStr">
@@ -70698,7 +70698,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>-36.58913132325726,175.52406117731599</t>
+          <t>-36.58913157744083,175.5240614941028</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -70833,7 +70833,7 @@
       </c>
       <c r="AD255" t="inlineStr">
         <is>
-          <t>-36.603308522550954,175.53545267993476</t>
+          <t>-36.60330878339502,175.53545259213337</t>
         </is>
       </c>
       <c r="AE255" t="inlineStr">
@@ -70870,7 +70870,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>-36.58912426966286,175.52405238648265</t>
+          <t>-36.58912210910226,175.52404969379526</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -71005,7 +71005,7 @@
       </c>
       <c r="AD256" t="inlineStr">
         <is>
-          <t>-36.60327452587357,175.5354641233791</t>
+          <t>-36.60327243912097,175.5354648257897</t>
         </is>
       </c>
       <c r="AE256" t="inlineStr">
@@ -71042,7 +71042,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>-36.58914021968163,175.52407226485582</t>
+          <t>-36.58914447725572,175.52407757103649</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -71177,7 +71177,7 @@
       </c>
       <c r="AD257" t="inlineStr">
         <is>
-          <t>-36.603374863890714,175.53543034909475</t>
+          <t>-36.60337886349955,175.53542900280445</t>
         </is>
       </c>
       <c r="AE257" t="inlineStr">
@@ -71214,7 +71214,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-36.58914174478281,175.5240741655772</t>
+          <t>-36.589143015700465,175.52407574951172</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -71349,7 +71349,7 @@
       </c>
       <c r="AD258" t="inlineStr">
         <is>
-          <t>-36.60335312688593,175.53543766588763</t>
+          <t>-36.603354344158205,175.5354372561473</t>
         </is>
       </c>
       <c r="AE258" t="inlineStr">
@@ -71386,7 +71386,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>-36.58916659121852,175.52410513150676</t>
+          <t>-36.58916506611787,175.52410323078414</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -71521,7 +71521,7 @@
       </c>
       <c r="AD259" t="inlineStr">
         <is>
-          <t>-36.60334764916066,175.53543950971883</t>
+          <t>-36.60334625799234,175.53543997799338</t>
         </is>
       </c>
       <c r="AE259" t="inlineStr">
@@ -71558,7 +71558,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-36.58916690894783,175.5241055274906</t>
+          <t>-36.58917072169931,175.52411027929745</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -71693,7 +71693,7 @@
       </c>
       <c r="AD260" t="inlineStr">
         <is>
-          <t>-36.603418337899214,175.53541571549772</t>
+          <t>-36.60342190276784,175.5354145155421</t>
         </is>
       </c>
       <c r="AE260" t="inlineStr">
@@ -71730,7 +71730,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-36.589180634852156,175.52412263399742</t>
+          <t>-36.58917847429332,175.52411994130614</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -71865,7 +71865,7 @@
       </c>
       <c r="AD261" t="inlineStr">
         <is>
-          <t>-36.60337677674712,175.53542970521679</t>
+          <t>-36.60337468999468,175.53543040762912</t>
         </is>
       </c>
       <c r="AE261" t="inlineStr">
